--- a/Jason Down Gantt Chart.xlsx
+++ b/Jason Down Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Random Stuff\School Stuff\Unitec\HTCS5607\htc5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC15B3A-F913-4624-BDE6-C8925E637881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9631D3B7-8720-4D85-BA31-B0B2AAA26B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="245">
   <si>
     <t>WBS</t>
   </si>
@@ -1843,9 +1843,6 @@
   </si>
   <si>
     <t>Deploy Product</t>
-  </si>
-  <si>
-    <t>Conclude Technical Report</t>
   </si>
   <si>
     <t>Launch Product</t>
@@ -3055,6 +3052,13 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3064,6 +3068,10 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3072,17 +3080,6 @@
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3134,7 +3131,33 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="293">
+  <dxfs count="296">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -5806,14 +5829,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9656</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>201959</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5873,8 +5896,8 @@
         <xdr:to>
           <xdr:col>27</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>217761</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>110987</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6455,9 +6478,9 @@
   </sheetPr>
   <dimension ref="A1:BN130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6475,7 +6498,7 @@
     <col min="67" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="97" t="s">
         <v>130</v>
       </c>
@@ -6485,31 +6508,31 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="102"/>
-      <c r="K1" s="139" t="s">
+      <c r="K1" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
-    </row>
-    <row r="2" spans="1:66" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+    </row>
+    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -6518,7 +6541,7 @@
       <c r="F2" s="130"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="44"/>
       <c r="C3" s="4"/>
@@ -6545,16 +6568,16 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
     </row>
-    <row r="4" spans="1:66" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="82"/>
       <c r="B4" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="138">
         <v>44459</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="83"/>
       <c r="G4" s="86" t="s">
         <v>68</v>
@@ -6564,184 +6587,184 @@
       </c>
       <c r="I4" s="84"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="133" t="str">
+      <c r="K4" s="135" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="133" t="str">
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="135" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="133" t="str">
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="135" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="133" t="str">
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="135" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="134"/>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="134"/>
-      <c r="AJ4" s="134"/>
-      <c r="AK4" s="134"/>
-      <c r="AL4" s="135"/>
-      <c r="AM4" s="133" t="str">
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="137"/>
+      <c r="AM4" s="135" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="134"/>
-      <c r="AO4" s="134"/>
-      <c r="AP4" s="134"/>
-      <c r="AQ4" s="134"/>
-      <c r="AR4" s="134"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="133" t="str">
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="135" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="134"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="134"/>
-      <c r="AX4" s="134"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="133" t="str">
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="135" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="134"/>
-      <c r="BC4" s="134"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="134"/>
-      <c r="BF4" s="134"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="133" t="str">
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="135" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="134"/>
-      <c r="BJ4" s="134"/>
-      <c r="BK4" s="134"/>
-      <c r="BL4" s="134"/>
-      <c r="BM4" s="134"/>
-      <c r="BN4" s="135"/>
-    </row>
-    <row r="5" spans="1:66" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="137"/>
+    </row>
+    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="82"/>
       <c r="B5" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="85"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="136">
+      <c r="K5" s="139">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="136">
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="139">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="136">
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="139">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="138"/>
-      <c r="AF5" s="136">
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="139">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="138"/>
-      <c r="AM5" s="136">
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="139">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="138"/>
-      <c r="AT5" s="136">
+      <c r="AN5" s="140"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="140"/>
+      <c r="AR5" s="140"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="139">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="138"/>
-      <c r="BA5" s="136">
+      <c r="AU5" s="140"/>
+      <c r="AV5" s="140"/>
+      <c r="AW5" s="140"/>
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="140"/>
+      <c r="AZ5" s="141"/>
+      <c r="BA5" s="139">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="138"/>
-      <c r="BH5" s="136">
+      <c r="BB5" s="140"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="140"/>
+      <c r="BE5" s="140"/>
+      <c r="BF5" s="140"/>
+      <c r="BG5" s="141"/>
+      <c r="BH5" s="139">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="138"/>
-    </row>
-    <row r="6" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BI5" s="140"/>
+      <c r="BJ5" s="140"/>
+      <c r="BK5" s="140"/>
+      <c r="BL5" s="140"/>
+      <c r="BM5" s="140"/>
+      <c r="BN5" s="141"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -6977,7 +7000,7 @@
         <v>44514</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="96" customFormat="1" ht="24.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" s="96" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
@@ -7324,17 +7347,17 @@
       </c>
       <c r="F9" s="76">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="G9" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="73"/>
       <c r="K9" s="79"/>
@@ -7404,17 +7427,17 @@
       </c>
       <c r="D10" s="99"/>
       <c r="E10" s="75">
-        <v>44461</v>
+        <v>44463</v>
       </c>
       <c r="F10" s="76">
         <f t="shared" ref="F10:F57" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v>44461</v>
+        <v>44463</v>
       </c>
       <c r="G10" s="58">
         <v>1</v>
       </c>
       <c r="H10" s="59">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="60">
         <f t="shared" si="4"/>
@@ -7488,11 +7511,11 @@
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="75">
-        <v>44461</v>
+        <v>44464</v>
       </c>
       <c r="F11" s="76">
         <f t="shared" si="6"/>
-        <v>44461</v>
+        <v>44464</v>
       </c>
       <c r="G11" s="58">
         <v>1</v>
@@ -7502,7 +7525,7 @@
       </c>
       <c r="I11" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="73"/>
       <c r="K11" s="79"/>
@@ -7572,21 +7595,21 @@
       </c>
       <c r="D12" s="99"/>
       <c r="E12" s="75">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="F12" s="76">
         <f t="shared" si="6"/>
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="G12" s="58">
         <v>1</v>
       </c>
       <c r="H12" s="59">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I12" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="73"/>
       <c r="K12" s="79"/>
@@ -7648,7 +7671,7 @@
     </row>
     <row r="13" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A13" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A13:A20" si="7">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
       </c>
       <c r="B13" s="100" t="s">
@@ -7656,21 +7679,21 @@
       </c>
       <c r="D13" s="99"/>
       <c r="E13" s="75">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="F13" s="76">
         <f t="shared" si="6"/>
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="G13" s="58">
         <v>1</v>
       </c>
       <c r="H13" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="73"/>
       <c r="K13" s="79"/>
@@ -7732,7 +7755,7 @@
     </row>
     <row r="14" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="7"/>
         <v>1.4.2</v>
       </c>
       <c r="B14" s="100" t="s">
@@ -7740,21 +7763,21 @@
       </c>
       <c r="D14" s="99"/>
       <c r="E14" s="75">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="F14" s="76">
-        <f t="shared" ref="F14" si="7">IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
-        <v>44462</v>
+        <f t="shared" ref="F14" si="8">IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
+        <v>44465</v>
       </c>
       <c r="G14" s="58">
         <v>1</v>
       </c>
       <c r="H14" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="60">
-        <f t="shared" ref="I14" si="8">IF(OR(F14=0,E14=0)," - ",NETWORKDAYS(E14,F14))</f>
-        <v>1</v>
+        <f t="shared" ref="I14" si="9">IF(OR(F14=0,E14=0)," - ",NETWORKDAYS(E14,F14))</f>
+        <v>0</v>
       </c>
       <c r="J14" s="73"/>
       <c r="K14" s="79"/>
@@ -7816,7 +7839,7 @@
     </row>
     <row r="15" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="7"/>
         <v>1.4.3</v>
       </c>
       <c r="B15" s="100" t="s">
@@ -7824,21 +7847,21 @@
       </c>
       <c r="D15" s="99"/>
       <c r="E15" s="75">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="F15" s="76">
-        <f t="shared" ref="F15" si="9">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v>44462</v>
+        <f t="shared" ref="F15" si="10">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
+        <v>44465</v>
       </c>
       <c r="G15" s="58">
         <v>1</v>
       </c>
       <c r="H15" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="60">
-        <f t="shared" ref="I15" si="10">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
-        <v>1</v>
+        <f t="shared" ref="I15" si="11">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
+        <v>0</v>
       </c>
       <c r="J15" s="73"/>
       <c r="K15" s="79"/>
@@ -7900,7 +7923,7 @@
     </row>
     <row r="16" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="7"/>
         <v>1.4.4</v>
       </c>
       <c r="B16" s="100" t="s">
@@ -7908,20 +7931,20 @@
       </c>
       <c r="D16" s="99"/>
       <c r="E16" s="75">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="F16" s="76">
-        <f t="shared" ref="F16" si="11">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
-        <v>44462</v>
+        <f t="shared" ref="F16" si="12">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
+        <v>44466</v>
       </c>
       <c r="G16" s="58">
         <v>1</v>
       </c>
       <c r="H16" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="60">
-        <f t="shared" ref="I16" si="12">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
+        <f t="shared" ref="I16" si="13">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
         <v>1</v>
       </c>
       <c r="J16" s="73"/>
@@ -7984,7 +8007,7 @@
     </row>
     <row r="17" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="7"/>
         <v>1.4.5</v>
       </c>
       <c r="B17" s="100" t="s">
@@ -7992,20 +8015,20 @@
       </c>
       <c r="D17" s="99"/>
       <c r="E17" s="75">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="F17" s="76">
-        <f t="shared" ref="F17" si="13">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v>44462</v>
+        <f t="shared" ref="F17" si="14">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
+        <v>44466</v>
       </c>
       <c r="G17" s="58">
         <v>1</v>
       </c>
       <c r="H17" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="60">
-        <f t="shared" ref="I17" si="14">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
+        <f t="shared" ref="I17" si="15">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
         <v>1</v>
       </c>
       <c r="J17" s="73"/>
@@ -8068,7 +8091,7 @@
     </row>
     <row r="18" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="7"/>
         <v>1.4.6</v>
       </c>
       <c r="B18" s="100" t="s">
@@ -8076,20 +8099,20 @@
       </c>
       <c r="D18" s="99"/>
       <c r="E18" s="75">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="F18" s="76">
-        <f t="shared" ref="F18" si="15">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
-        <v>44462</v>
+        <f t="shared" ref="F18" si="16">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+        <v>44466</v>
       </c>
       <c r="G18" s="58">
         <v>1</v>
       </c>
       <c r="H18" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I18" s="60">
-        <f t="shared" ref="I18" si="16">IF(OR(F18=0,E18=0)," - ",NETWORKDAYS(E18,F18))</f>
+        <f t="shared" ref="I18" si="17">IF(OR(F18=0,E18=0)," - ",NETWORKDAYS(E18,F18))</f>
         <v>1</v>
       </c>
       <c r="J18" s="73"/>
@@ -8152,7 +8175,7 @@
     </row>
     <row r="19" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="7"/>
         <v>1.4.7</v>
       </c>
       <c r="B19" s="100" t="s">
@@ -8160,20 +8183,20 @@
       </c>
       <c r="D19" s="99"/>
       <c r="E19" s="75">
-        <v>44462</v>
+        <v>44467</v>
       </c>
       <c r="F19" s="76">
-        <f t="shared" ref="F19" si="17">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
-        <v>44462</v>
+        <f t="shared" ref="F19" si="18">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v>44467</v>
       </c>
       <c r="G19" s="58">
         <v>1</v>
       </c>
       <c r="H19" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I19" s="60">
-        <f t="shared" ref="I19" si="18">IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
+        <f t="shared" ref="I19" si="19">IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
         <v>1</v>
       </c>
       <c r="J19" s="73"/>
@@ -8236,7 +8259,7 @@
     </row>
     <row r="20" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="7"/>
         <v>1.4.8</v>
       </c>
       <c r="B20" s="100" t="s">
@@ -8244,20 +8267,20 @@
       </c>
       <c r="D20" s="99"/>
       <c r="E20" s="75">
-        <v>44462</v>
+        <v>44467</v>
       </c>
       <c r="F20" s="76">
-        <f t="shared" ref="F20" si="19">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>44462</v>
+        <f t="shared" ref="F20" si="20">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <v>44467</v>
       </c>
       <c r="G20" s="58">
         <v>1</v>
       </c>
       <c r="H20" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I20" s="60">
-        <f t="shared" ref="I20" si="20">IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
+        <f t="shared" ref="I20" si="21">IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
         <v>1</v>
       </c>
       <c r="J20" s="73"/>
@@ -8406,11 +8429,11 @@
       </c>
       <c r="D22" s="99"/>
       <c r="E22" s="75">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="F22" s="76">
         <f t="shared" si="6"/>
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="G22" s="58">
         <v>1</v>
@@ -8490,20 +8513,20 @@
       </c>
       <c r="D23" s="99"/>
       <c r="E23" s="75">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="F23" s="76">
-        <f t="shared" ref="F23:F26" si="21">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
-        <v>44463</v>
+        <f t="shared" ref="F23:F26" si="22">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
+        <v>44468</v>
       </c>
       <c r="G23" s="58">
         <v>1</v>
       </c>
       <c r="H23" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23" s="60">
-        <f t="shared" ref="I23:I26" si="22">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
+        <f t="shared" ref="I23:I26" si="23">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
         <v>1</v>
       </c>
       <c r="J23" s="73"/>
@@ -8574,20 +8597,20 @@
       </c>
       <c r="D24" s="99"/>
       <c r="E24" s="75">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="F24" s="76">
-        <f t="shared" si="21"/>
-        <v>44463</v>
+        <f t="shared" si="22"/>
+        <v>44468</v>
       </c>
       <c r="G24" s="58">
         <v>1</v>
       </c>
       <c r="H24" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I24" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="J24" s="73"/>
@@ -8658,20 +8681,20 @@
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="75">
-        <v>44463</v>
+        <v>44469</v>
       </c>
       <c r="F25" s="76">
-        <f t="shared" si="21"/>
-        <v>44463</v>
+        <f t="shared" si="22"/>
+        <v>44469</v>
       </c>
       <c r="G25" s="58">
         <v>1</v>
       </c>
       <c r="H25" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I25" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="J25" s="73"/>
@@ -8742,20 +8765,20 @@
       </c>
       <c r="D26" s="99"/>
       <c r="E26" s="75">
-        <v>44463</v>
+        <v>44469</v>
       </c>
       <c r="F26" s="76">
-        <f t="shared" si="21"/>
-        <v>44463</v>
+        <f t="shared" si="22"/>
+        <v>44469</v>
       </c>
       <c r="G26" s="58">
         <v>1</v>
       </c>
       <c r="H26" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="J26" s="73"/>
@@ -8826,11 +8849,11 @@
       </c>
       <c r="D27" s="99"/>
       <c r="E27" s="75">
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="F27" s="76">
         <f t="shared" si="6"/>
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="G27" s="58">
         <v>1</v>
@@ -8840,7 +8863,7 @@
       </c>
       <c r="I27" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="73"/>
       <c r="K27" s="79"/>
@@ -8910,21 +8933,21 @@
       </c>
       <c r="D28" s="99"/>
       <c r="E28" s="75">
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="F28" s="76">
         <f t="shared" si="6"/>
-        <v>44464</v>
+        <v>44470</v>
       </c>
       <c r="G28" s="58">
         <v>1</v>
       </c>
       <c r="H28" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I28" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="73"/>
       <c r="K28" s="79"/>
@@ -8994,11 +9017,11 @@
       </c>
       <c r="D29" s="99"/>
       <c r="E29" s="75">
-        <v>44465</v>
+        <v>44471</v>
       </c>
       <c r="F29" s="76">
-        <f t="shared" ref="F29:F31" si="23">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
-        <v>44465</v>
+        <f t="shared" ref="F29:F31" si="24">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
+        <v>44471</v>
       </c>
       <c r="G29" s="58">
         <v>1</v>
@@ -9007,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="60">
-        <f t="shared" ref="I29:I31" si="24">IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
+        <f t="shared" ref="I29:I31" si="25">IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
         <v>0</v>
       </c>
       <c r="J29" s="73"/>
@@ -9078,20 +9101,20 @@
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="75">
-        <v>44465</v>
+        <v>44471</v>
       </c>
       <c r="F30" s="76">
-        <f t="shared" si="23"/>
-        <v>44465</v>
+        <f t="shared" si="24"/>
+        <v>44471</v>
       </c>
       <c r="G30" s="58">
         <v>1</v>
       </c>
       <c r="H30" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I30" s="60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J30" s="73"/>
@@ -9162,20 +9185,20 @@
       </c>
       <c r="D31" s="99"/>
       <c r="E31" s="75">
-        <v>44465</v>
+        <v>44471</v>
       </c>
       <c r="F31" s="76">
-        <f t="shared" si="23"/>
-        <v>44465</v>
+        <f t="shared" si="24"/>
+        <v>44471</v>
       </c>
       <c r="G31" s="58">
         <v>1</v>
       </c>
       <c r="H31" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I31" s="60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J31" s="73"/>
@@ -9246,17 +9269,17 @@
       </c>
       <c r="D32" s="99"/>
       <c r="E32" s="75">
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="F32" s="76">
         <f>IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="G32" s="58">
         <v>1</v>
       </c>
       <c r="H32" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I32" s="60">
         <f>IF(OR(F32=0,E32=0)," - ",NETWORKDAYS(E32,F32))</f>
@@ -9330,11 +9353,11 @@
       </c>
       <c r="D33" s="99"/>
       <c r="E33" s="75">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="F33" s="76">
-        <f t="shared" ref="F33:F35" si="25">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
-        <v>44466</v>
+        <f t="shared" ref="F33:F35" si="26">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
+        <v>44473</v>
       </c>
       <c r="G33" s="58">
         <v>1</v>
@@ -9343,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="60">
-        <f t="shared" ref="I33:I35" si="26">IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
+        <f t="shared" ref="I33:I35" si="27">IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
         <v>1</v>
       </c>
       <c r="J33" s="73"/>
@@ -9414,20 +9437,20 @@
       </c>
       <c r="D34" s="99"/>
       <c r="E34" s="75">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="F34" s="76">
-        <f t="shared" si="25"/>
-        <v>44466</v>
+        <f t="shared" si="26"/>
+        <v>44473</v>
       </c>
       <c r="G34" s="58">
         <v>1</v>
       </c>
       <c r="H34" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I34" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="J34" s="73"/>
@@ -9498,20 +9521,20 @@
       </c>
       <c r="D35" s="99"/>
       <c r="E35" s="75">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="F35" s="76">
-        <f t="shared" si="25"/>
-        <v>44466</v>
+        <f t="shared" si="26"/>
+        <v>44473</v>
       </c>
       <c r="G35" s="58">
         <v>1</v>
       </c>
       <c r="H35" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I35" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="J35" s="73"/>
@@ -9582,17 +9605,17 @@
       </c>
       <c r="D36" s="99"/>
       <c r="E36" s="75">
-        <v>44466</v>
+        <v>44474</v>
       </c>
       <c r="F36" s="76">
         <f>IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
-        <v>44466</v>
+        <v>44474</v>
       </c>
       <c r="G36" s="58">
         <v>1</v>
       </c>
       <c r="H36" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I36" s="60">
         <f>IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
@@ -9744,11 +9767,11 @@
       </c>
       <c r="D38" s="99"/>
       <c r="E38" s="75">
-        <v>44467</v>
+        <v>44475</v>
       </c>
       <c r="F38" s="76">
         <f t="shared" si="6"/>
-        <v>44467</v>
+        <v>44475</v>
       </c>
       <c r="G38" s="58">
         <v>1</v>
@@ -9828,21 +9851,21 @@
       </c>
       <c r="D39" s="99"/>
       <c r="E39" s="75">
-        <v>44467</v>
+        <v>44476</v>
       </c>
       <c r="F39" s="76">
         <f t="shared" si="6"/>
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="G39" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="59">
         <v>0</v>
       </c>
       <c r="I39" s="60">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="73"/>
       <c r="K39" s="79"/>
@@ -9904,7 +9927,7 @@
     </row>
     <row r="40" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A40" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A40:A47" si="28">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.1</v>
       </c>
       <c r="B40" s="100" t="s">
@@ -9912,20 +9935,20 @@
       </c>
       <c r="D40" s="99"/>
       <c r="E40" s="75">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="F40" s="76">
-        <f t="shared" ref="F40:F47" si="27">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
-        <v>44468</v>
+        <f t="shared" ref="F40:F47" si="29">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+        <v>44476</v>
       </c>
       <c r="G40" s="58">
         <v>1</v>
       </c>
       <c r="H40" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I40" s="60">
-        <f t="shared" ref="I40:I47" si="28">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
+        <f t="shared" ref="I40:I47" si="30">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
         <v>1</v>
       </c>
       <c r="J40" s="73"/>
@@ -9988,7 +10011,7 @@
     </row>
     <row r="41" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.2.2</v>
       </c>
       <c r="B41" s="100" t="s">
@@ -9996,20 +10019,20 @@
       </c>
       <c r="D41" s="99"/>
       <c r="E41" s="75">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="F41" s="76">
-        <f t="shared" si="27"/>
-        <v>44468</v>
+        <f t="shared" si="29"/>
+        <v>44476</v>
       </c>
       <c r="G41" s="58">
         <v>1</v>
       </c>
       <c r="H41" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I41" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J41" s="73"/>
@@ -10072,7 +10095,7 @@
     </row>
     <row r="42" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.2.3</v>
       </c>
       <c r="B42" s="100" t="s">
@@ -10080,20 +10103,20 @@
       </c>
       <c r="D42" s="99"/>
       <c r="E42" s="75">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="F42" s="76">
-        <f t="shared" si="27"/>
-        <v>44468</v>
+        <f t="shared" si="29"/>
+        <v>44476</v>
       </c>
       <c r="G42" s="58">
         <v>1</v>
       </c>
       <c r="H42" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I42" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J42" s="73"/>
@@ -10156,7 +10179,7 @@
     </row>
     <row r="43" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A43" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.2.4</v>
       </c>
       <c r="B43" s="100" t="s">
@@ -10164,20 +10187,20 @@
       </c>
       <c r="D43" s="99"/>
       <c r="E43" s="75">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="F43" s="76">
-        <f t="shared" si="27"/>
-        <v>44468</v>
+        <f t="shared" si="29"/>
+        <v>44476</v>
       </c>
       <c r="G43" s="58">
         <v>1</v>
       </c>
       <c r="H43" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I43" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J43" s="73"/>
@@ -10240,7 +10263,7 @@
     </row>
     <row r="44" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A44" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.2.5</v>
       </c>
       <c r="B44" s="100" t="s">
@@ -10248,20 +10271,20 @@
       </c>
       <c r="D44" s="99"/>
       <c r="E44" s="75">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="F44" s="76">
-        <f t="shared" si="27"/>
-        <v>44468</v>
+        <f t="shared" si="29"/>
+        <v>44477</v>
       </c>
       <c r="G44" s="58">
         <v>1</v>
       </c>
       <c r="H44" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I44" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J44" s="73"/>
@@ -10324,7 +10347,7 @@
     </row>
     <row r="45" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.2.6</v>
       </c>
       <c r="B45" s="100" t="s">
@@ -10332,20 +10355,20 @@
       </c>
       <c r="D45" s="99"/>
       <c r="E45" s="75">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="F45" s="76">
-        <f t="shared" si="27"/>
-        <v>44468</v>
+        <f t="shared" si="29"/>
+        <v>44477</v>
       </c>
       <c r="G45" s="58">
         <v>1</v>
       </c>
       <c r="H45" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I45" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J45" s="73"/>
@@ -10408,7 +10431,7 @@
     </row>
     <row r="46" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.2.7</v>
       </c>
       <c r="B46" s="100" t="s">
@@ -10416,20 +10439,20 @@
       </c>
       <c r="D46" s="99"/>
       <c r="E46" s="75">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="F46" s="76">
-        <f t="shared" si="27"/>
-        <v>44468</v>
+        <f t="shared" si="29"/>
+        <v>44477</v>
       </c>
       <c r="G46" s="58">
         <v>1</v>
       </c>
       <c r="H46" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I46" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J46" s="73"/>
@@ -10492,7 +10515,7 @@
     </row>
     <row r="47" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A47" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.2.8</v>
       </c>
       <c r="B47" s="100" t="s">
@@ -10500,20 +10523,20 @@
       </c>
       <c r="D47" s="99"/>
       <c r="E47" s="75">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="F47" s="76">
-        <f t="shared" si="27"/>
-        <v>44468</v>
+        <f t="shared" si="29"/>
+        <v>44477</v>
       </c>
       <c r="G47" s="58">
         <v>1</v>
       </c>
       <c r="H47" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I47" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J47" s="73"/>
@@ -10584,11 +10607,11 @@
       </c>
       <c r="D48" s="99"/>
       <c r="E48" s="75">
-        <v>44469</v>
+        <v>44478</v>
       </c>
       <c r="F48" s="76">
         <f t="shared" si="6"/>
-        <v>44469</v>
+        <v>44478</v>
       </c>
       <c r="G48" s="58">
         <v>1</v>
@@ -10598,7 +10621,7 @@
       </c>
       <c r="I48" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="73"/>
       <c r="K48" s="79"/>
@@ -10660,7 +10683,7 @@
     </row>
     <row r="49" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A49:A57" si="31">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.1</v>
       </c>
       <c r="B49" s="100" t="s">
@@ -10668,21 +10691,21 @@
       </c>
       <c r="D49" s="99"/>
       <c r="E49" s="75">
-        <v>44469</v>
+        <v>44478</v>
       </c>
       <c r="F49" s="76">
-        <f t="shared" ref="F49" si="29">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
-        <v>44469</v>
+        <f t="shared" ref="F49" si="32">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <v>44478</v>
       </c>
       <c r="G49" s="58">
         <v>1</v>
       </c>
       <c r="H49" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I49" s="60">
-        <f t="shared" ref="I49" si="30">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
-        <v>1</v>
+        <f t="shared" ref="I49" si="33">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
+        <v>0</v>
       </c>
       <c r="J49" s="73"/>
       <c r="K49" s="79"/>
@@ -10744,7 +10767,7 @@
     </row>
     <row r="50" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="31"/>
         <v>3.3.2</v>
       </c>
       <c r="B50" s="100" t="s">
@@ -10752,21 +10775,21 @@
       </c>
       <c r="D50" s="99"/>
       <c r="E50" s="75">
-        <v>44469</v>
+        <v>44478</v>
       </c>
       <c r="F50" s="76">
         <f t="shared" si="6"/>
-        <v>44469</v>
+        <v>44478</v>
       </c>
       <c r="G50" s="58">
         <v>1</v>
       </c>
       <c r="H50" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I50" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="73"/>
       <c r="K50" s="79"/>
@@ -10828,7 +10851,7 @@
     </row>
     <row r="51" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A51" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="31"/>
         <v>3.3.3</v>
       </c>
       <c r="B51" s="100" t="s">
@@ -10836,21 +10859,21 @@
       </c>
       <c r="D51" s="99"/>
       <c r="E51" s="75">
-        <v>44469</v>
+        <v>44478</v>
       </c>
       <c r="F51" s="76">
         <f t="shared" si="6"/>
-        <v>44469</v>
+        <v>44478</v>
       </c>
       <c r="G51" s="58">
         <v>1</v>
       </c>
       <c r="H51" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I51" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="73"/>
       <c r="K51" s="79"/>
@@ -10912,7 +10935,7 @@
     </row>
     <row r="52" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="31"/>
         <v>3.3.4</v>
       </c>
       <c r="B52" s="100" t="s">
@@ -10920,21 +10943,21 @@
       </c>
       <c r="D52" s="99"/>
       <c r="E52" s="75">
-        <v>44469</v>
+        <v>44479</v>
       </c>
       <c r="F52" s="76">
         <f t="shared" si="6"/>
-        <v>44469</v>
+        <v>44479</v>
       </c>
       <c r="G52" s="58">
         <v>1</v>
       </c>
       <c r="H52" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I52" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="73"/>
       <c r="K52" s="79"/>
@@ -10996,7 +11019,7 @@
     </row>
     <row r="53" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A53" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="31"/>
         <v>3.3.5</v>
       </c>
       <c r="B53" s="100" t="s">
@@ -11004,21 +11027,21 @@
       </c>
       <c r="D53" s="99"/>
       <c r="E53" s="75">
-        <v>44469</v>
+        <v>44479</v>
       </c>
       <c r="F53" s="76">
         <f t="shared" si="6"/>
-        <v>44469</v>
+        <v>44479</v>
       </c>
       <c r="G53" s="58">
         <v>1</v>
       </c>
       <c r="H53" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I53" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="73"/>
       <c r="K53" s="79"/>
@@ -11080,7 +11103,7 @@
     </row>
     <row r="54" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A54" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="31"/>
         <v>3.3.6</v>
       </c>
       <c r="B54" s="100" t="s">
@@ -11088,21 +11111,21 @@
       </c>
       <c r="D54" s="99"/>
       <c r="E54" s="75">
-        <v>44469</v>
+        <v>44479</v>
       </c>
       <c r="F54" s="76">
         <f t="shared" si="6"/>
-        <v>44469</v>
+        <v>44479</v>
       </c>
       <c r="G54" s="58">
         <v>1</v>
       </c>
       <c r="H54" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I54" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="73"/>
       <c r="K54" s="79"/>
@@ -11164,7 +11187,7 @@
     </row>
     <row r="55" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A55" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="31"/>
         <v>3.3.7</v>
       </c>
       <c r="B55" s="100" t="s">
@@ -11172,17 +11195,17 @@
       </c>
       <c r="D55" s="99"/>
       <c r="E55" s="75">
-        <v>44469</v>
+        <v>44480</v>
       </c>
       <c r="F55" s="76">
         <f t="shared" si="6"/>
-        <v>44469</v>
+        <v>44480</v>
       </c>
       <c r="G55" s="58">
         <v>1</v>
       </c>
       <c r="H55" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I55" s="60">
         <f t="shared" si="4"/>
@@ -11248,7 +11271,7 @@
     </row>
     <row r="56" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A56" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="31"/>
         <v>3.3.8</v>
       </c>
       <c r="B56" s="100" t="s">
@@ -11256,17 +11279,17 @@
       </c>
       <c r="D56" s="99"/>
       <c r="E56" s="75">
-        <v>44469</v>
+        <v>44480</v>
       </c>
       <c r="F56" s="76">
         <f t="shared" si="6"/>
-        <v>44469</v>
+        <v>44480</v>
       </c>
       <c r="G56" s="58">
         <v>1</v>
       </c>
       <c r="H56" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I56" s="60">
         <f t="shared" si="4"/>
@@ -11332,7 +11355,7 @@
     </row>
     <row r="57" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A57" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="31"/>
         <v>3.3.9</v>
       </c>
       <c r="B57" s="100" t="s">
@@ -11340,17 +11363,17 @@
       </c>
       <c r="D57" s="99"/>
       <c r="E57" s="75">
-        <v>44469</v>
+        <v>44480</v>
       </c>
       <c r="F57" s="76">
         <f t="shared" si="6"/>
-        <v>44469</v>
+        <v>44480</v>
       </c>
       <c r="G57" s="58">
         <v>1</v>
       </c>
       <c r="H57" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I57" s="60">
         <f t="shared" si="4"/>
@@ -11424,11 +11447,11 @@
       </c>
       <c r="D58" s="99"/>
       <c r="E58" s="75">
-        <v>44470</v>
+        <v>44481</v>
       </c>
       <c r="F58" s="76">
-        <f t="shared" ref="F58:F67" si="31">IF(ISBLANK(E58)," - ",IF(G58=0,E58,E58+G58-1))</f>
-        <v>44470</v>
+        <f t="shared" ref="F58:F67" si="34">IF(ISBLANK(E58)," - ",IF(G58=0,E58,E58+G58-1))</f>
+        <v>44481</v>
       </c>
       <c r="G58" s="58">
         <v>1</v>
@@ -11437,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="60">
-        <f t="shared" ref="I58:I67" si="32">IF(OR(F58=0,E58=0)," - ",NETWORKDAYS(E58,F58))</f>
+        <f t="shared" ref="I58:I67" si="35">IF(OR(F58=0,E58=0)," - ",NETWORKDAYS(E58,F58))</f>
         <v>1</v>
       </c>
       <c r="J58" s="73"/>
@@ -11500,7 +11523,7 @@
     </row>
     <row r="59" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A59" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A59:A67" si="36">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.4.1</v>
       </c>
       <c r="B59" s="100" t="s">
@@ -11508,20 +11531,20 @@
       </c>
       <c r="D59" s="99"/>
       <c r="E59" s="75">
-        <v>44470</v>
+        <v>44481</v>
       </c>
       <c r="F59" s="76">
-        <f t="shared" si="31"/>
-        <v>44470</v>
+        <f t="shared" si="34"/>
+        <v>44481</v>
       </c>
       <c r="G59" s="58">
         <v>1</v>
       </c>
       <c r="H59" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I59" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J59" s="73"/>
@@ -11584,7 +11607,7 @@
     </row>
     <row r="60" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="36"/>
         <v>3.4.2</v>
       </c>
       <c r="B60" s="100" t="s">
@@ -11592,20 +11615,20 @@
       </c>
       <c r="D60" s="99"/>
       <c r="E60" s="75">
-        <v>44470</v>
+        <v>44481</v>
       </c>
       <c r="F60" s="76">
-        <f t="shared" si="31"/>
-        <v>44470</v>
+        <f t="shared" si="34"/>
+        <v>44481</v>
       </c>
       <c r="G60" s="58">
         <v>1</v>
       </c>
       <c r="H60" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I60" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J60" s="73"/>
@@ -11668,7 +11691,7 @@
     </row>
     <row r="61" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="36"/>
         <v>3.4.3</v>
       </c>
       <c r="B61" s="100" t="s">
@@ -11676,20 +11699,20 @@
       </c>
       <c r="D61" s="99"/>
       <c r="E61" s="75">
-        <v>44470</v>
+        <v>44481</v>
       </c>
       <c r="F61" s="76">
-        <f t="shared" si="31"/>
-        <v>44470</v>
+        <f t="shared" si="34"/>
+        <v>44481</v>
       </c>
       <c r="G61" s="58">
         <v>1</v>
       </c>
       <c r="H61" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I61" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J61" s="73"/>
@@ -11752,7 +11775,7 @@
     </row>
     <row r="62" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="36"/>
         <v>3.4.4</v>
       </c>
       <c r="B62" s="100" t="s">
@@ -11760,20 +11783,20 @@
       </c>
       <c r="D62" s="99"/>
       <c r="E62" s="75">
-        <v>44470</v>
+        <v>44482</v>
       </c>
       <c r="F62" s="76">
-        <f t="shared" si="31"/>
-        <v>44470</v>
+        <f t="shared" si="34"/>
+        <v>44482</v>
       </c>
       <c r="G62" s="58">
         <v>1</v>
       </c>
       <c r="H62" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I62" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J62" s="73"/>
@@ -11836,7 +11859,7 @@
     </row>
     <row r="63" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="36"/>
         <v>3.4.5</v>
       </c>
       <c r="B63" s="100" t="s">
@@ -11844,20 +11867,20 @@
       </c>
       <c r="D63" s="99"/>
       <c r="E63" s="75">
-        <v>44470</v>
+        <v>44482</v>
       </c>
       <c r="F63" s="76">
-        <f t="shared" si="31"/>
-        <v>44470</v>
+        <f t="shared" si="34"/>
+        <v>44482</v>
       </c>
       <c r="G63" s="58">
         <v>1</v>
       </c>
       <c r="H63" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I63" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J63" s="73"/>
@@ -11920,7 +11943,7 @@
     </row>
     <row r="64" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="36"/>
         <v>3.4.6</v>
       </c>
       <c r="B64" s="100" t="s">
@@ -11928,20 +11951,20 @@
       </c>
       <c r="D64" s="99"/>
       <c r="E64" s="75">
-        <v>44470</v>
+        <v>44482</v>
       </c>
       <c r="F64" s="76">
-        <f t="shared" si="31"/>
-        <v>44470</v>
+        <f t="shared" si="34"/>
+        <v>44482</v>
       </c>
       <c r="G64" s="58">
         <v>1</v>
       </c>
       <c r="H64" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I64" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J64" s="73"/>
@@ -12004,7 +12027,7 @@
     </row>
     <row r="65" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="36"/>
         <v>3.4.7</v>
       </c>
       <c r="B65" s="100" t="s">
@@ -12012,20 +12035,20 @@
       </c>
       <c r="D65" s="99"/>
       <c r="E65" s="75">
-        <v>44470</v>
+        <v>44483</v>
       </c>
       <c r="F65" s="76">
-        <f t="shared" si="31"/>
-        <v>44470</v>
+        <f t="shared" si="34"/>
+        <v>44483</v>
       </c>
       <c r="G65" s="58">
         <v>1</v>
       </c>
       <c r="H65" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I65" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J65" s="73"/>
@@ -12088,7 +12111,7 @@
     </row>
     <row r="66" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="36"/>
         <v>3.4.8</v>
       </c>
       <c r="B66" s="100" t="s">
@@ -12096,20 +12119,20 @@
       </c>
       <c r="D66" s="99"/>
       <c r="E66" s="75">
-        <v>44470</v>
+        <v>44483</v>
       </c>
       <c r="F66" s="76">
-        <f t="shared" si="31"/>
-        <v>44470</v>
+        <f t="shared" si="34"/>
+        <v>44483</v>
       </c>
       <c r="G66" s="58">
         <v>1</v>
       </c>
       <c r="H66" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I66" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J66" s="73"/>
@@ -12172,7 +12195,7 @@
     </row>
     <row r="67" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="36"/>
         <v>3.4.9</v>
       </c>
       <c r="B67" s="100" t="s">
@@ -12180,20 +12203,20 @@
       </c>
       <c r="D67" s="99"/>
       <c r="E67" s="75">
-        <v>44470</v>
+        <v>44483</v>
       </c>
       <c r="F67" s="76">
-        <f t="shared" si="31"/>
-        <v>44470</v>
+        <f t="shared" si="34"/>
+        <v>44483</v>
       </c>
       <c r="G67" s="58">
         <v>1</v>
       </c>
       <c r="H67" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I67" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J67" s="73"/>
@@ -12264,11 +12287,11 @@
       </c>
       <c r="D68" s="99"/>
       <c r="E68" s="75">
-        <v>44471</v>
+        <v>44484</v>
       </c>
       <c r="F68" s="76">
-        <f t="shared" ref="F68:F77" si="33">IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
-        <v>44471</v>
+        <f t="shared" ref="F68:F77" si="37">IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
+        <v>44484</v>
       </c>
       <c r="G68" s="58">
         <v>1</v>
@@ -12277,8 +12300,8 @@
         <v>0</v>
       </c>
       <c r="I68" s="60">
-        <f t="shared" ref="I68:I77" si="34">IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
-        <v>0</v>
+        <f t="shared" ref="I68:I77" si="38">IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
+        <v>1</v>
       </c>
       <c r="J68" s="73"/>
       <c r="K68" s="79"/>
@@ -12340,7 +12363,7 @@
     </row>
     <row r="69" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A69" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A69:A77" si="39">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.5.1</v>
       </c>
       <c r="B69" s="100" t="s">
@@ -12348,21 +12371,21 @@
       </c>
       <c r="D69" s="99"/>
       <c r="E69" s="75">
-        <v>44471</v>
+        <v>44484</v>
       </c>
       <c r="F69" s="76">
-        <f t="shared" si="33"/>
-        <v>44471</v>
+        <f t="shared" si="37"/>
+        <v>44484</v>
       </c>
       <c r="G69" s="58">
         <v>1</v>
       </c>
       <c r="H69" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I69" s="60">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="J69" s="73"/>
       <c r="K69" s="79"/>
@@ -12424,7 +12447,7 @@
     </row>
     <row r="70" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A70" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="39"/>
         <v>3.5.2</v>
       </c>
       <c r="B70" s="100" t="s">
@@ -12432,21 +12455,21 @@
       </c>
       <c r="D70" s="99"/>
       <c r="E70" s="75">
-        <v>44471</v>
+        <v>44484</v>
       </c>
       <c r="F70" s="76">
-        <f t="shared" si="33"/>
-        <v>44471</v>
+        <f t="shared" si="37"/>
+        <v>44484</v>
       </c>
       <c r="G70" s="58">
         <v>1</v>
       </c>
       <c r="H70" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I70" s="60">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="J70" s="73"/>
       <c r="K70" s="79"/>
@@ -12506,9 +12529,9 @@
       <c r="BM70" s="79"/>
       <c r="BN70" s="79"/>
     </row>
-    <row r="71" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="39"/>
         <v>3.5.3</v>
       </c>
       <c r="B71" s="100" t="s">
@@ -12516,20 +12539,20 @@
       </c>
       <c r="D71" s="99"/>
       <c r="E71" s="75">
-        <v>44471</v>
+        <v>44485</v>
       </c>
       <c r="F71" s="76">
-        <f t="shared" si="33"/>
-        <v>44471</v>
+        <f t="shared" si="37"/>
+        <v>44485</v>
       </c>
       <c r="G71" s="58">
         <v>1</v>
       </c>
       <c r="H71" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I71" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J71" s="73"/>
@@ -12590,9 +12613,9 @@
       <c r="BM71" s="79"/>
       <c r="BN71" s="79"/>
     </row>
-    <row r="72" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A72" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="39"/>
         <v>3.5.4</v>
       </c>
       <c r="B72" s="100" t="s">
@@ -12600,20 +12623,20 @@
       </c>
       <c r="D72" s="99"/>
       <c r="E72" s="75">
-        <v>44471</v>
+        <v>44485</v>
       </c>
       <c r="F72" s="76">
-        <f t="shared" si="33"/>
-        <v>44471</v>
+        <f t="shared" si="37"/>
+        <v>44485</v>
       </c>
       <c r="G72" s="58">
         <v>1</v>
       </c>
       <c r="H72" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I72" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J72" s="73"/>
@@ -12676,7 +12699,7 @@
     </row>
     <row r="73" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A73" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="39"/>
         <v>3.5.5</v>
       </c>
       <c r="B73" s="100" t="s">
@@ -12684,20 +12707,20 @@
       </c>
       <c r="D73" s="99"/>
       <c r="E73" s="75">
-        <v>44471</v>
+        <v>44486</v>
       </c>
       <c r="F73" s="76">
-        <f t="shared" si="33"/>
-        <v>44471</v>
+        <f t="shared" si="37"/>
+        <v>44486</v>
       </c>
       <c r="G73" s="58">
         <v>1</v>
       </c>
       <c r="H73" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I73" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J73" s="73"/>
@@ -12760,7 +12783,7 @@
     </row>
     <row r="74" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="39"/>
         <v>3.5.6</v>
       </c>
       <c r="B74" s="100" t="s">
@@ -12768,20 +12791,20 @@
       </c>
       <c r="D74" s="99"/>
       <c r="E74" s="75">
-        <v>44471</v>
+        <v>44486</v>
       </c>
       <c r="F74" s="76">
-        <f t="shared" si="33"/>
-        <v>44471</v>
+        <f t="shared" si="37"/>
+        <v>44486</v>
       </c>
       <c r="G74" s="58">
         <v>1</v>
       </c>
       <c r="H74" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I74" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J74" s="73"/>
@@ -12842,9 +12865,9 @@
       <c r="BM74" s="79"/>
       <c r="BN74" s="79"/>
     </row>
-    <row r="75" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="39"/>
         <v>3.5.7</v>
       </c>
       <c r="B75" s="100" t="s">
@@ -12852,21 +12875,21 @@
       </c>
       <c r="D75" s="99"/>
       <c r="E75" s="75">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="F75" s="76">
-        <f t="shared" si="33"/>
-        <v>44471</v>
+        <f t="shared" si="37"/>
+        <v>44487</v>
       </c>
       <c r="G75" s="58">
         <v>1</v>
       </c>
       <c r="H75" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I75" s="60">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="J75" s="73"/>
       <c r="K75" s="79"/>
@@ -12926,9 +12949,9 @@
       <c r="BM75" s="79"/>
       <c r="BN75" s="79"/>
     </row>
-    <row r="76" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="39"/>
         <v>3.5.8</v>
       </c>
       <c r="B76" s="100" t="s">
@@ -12936,21 +12959,21 @@
       </c>
       <c r="D76" s="99"/>
       <c r="E76" s="75">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="F76" s="76">
-        <f t="shared" si="33"/>
-        <v>44471</v>
+        <f t="shared" si="37"/>
+        <v>44487</v>
       </c>
       <c r="G76" s="58">
         <v>1</v>
       </c>
       <c r="H76" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I76" s="60">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="J76" s="73"/>
       <c r="K76" s="79"/>
@@ -13012,7 +13035,7 @@
     </row>
     <row r="77" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="39"/>
         <v>3.5.9</v>
       </c>
       <c r="B77" s="100" t="s">
@@ -13020,21 +13043,21 @@
       </c>
       <c r="D77" s="99"/>
       <c r="E77" s="75">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="F77" s="76">
-        <f t="shared" si="33"/>
-        <v>44471</v>
+        <f t="shared" si="37"/>
+        <v>44487</v>
       </c>
       <c r="G77" s="58">
         <v>1</v>
       </c>
       <c r="H77" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I77" s="60">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="J77" s="73"/>
       <c r="K77" s="79"/>
@@ -13104,11 +13127,11 @@
       </c>
       <c r="D78" s="99"/>
       <c r="E78" s="75">
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="F78" s="76">
-        <f t="shared" ref="F78:F81" si="35">IF(ISBLANK(E78)," - ",IF(G78=0,E78,E78+G78-1))</f>
-        <v>44472</v>
+        <f t="shared" ref="F78:F81" si="40">IF(ISBLANK(E78)," - ",IF(G78=0,E78,E78+G78-1))</f>
+        <v>44488</v>
       </c>
       <c r="G78" s="58">
         <v>1</v>
@@ -13117,8 +13140,8 @@
         <v>0</v>
       </c>
       <c r="I78" s="60">
-        <f t="shared" ref="I78:I81" si="36">IF(OR(F78=0,E78=0)," - ",NETWORKDAYS(E78,F78))</f>
-        <v>0</v>
+        <f t="shared" ref="I78:I81" si="41">IF(OR(F78=0,E78=0)," - ",NETWORKDAYS(E78,F78))</f>
+        <v>1</v>
       </c>
       <c r="J78" s="73"/>
       <c r="K78" s="79"/>
@@ -13188,21 +13211,21 @@
       </c>
       <c r="D79" s="99"/>
       <c r="E79" s="75">
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="F79" s="76">
-        <f t="shared" si="35"/>
-        <v>44472</v>
+        <f t="shared" si="40"/>
+        <v>44488</v>
       </c>
       <c r="G79" s="58">
         <v>1</v>
       </c>
       <c r="H79" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I79" s="60">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="J79" s="73"/>
       <c r="K79" s="79"/>
@@ -13272,21 +13295,21 @@
       </c>
       <c r="D80" s="99"/>
       <c r="E80" s="75">
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="F80" s="76">
-        <f t="shared" si="35"/>
-        <v>44472</v>
+        <f t="shared" si="40"/>
+        <v>44488</v>
       </c>
       <c r="G80" s="58">
         <v>1</v>
       </c>
       <c r="H80" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I80" s="60">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="J80" s="73"/>
       <c r="K80" s="79"/>
@@ -13356,21 +13379,21 @@
       </c>
       <c r="D81" s="99"/>
       <c r="E81" s="75">
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="F81" s="76">
-        <f t="shared" si="35"/>
-        <v>44472</v>
+        <f t="shared" si="40"/>
+        <v>44488</v>
       </c>
       <c r="G81" s="58">
         <v>1</v>
       </c>
       <c r="H81" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I81" s="60">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="J81" s="73"/>
       <c r="K81" s="79"/>
@@ -13440,11 +13463,11 @@
       </c>
       <c r="D82" s="99"/>
       <c r="E82" s="75">
-        <v>44473</v>
+        <v>44489</v>
       </c>
       <c r="F82" s="76">
         <f>IF(ISBLANK(E82)," - ",IF(G82=0,E82,E82+G82-1))</f>
-        <v>44473</v>
+        <v>44489</v>
       </c>
       <c r="G82" s="58">
         <v>1</v>
@@ -13524,11 +13547,11 @@
       </c>
       <c r="D83" s="99"/>
       <c r="E83" s="75">
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="F83" s="76">
-        <f t="shared" ref="F83:F84" si="37">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
-        <v>44474</v>
+        <f t="shared" ref="F83:F84" si="42">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
+        <v>44490</v>
       </c>
       <c r="G83" s="58">
         <v>1</v>
@@ -13537,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="60">
-        <f t="shared" ref="I83:I84" si="38">IF(OR(F83=0,E83=0)," - ",NETWORKDAYS(E83,F83))</f>
+        <f t="shared" ref="I83:I84" si="43">IF(OR(F83=0,E83=0)," - ",NETWORKDAYS(E83,F83))</f>
         <v>1</v>
       </c>
       <c r="J83" s="73"/>
@@ -13600,7 +13623,7 @@
     </row>
     <row r="84" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A84:A93" si="44">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.8.1</v>
       </c>
       <c r="B84" s="100" t="s">
@@ -13608,20 +13631,20 @@
       </c>
       <c r="D84" s="99"/>
       <c r="E84" s="75">
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="F84" s="76">
-        <f t="shared" si="37"/>
-        <v>44474</v>
+        <f t="shared" si="42"/>
+        <v>44490</v>
       </c>
       <c r="G84" s="58">
         <v>1</v>
       </c>
       <c r="H84" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I84" s="60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="J84" s="73"/>
@@ -13682,9 +13705,9 @@
       <c r="BM84" s="79"/>
       <c r="BN84" s="79"/>
     </row>
-    <row r="85" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="44"/>
         <v>3.8.2</v>
       </c>
       <c r="B85" s="100" t="s">
@@ -13692,20 +13715,20 @@
       </c>
       <c r="D85" s="99"/>
       <c r="E85" s="75">
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="F85" s="76">
-        <f t="shared" ref="F85:F93" si="39">IF(ISBLANK(E85)," - ",IF(G85=0,E85,E85+G85-1))</f>
-        <v>44474</v>
+        <f t="shared" ref="F85:F93" si="45">IF(ISBLANK(E85)," - ",IF(G85=0,E85,E85+G85-1))</f>
+        <v>44490</v>
       </c>
       <c r="G85" s="58">
         <v>1</v>
       </c>
       <c r="H85" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I85" s="60">
-        <f t="shared" ref="I85:I93" si="40">IF(OR(F85=0,E85=0)," - ",NETWORKDAYS(E85,F85))</f>
+        <f t="shared" ref="I85:I93" si="46">IF(OR(F85=0,E85=0)," - ",NETWORKDAYS(E85,F85))</f>
         <v>1</v>
       </c>
       <c r="J85" s="73"/>
@@ -13768,7 +13791,7 @@
     </row>
     <row r="86" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="44"/>
         <v>3.8.3</v>
       </c>
       <c r="B86" s="100" t="s">
@@ -13776,20 +13799,20 @@
       </c>
       <c r="D86" s="99"/>
       <c r="E86" s="75">
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="F86" s="76">
-        <f t="shared" si="39"/>
-        <v>44474</v>
+        <f t="shared" si="45"/>
+        <v>44490</v>
       </c>
       <c r="G86" s="58">
         <v>1</v>
       </c>
       <c r="H86" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I86" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J86" s="73"/>
@@ -13852,7 +13875,7 @@
     </row>
     <row r="87" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A87" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="44"/>
         <v>3.8.4</v>
       </c>
       <c r="B87" s="100" t="s">
@@ -13860,20 +13883,20 @@
       </c>
       <c r="D87" s="99"/>
       <c r="E87" s="75">
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="F87" s="76">
-        <f t="shared" si="39"/>
-        <v>44474</v>
+        <f t="shared" si="45"/>
+        <v>44490</v>
       </c>
       <c r="G87" s="58">
         <v>1</v>
       </c>
       <c r="H87" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I87" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J87" s="73"/>
@@ -13936,7 +13959,7 @@
     </row>
     <row r="88" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A88" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="44"/>
         <v>3.8.5</v>
       </c>
       <c r="B88" s="100" t="s">
@@ -13944,20 +13967,20 @@
       </c>
       <c r="D88" s="99"/>
       <c r="E88" s="75">
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="F88" s="76">
-        <f t="shared" si="39"/>
-        <v>44474</v>
+        <f t="shared" si="45"/>
+        <v>44490</v>
       </c>
       <c r="G88" s="58">
         <v>1</v>
       </c>
       <c r="H88" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I88" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J88" s="73"/>
@@ -14018,9 +14041,9 @@
       <c r="BM88" s="79"/>
       <c r="BN88" s="79"/>
     </row>
-    <row r="89" spans="1:66" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="44"/>
         <v>3.8.6</v>
       </c>
       <c r="B89" s="100" t="s">
@@ -14028,20 +14051,20 @@
       </c>
       <c r="D89" s="99"/>
       <c r="E89" s="75">
-        <v>44474</v>
+        <v>44491</v>
       </c>
       <c r="F89" s="76">
-        <f t="shared" si="39"/>
-        <v>44474</v>
+        <f t="shared" si="45"/>
+        <v>44491</v>
       </c>
       <c r="G89" s="58">
         <v>1</v>
       </c>
       <c r="H89" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I89" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J89" s="73"/>
@@ -14104,7 +14127,7 @@
     </row>
     <row r="90" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="44"/>
         <v>3.8.7</v>
       </c>
       <c r="B90" s="100" t="s">
@@ -14112,20 +14135,20 @@
       </c>
       <c r="D90" s="99"/>
       <c r="E90" s="75">
-        <v>44474</v>
+        <v>44491</v>
       </c>
       <c r="F90" s="76">
-        <f t="shared" si="39"/>
-        <v>44474</v>
+        <f t="shared" si="45"/>
+        <v>44491</v>
       </c>
       <c r="G90" s="58">
         <v>1</v>
       </c>
       <c r="H90" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I90" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J90" s="73"/>
@@ -14188,7 +14211,7 @@
     </row>
     <row r="91" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A91" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="44"/>
         <v>3.8.8</v>
       </c>
       <c r="B91" s="100" t="s">
@@ -14196,20 +14219,20 @@
       </c>
       <c r="D91" s="99"/>
       <c r="E91" s="75">
-        <v>44474</v>
+        <v>44491</v>
       </c>
       <c r="F91" s="76">
-        <f t="shared" si="39"/>
-        <v>44474</v>
+        <f t="shared" si="45"/>
+        <v>44491</v>
       </c>
       <c r="G91" s="58">
         <v>1</v>
       </c>
       <c r="H91" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I91" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J91" s="73"/>
@@ -14272,7 +14295,7 @@
     </row>
     <row r="92" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A92" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="44"/>
         <v>3.8.9</v>
       </c>
       <c r="B92" s="100" t="s">
@@ -14280,20 +14303,20 @@
       </c>
       <c r="D92" s="99"/>
       <c r="E92" s="75">
-        <v>44474</v>
+        <v>44491</v>
       </c>
       <c r="F92" s="76">
-        <f t="shared" si="39"/>
-        <v>44474</v>
+        <f t="shared" si="45"/>
+        <v>44491</v>
       </c>
       <c r="G92" s="58">
         <v>1</v>
       </c>
       <c r="H92" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I92" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J92" s="73"/>
@@ -14356,7 +14379,7 @@
     </row>
     <row r="93" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="44"/>
         <v>3.8.10</v>
       </c>
       <c r="B93" s="100" t="s">
@@ -14364,20 +14387,20 @@
       </c>
       <c r="D93" s="99"/>
       <c r="E93" s="75">
-        <v>44474</v>
+        <v>44491</v>
       </c>
       <c r="F93" s="76">
-        <f t="shared" si="39"/>
-        <v>44474</v>
+        <f t="shared" si="45"/>
+        <v>44491</v>
       </c>
       <c r="G93" s="58">
         <v>1</v>
       </c>
       <c r="H93" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I93" s="60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J93" s="73"/>
@@ -14449,13 +14472,13 @@
       <c r="D94" s="52"/>
       <c r="E94" s="77"/>
       <c r="F94" s="77" t="str">
-        <f t="shared" ref="F94:F97" si="41">IF(ISBLANK(E94)," - ",IF(G94=0,E94,E94+G94-1))</f>
+        <f t="shared" ref="F94:F97" si="47">IF(ISBLANK(E94)," - ",IF(G94=0,E94,E94+G94-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G94" s="53"/>
       <c r="H94" s="54"/>
       <c r="I94" s="55" t="str">
-        <f t="shared" ref="I94:I97" si="42">IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
+        <f t="shared" ref="I94:I97" si="48">IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J94" s="74"/>
@@ -14526,11 +14549,11 @@
       </c>
       <c r="D95" s="99"/>
       <c r="E95" s="75">
-        <v>44475</v>
+        <v>44492</v>
       </c>
       <c r="F95" s="76">
-        <f t="shared" si="41"/>
-        <v>44475</v>
+        <f t="shared" si="47"/>
+        <v>44492</v>
       </c>
       <c r="G95" s="58">
         <v>1</v>
@@ -14539,8 +14562,8 @@
         <v>0</v>
       </c>
       <c r="I95" s="60">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="J95" s="73"/>
       <c r="K95" s="79"/>
@@ -14610,21 +14633,21 @@
       </c>
       <c r="D96" s="99"/>
       <c r="E96" s="75">
-        <v>44475</v>
+        <v>44492</v>
       </c>
       <c r="F96" s="76">
-        <f t="shared" si="41"/>
-        <v>44475</v>
+        <f t="shared" si="47"/>
+        <v>44493</v>
       </c>
       <c r="G96" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I96" s="60">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="J96" s="73"/>
       <c r="K96" s="79"/>
@@ -14694,20 +14717,20 @@
       </c>
       <c r="D97" s="99"/>
       <c r="E97" s="75">
-        <v>44476</v>
+        <v>44494</v>
       </c>
       <c r="F97" s="76">
-        <f t="shared" si="41"/>
-        <v>44476</v>
+        <f t="shared" si="47"/>
+        <v>44494</v>
       </c>
       <c r="G97" s="58">
         <v>1</v>
       </c>
       <c r="H97" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I97" s="60">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="J97" s="73"/>
@@ -14778,21 +14801,21 @@
       </c>
       <c r="D98" s="99"/>
       <c r="E98" s="75">
-        <v>44477</v>
+        <v>44495</v>
       </c>
       <c r="F98" s="76">
-        <f t="shared" ref="F98:F101" si="43">IF(ISBLANK(E98)," - ",IF(G98=0,E98,E98+G98-1))</f>
-        <v>44477</v>
+        <f t="shared" ref="F98:F101" si="49">IF(ISBLANK(E98)," - ",IF(G98=0,E98,E98+G98-1))</f>
+        <v>44497</v>
       </c>
       <c r="G98" s="58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98" s="59">
         <v>0</v>
       </c>
       <c r="I98" s="60">
-        <f t="shared" ref="I98:I101" si="44">IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
-        <v>1</v>
+        <f t="shared" ref="I98:I101" si="50">IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
+        <v>3</v>
       </c>
       <c r="J98" s="73"/>
       <c r="K98" s="79"/>
@@ -14862,11 +14885,11 @@
       </c>
       <c r="D99" s="99"/>
       <c r="E99" s="75">
-        <v>44478</v>
+        <v>44498</v>
       </c>
       <c r="F99" s="76">
-        <f t="shared" si="43"/>
-        <v>44478</v>
+        <f t="shared" si="49"/>
+        <v>44498</v>
       </c>
       <c r="G99" s="58">
         <v>1</v>
@@ -14875,8 +14898,8 @@
         <v>0</v>
       </c>
       <c r="I99" s="60">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>1</v>
       </c>
       <c r="J99" s="73"/>
       <c r="K99" s="79"/>
@@ -14946,20 +14969,20 @@
       </c>
       <c r="D100" s="99"/>
       <c r="E100" s="75">
-        <v>44478</v>
+        <v>44499</v>
       </c>
       <c r="F100" s="76">
-        <f t="shared" si="43"/>
-        <v>44478</v>
+        <f t="shared" si="49"/>
+        <v>44500</v>
       </c>
       <c r="G100" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I100" s="60">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J100" s="73"/>
@@ -15030,21 +15053,21 @@
       </c>
       <c r="D101" s="99"/>
       <c r="E101" s="75">
-        <v>44478</v>
+        <v>44501</v>
       </c>
       <c r="F101" s="76">
-        <f t="shared" si="43"/>
-        <v>44478</v>
+        <f t="shared" si="49"/>
+        <v>44501</v>
       </c>
       <c r="G101" s="58">
         <v>1</v>
       </c>
       <c r="H101" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I101" s="60">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>1</v>
       </c>
       <c r="J101" s="73"/>
       <c r="K101" s="79"/>
@@ -15114,11 +15137,11 @@
       </c>
       <c r="D102" s="99"/>
       <c r="E102" s="75">
-        <v>44479</v>
+        <v>44502</v>
       </c>
       <c r="F102" s="76">
-        <f t="shared" ref="F102:F104" si="45">IF(ISBLANK(E102)," - ",IF(G102=0,E102,E102+G102-1))</f>
-        <v>44479</v>
+        <f t="shared" ref="F102:F104" si="51">IF(ISBLANK(E102)," - ",IF(G102=0,E102,E102+G102-1))</f>
+        <v>44502</v>
       </c>
       <c r="G102" s="58">
         <v>1</v>
@@ -15127,8 +15150,8 @@
         <v>0</v>
       </c>
       <c r="I102" s="60">
-        <f t="shared" ref="I102:I104" si="46">IF(OR(F102=0,E102=0)," - ",NETWORKDAYS(E102,F102))</f>
-        <v>0</v>
+        <f t="shared" ref="I102:I104" si="52">IF(OR(F102=0,E102=0)," - ",NETWORKDAYS(E102,F102))</f>
+        <v>1</v>
       </c>
       <c r="J102" s="73"/>
       <c r="K102" s="79"/>
@@ -15190,7 +15213,7 @@
     </row>
     <row r="103" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A103" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A103:A110" si="53">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.4.1</v>
       </c>
       <c r="B103" s="100" t="s">
@@ -15198,21 +15221,21 @@
       </c>
       <c r="D103" s="99"/>
       <c r="E103" s="75">
-        <v>44479</v>
+        <v>44502</v>
       </c>
       <c r="F103" s="76">
-        <f t="shared" si="45"/>
-        <v>44479</v>
+        <f t="shared" si="51"/>
+        <v>44503</v>
       </c>
       <c r="G103" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I103" s="60">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>2</v>
       </c>
       <c r="J103" s="73"/>
       <c r="K103" s="79"/>
@@ -15274,7 +15297,7 @@
     </row>
     <row r="104" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A104" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="53"/>
         <v>4.4.2</v>
       </c>
       <c r="B104" s="100" t="s">
@@ -15282,21 +15305,21 @@
       </c>
       <c r="D104" s="99"/>
       <c r="E104" s="75">
-        <v>44479</v>
+        <v>44503</v>
       </c>
       <c r="F104" s="76">
-        <f t="shared" si="45"/>
-        <v>44479</v>
+        <f t="shared" si="51"/>
+        <v>44503</v>
       </c>
       <c r="G104" s="58">
         <v>1</v>
       </c>
       <c r="H104" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I104" s="60">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>1</v>
       </c>
       <c r="J104" s="73"/>
       <c r="K104" s="79"/>
@@ -15358,7 +15381,7 @@
     </row>
     <row r="105" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A105" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="53"/>
         <v>4.4.3</v>
       </c>
       <c r="B105" s="100" t="s">
@@ -15366,20 +15389,20 @@
       </c>
       <c r="D105" s="99"/>
       <c r="E105" s="75">
-        <v>44480</v>
+        <v>44504</v>
       </c>
       <c r="F105" s="76">
-        <f t="shared" ref="F105:F108" si="47">IF(ISBLANK(E105)," - ",IF(G105=0,E105,E105+G105-1))</f>
-        <v>44480</v>
+        <f t="shared" ref="F105:F108" si="54">IF(ISBLANK(E105)," - ",IF(G105=0,E105,E105+G105-1))</f>
+        <v>44504</v>
       </c>
       <c r="G105" s="58">
         <v>1</v>
       </c>
       <c r="H105" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I105" s="60">
-        <f t="shared" ref="I105:I108" si="48">IF(OR(F105=0,E105=0)," - ",NETWORKDAYS(E105,F105))</f>
+        <f t="shared" ref="I105:I108" si="55">IF(OR(F105=0,E105=0)," - ",NETWORKDAYS(E105,F105))</f>
         <v>1</v>
       </c>
       <c r="J105" s="73"/>
@@ -15442,7 +15465,7 @@
     </row>
     <row r="106" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A106" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="53"/>
         <v>4.4.4</v>
       </c>
       <c r="B106" s="100" t="s">
@@ -15450,20 +15473,20 @@
       </c>
       <c r="D106" s="99"/>
       <c r="E106" s="75">
-        <v>44480</v>
+        <v>44504</v>
       </c>
       <c r="F106" s="76">
-        <f t="shared" si="47"/>
-        <v>44480</v>
+        <f t="shared" si="54"/>
+        <v>44504</v>
       </c>
       <c r="G106" s="58">
         <v>1</v>
       </c>
       <c r="H106" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I106" s="60">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="J106" s="73"/>
@@ -15526,7 +15549,7 @@
     </row>
     <row r="107" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A107" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="53"/>
         <v>4.4.5</v>
       </c>
       <c r="B107" s="100" t="s">
@@ -15534,20 +15557,20 @@
       </c>
       <c r="D107" s="99"/>
       <c r="E107" s="75">
-        <v>44481</v>
+        <v>44505</v>
       </c>
       <c r="F107" s="76">
-        <f t="shared" si="47"/>
-        <v>44481</v>
+        <f t="shared" si="54"/>
+        <v>44505</v>
       </c>
       <c r="G107" s="58">
         <v>1</v>
       </c>
       <c r="H107" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I107" s="60">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="J107" s="73"/>
@@ -15610,7 +15633,7 @@
     </row>
     <row r="108" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A108" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="53"/>
         <v>4.4.6</v>
       </c>
       <c r="B108" s="100" t="s">
@@ -15618,20 +15641,20 @@
       </c>
       <c r="D108" s="99"/>
       <c r="E108" s="75">
-        <v>44481</v>
+        <v>44505</v>
       </c>
       <c r="F108" s="76">
-        <f t="shared" si="47"/>
-        <v>44481</v>
+        <f t="shared" si="54"/>
+        <v>44505</v>
       </c>
       <c r="G108" s="58">
         <v>1</v>
       </c>
       <c r="H108" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I108" s="60">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="J108" s="73"/>
@@ -15694,7 +15717,7 @@
     </row>
     <row r="109" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A109" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="53"/>
         <v>4.4.7</v>
       </c>
       <c r="B109" s="100" t="s">
@@ -15702,21 +15725,21 @@
       </c>
       <c r="D109" s="99"/>
       <c r="E109" s="75">
-        <v>44482</v>
+        <v>44506</v>
       </c>
       <c r="F109" s="76">
-        <f t="shared" ref="F109:F113" si="49">IF(ISBLANK(E109)," - ",IF(G109=0,E109,E109+G109-1))</f>
-        <v>44482</v>
+        <f t="shared" ref="F109:F113" si="56">IF(ISBLANK(E109)," - ",IF(G109=0,E109,E109+G109-1))</f>
+        <v>44506</v>
       </c>
       <c r="G109" s="58">
         <v>1</v>
       </c>
       <c r="H109" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I109" s="60">
-        <f t="shared" ref="I109:I113" si="50">IF(OR(F109=0,E109=0)," - ",NETWORKDAYS(E109,F109))</f>
-        <v>1</v>
+        <f t="shared" ref="I109:I113" si="57">IF(OR(F109=0,E109=0)," - ",NETWORKDAYS(E109,F109))</f>
+        <v>0</v>
       </c>
       <c r="J109" s="73"/>
       <c r="K109" s="79"/>
@@ -15778,7 +15801,7 @@
     </row>
     <row r="110" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A110" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="53"/>
         <v>4.4.8</v>
       </c>
       <c r="B110" s="100" t="s">
@@ -15786,21 +15809,21 @@
       </c>
       <c r="D110" s="99"/>
       <c r="E110" s="75">
-        <v>44482</v>
+        <v>44506</v>
       </c>
       <c r="F110" s="76">
-        <f t="shared" si="49"/>
-        <v>44482</v>
+        <f t="shared" si="56"/>
+        <v>44506</v>
       </c>
       <c r="G110" s="58">
         <v>1</v>
       </c>
       <c r="H110" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I110" s="60">
-        <f t="shared" si="50"/>
-        <v>1</v>
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
       <c r="J110" s="73"/>
       <c r="K110" s="79"/>
@@ -15870,11 +15893,11 @@
       </c>
       <c r="D111" s="99"/>
       <c r="E111" s="75">
-        <v>44483</v>
+        <v>44507</v>
       </c>
       <c r="F111" s="76">
-        <f t="shared" si="49"/>
-        <v>44483</v>
+        <f t="shared" si="56"/>
+        <v>44507</v>
       </c>
       <c r="G111" s="58">
         <v>1</v>
@@ -15883,8 +15906,8 @@
         <v>0</v>
       </c>
       <c r="I111" s="60">
-        <f t="shared" si="50"/>
-        <v>1</v>
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
       <c r="J111" s="73"/>
       <c r="K111" s="79"/>
@@ -15954,20 +15977,20 @@
       </c>
       <c r="D112" s="99"/>
       <c r="E112" s="75">
-        <v>44483</v>
+        <v>44507</v>
       </c>
       <c r="F112" s="76">
-        <f t="shared" si="49"/>
-        <v>44483</v>
+        <f t="shared" si="56"/>
+        <v>44508</v>
       </c>
       <c r="G112" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I112" s="60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="J112" s="73"/>
@@ -16038,20 +16061,20 @@
       </c>
       <c r="D113" s="99"/>
       <c r="E113" s="75">
-        <v>44483</v>
+        <v>44508</v>
       </c>
       <c r="F113" s="76">
-        <f t="shared" si="49"/>
-        <v>44483</v>
+        <f t="shared" si="56"/>
+        <v>44508</v>
       </c>
       <c r="G113" s="58">
         <v>1</v>
       </c>
       <c r="H113" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I113" s="60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="J113" s="73"/>
@@ -16122,11 +16145,11 @@
       </c>
       <c r="D114" s="99"/>
       <c r="E114" s="75">
-        <v>44484</v>
+        <v>44509</v>
       </c>
       <c r="F114" s="76">
-        <f t="shared" ref="F114:F116" si="51">IF(ISBLANK(E114)," - ",IF(G114=0,E114,E114+G114-1))</f>
-        <v>44484</v>
+        <f t="shared" ref="F114:F116" si="58">IF(ISBLANK(E114)," - ",IF(G114=0,E114,E114+G114-1))</f>
+        <v>44509</v>
       </c>
       <c r="G114" s="58">
         <v>1</v>
@@ -16135,7 +16158,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="60">
-        <f t="shared" ref="I114:I116" si="52">IF(OR(F114=0,E114=0)," - ",NETWORKDAYS(E114,F114))</f>
+        <f t="shared" ref="I114:I116" si="59">IF(OR(F114=0,E114=0)," - ",NETWORKDAYS(E114,F114))</f>
         <v>1</v>
       </c>
       <c r="J114" s="73"/>
@@ -16198,7 +16221,7 @@
     </row>
     <row r="115" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A115" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A115:A120" si="60">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.6.1</v>
       </c>
       <c r="B115" s="100" t="s">
@@ -16206,21 +16229,21 @@
       </c>
       <c r="D115" s="99"/>
       <c r="E115" s="75">
-        <v>44484</v>
+        <v>44509</v>
       </c>
       <c r="F115" s="76">
-        <f t="shared" si="51"/>
-        <v>44484</v>
+        <f t="shared" si="58"/>
+        <v>44510</v>
       </c>
       <c r="G115" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I115" s="60">
-        <f t="shared" si="52"/>
-        <v>1</v>
+        <f t="shared" si="59"/>
+        <v>2</v>
       </c>
       <c r="J115" s="73"/>
       <c r="K115" s="79"/>
@@ -16282,7 +16305,7 @@
     </row>
     <row r="116" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A116" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="60"/>
         <v>4.6.2</v>
       </c>
       <c r="B116" s="100" t="s">
@@ -16290,20 +16313,20 @@
       </c>
       <c r="D116" s="99"/>
       <c r="E116" s="75">
-        <v>44484</v>
+        <v>44510</v>
       </c>
       <c r="F116" s="76">
-        <f t="shared" si="51"/>
-        <v>44484</v>
+        <f t="shared" si="58"/>
+        <v>44510</v>
       </c>
       <c r="G116" s="58">
         <v>1</v>
       </c>
       <c r="H116" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I116" s="60">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="J116" s="73"/>
@@ -16366,7 +16389,7 @@
     </row>
     <row r="117" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A117" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="60"/>
         <v>4.6.3</v>
       </c>
       <c r="B117" s="100" t="s">
@@ -16374,21 +16397,21 @@
       </c>
       <c r="D117" s="99"/>
       <c r="E117" s="75">
-        <v>44485</v>
+        <v>44511</v>
       </c>
       <c r="F117" s="76">
-        <f t="shared" ref="F117:F120" si="53">IF(ISBLANK(E117)," - ",IF(G117=0,E117,E117+G117-1))</f>
-        <v>44485</v>
+        <f t="shared" ref="F117:F120" si="61">IF(ISBLANK(E117)," - ",IF(G117=0,E117,E117+G117-1))</f>
+        <v>44511</v>
       </c>
       <c r="G117" s="58">
         <v>1</v>
       </c>
       <c r="H117" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I117" s="60">
-        <f t="shared" ref="I117:I120" si="54">IF(OR(F117=0,E117=0)," - ",NETWORKDAYS(E117,F117))</f>
-        <v>0</v>
+        <f t="shared" ref="I117:I120" si="62">IF(OR(F117=0,E117=0)," - ",NETWORKDAYS(E117,F117))</f>
+        <v>1</v>
       </c>
       <c r="J117" s="73"/>
       <c r="K117" s="79"/>
@@ -16450,7 +16473,7 @@
     </row>
     <row r="118" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A118" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="60"/>
         <v>4.6.4</v>
       </c>
       <c r="B118" s="100" t="s">
@@ -16458,21 +16481,21 @@
       </c>
       <c r="D118" s="99"/>
       <c r="E118" s="75">
-        <v>44485</v>
+        <v>44511</v>
       </c>
       <c r="F118" s="76">
-        <f t="shared" si="53"/>
-        <v>44485</v>
+        <f t="shared" si="61"/>
+        <v>44511</v>
       </c>
       <c r="G118" s="58">
         <v>1</v>
       </c>
       <c r="H118" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I118" s="60">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <f t="shared" si="62"/>
+        <v>1</v>
       </c>
       <c r="J118" s="73"/>
       <c r="K118" s="79"/>
@@ -16534,7 +16557,7 @@
     </row>
     <row r="119" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A119" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="60"/>
         <v>4.6.5</v>
       </c>
       <c r="B119" s="100" t="s">
@@ -16542,21 +16565,21 @@
       </c>
       <c r="D119" s="99"/>
       <c r="E119" s="75">
-        <v>44486</v>
+        <v>44512</v>
       </c>
       <c r="F119" s="76">
-        <f t="shared" si="53"/>
-        <v>44486</v>
+        <f t="shared" si="61"/>
+        <v>44512</v>
       </c>
       <c r="G119" s="58">
         <v>1</v>
       </c>
       <c r="H119" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I119" s="60">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <f t="shared" si="62"/>
+        <v>1</v>
       </c>
       <c r="J119" s="73"/>
       <c r="K119" s="79"/>
@@ -16618,7 +16641,7 @@
     </row>
     <row r="120" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A120" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="60"/>
         <v>4.6.6</v>
       </c>
       <c r="B120" s="100" t="s">
@@ -16626,21 +16649,21 @@
       </c>
       <c r="D120" s="99"/>
       <c r="E120" s="75">
-        <v>44486</v>
+        <v>44512</v>
       </c>
       <c r="F120" s="76">
-        <f t="shared" si="53"/>
-        <v>44486</v>
+        <f t="shared" si="61"/>
+        <v>44512</v>
       </c>
       <c r="G120" s="58">
         <v>1</v>
       </c>
       <c r="H120" s="59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I120" s="60">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <f t="shared" si="62"/>
+        <v>1</v>
       </c>
       <c r="J120" s="73"/>
       <c r="K120" s="79"/>
@@ -16711,13 +16734,13 @@
       <c r="D121" s="52"/>
       <c r="E121" s="77"/>
       <c r="F121" s="77" t="str">
-        <f t="shared" ref="F121:F122" si="55">IF(ISBLANK(E121)," - ",IF(G121=0,E121,E121+G121-1))</f>
+        <f t="shared" ref="F121:F122" si="63">IF(ISBLANK(E121)," - ",IF(G121=0,E121,E121+G121-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G121" s="53"/>
       <c r="H121" s="54"/>
       <c r="I121" s="55" t="str">
-        <f t="shared" ref="I121:I122" si="56">IF(OR(F121=0,E121=0)," - ",NETWORKDAYS(E121,F121))</f>
+        <f t="shared" ref="I121:I122" si="64">IF(OR(F121=0,E121=0)," - ",NETWORKDAYS(E121,F121))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J121" s="74"/>
@@ -16788,11 +16811,11 @@
       </c>
       <c r="D122" s="99"/>
       <c r="E122" s="75">
-        <v>44487</v>
+        <v>44513</v>
       </c>
       <c r="F122" s="76">
-        <f t="shared" si="55"/>
-        <v>44487</v>
+        <f t="shared" si="63"/>
+        <v>44513</v>
       </c>
       <c r="G122" s="58">
         <v>1</v>
@@ -16801,8 +16824,8 @@
         <v>0</v>
       </c>
       <c r="I122" s="60">
-        <f t="shared" si="56"/>
-        <v>1</v>
+        <f t="shared" si="64"/>
+        <v>0</v>
       </c>
       <c r="J122" s="73"/>
       <c r="K122" s="79"/>
@@ -16873,13 +16896,13 @@
       <c r="D123" s="52"/>
       <c r="E123" s="77"/>
       <c r="F123" s="77" t="str">
-        <f t="shared" ref="F123:F126" si="57">IF(ISBLANK(E123)," - ",IF(G123=0,E123,E123+G123-1))</f>
+        <f t="shared" ref="F123:F126" si="65">IF(ISBLANK(E123)," - ",IF(G123=0,E123,E123+G123-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G123" s="53"/>
       <c r="H123" s="54"/>
       <c r="I123" s="55" t="str">
-        <f t="shared" ref="I123:I126" si="58">IF(OR(F123=0,E123=0)," - ",NETWORKDAYS(E123,F123))</f>
+        <f t="shared" ref="I123:I126" si="66">IF(OR(F123=0,E123=0)," - ",NETWORKDAYS(E123,F123))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J123" s="74"/>
@@ -16950,11 +16973,11 @@
       </c>
       <c r="D124" s="99"/>
       <c r="E124" s="75">
-        <v>44488</v>
+        <v>44514</v>
       </c>
       <c r="F124" s="76">
-        <f t="shared" si="57"/>
-        <v>44488</v>
+        <f t="shared" si="65"/>
+        <v>44514</v>
       </c>
       <c r="G124" s="58">
         <v>1</v>
@@ -16963,8 +16986,8 @@
         <v>0</v>
       </c>
       <c r="I124" s="60">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <f t="shared" si="66"/>
+        <v>0</v>
       </c>
       <c r="J124" s="73"/>
       <c r="K124" s="79"/>
@@ -17034,11 +17057,11 @@
       </c>
       <c r="D125" s="99"/>
       <c r="E125" s="75">
-        <v>44488</v>
+        <v>44514</v>
       </c>
       <c r="F125" s="76">
-        <f t="shared" si="57"/>
-        <v>44488</v>
+        <f t="shared" si="65"/>
+        <v>44514</v>
       </c>
       <c r="G125" s="58">
         <v>1</v>
@@ -17047,8 +17070,8 @@
         <v>0</v>
       </c>
       <c r="I125" s="60">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <f t="shared" si="66"/>
+        <v>0</v>
       </c>
       <c r="J125" s="73"/>
       <c r="K125" s="79"/>
@@ -17118,11 +17141,11 @@
       </c>
       <c r="D126" s="99"/>
       <c r="E126" s="75">
-        <v>44488</v>
+        <v>44514</v>
       </c>
       <c r="F126" s="76">
-        <f t="shared" si="57"/>
-        <v>44488</v>
+        <f t="shared" si="65"/>
+        <v>44514</v>
       </c>
       <c r="G126" s="58">
         <v>1</v>
@@ -17131,8 +17154,8 @@
         <v>0</v>
       </c>
       <c r="I126" s="60">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <f t="shared" si="66"/>
+        <v>0</v>
       </c>
       <c r="J126" s="73"/>
       <c r="K126" s="79"/>
@@ -17203,13 +17226,13 @@
       <c r="D127" s="52"/>
       <c r="E127" s="77"/>
       <c r="F127" s="77" t="str">
-        <f t="shared" ref="F127:F128" si="59">IF(ISBLANK(E127)," - ",IF(G127=0,E127,E127+G127-1))</f>
+        <f t="shared" ref="F127:F128" si="67">IF(ISBLANK(E127)," - ",IF(G127=0,E127,E127+G127-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G127" s="53"/>
       <c r="H127" s="54"/>
       <c r="I127" s="55" t="str">
-        <f t="shared" ref="I127:I128" si="60">IF(OR(F127=0,E127=0)," - ",NETWORKDAYS(E127,F127))</f>
+        <f t="shared" ref="I127:I128" si="68">IF(OR(F127=0,E127=0)," - ",NETWORKDAYS(E127,F127))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J127" s="74"/>
@@ -17270,31 +17293,31 @@
       <c r="BM127" s="81"/>
       <c r="BN127" s="81"/>
     </row>
-    <row r="128" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>7.1</v>
       </c>
       <c r="B128" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D128" s="99"/>
       <c r="E128" s="75">
-        <v>44489</v>
+        <v>44515</v>
       </c>
       <c r="F128" s="76">
-        <f t="shared" si="59"/>
-        <v>44490</v>
+        <f t="shared" si="67"/>
+        <v>44515</v>
       </c>
       <c r="G128" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" s="59">
         <v>0</v>
       </c>
       <c r="I128" s="60">
-        <f t="shared" si="60"/>
-        <v>2</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
       </c>
       <c r="J128" s="73"/>
       <c r="K128" s="79"/>
@@ -17365,13 +17388,13 @@
       <c r="D129" s="52"/>
       <c r="E129" s="77"/>
       <c r="F129" s="77" t="str">
-        <f t="shared" ref="F129:F130" si="61">IF(ISBLANK(E129)," - ",IF(G129=0,E129,E129+G129-1))</f>
+        <f t="shared" ref="F129:F130" si="69">IF(ISBLANK(E129)," - ",IF(G129=0,E129,E129+G129-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G129" s="53"/>
       <c r="H129" s="54"/>
       <c r="I129" s="55" t="str">
-        <f t="shared" ref="I129:I130" si="62">IF(OR(F129=0,E129=0)," - ",NETWORKDAYS(E129,F129))</f>
+        <f t="shared" ref="I129:I130" si="70">IF(OR(F129=0,E129=0)," - ",NETWORKDAYS(E129,F129))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J129" s="74"/>
@@ -17438,15 +17461,15 @@
         <v>8.1</v>
       </c>
       <c r="B130" s="98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D130" s="99"/>
       <c r="E130" s="75">
-        <v>44491</v>
+        <v>44516</v>
       </c>
       <c r="F130" s="76">
-        <f t="shared" si="61"/>
-        <v>44491</v>
+        <f t="shared" si="69"/>
+        <v>44516</v>
       </c>
       <c r="G130" s="58">
         <v>1</v>
@@ -17455,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="60">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="J130" s="73"/>
@@ -17519,15 +17542,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -17538,10 +17552,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H13 H21:H22 H27 H37:H39 H48 H82">
-    <cfRule type="dataBar" priority="492">
+  <conditionalFormatting sqref="H37:H39 H8:H21">
+    <cfRule type="dataBar" priority="500">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17555,25 +17578,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="292" priority="535">
+    <cfRule type="expression" dxfId="295" priority="543">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN13 K21:BN22 K27:BN27 K31:BN32 K37:BN39 K48:BN48 K81:BN83 K94:BN94 K121:BN130">
-    <cfRule type="expression" dxfId="291" priority="538">
+  <conditionalFormatting sqref="K8:BN13 K21:BN22 K27:BN27 K31:BN32 K37:BN39 K48:BN48 K81:BN83 K94:BN94 K121:BN127 K129:BN130">
+    <cfRule type="expression" dxfId="294" priority="546">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="539">
+    <cfRule type="expression" dxfId="293" priority="547">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN13 K21:BN22 K27:BN27 K37:BN39 K48:BN48 K82:BN82">
-    <cfRule type="expression" dxfId="289" priority="498">
+    <cfRule type="expression" dxfId="292" priority="506">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="459">
+    <cfRule type="dataBar" priority="467">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17587,7 +17610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="455">
+    <cfRule type="dataBar" priority="463">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17601,7 +17624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="dataBar" priority="487">
+    <cfRule type="dataBar" priority="495">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17615,12 +17638,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94:BN94">
-    <cfRule type="expression" dxfId="288" priority="488">
+    <cfRule type="expression" dxfId="291" priority="496">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H122">
-    <cfRule type="dataBar" priority="483">
+    <cfRule type="dataBar" priority="491">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17634,12 +17657,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121:BN122">
-    <cfRule type="expression" dxfId="287" priority="484">
+    <cfRule type="expression" dxfId="290" priority="492">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123:H126">
-    <cfRule type="dataBar" priority="479">
+    <cfRule type="dataBar" priority="487">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17653,12 +17676,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123:BN126">
-    <cfRule type="expression" dxfId="286" priority="480">
+    <cfRule type="expression" dxfId="289" priority="488">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127:H128">
-    <cfRule type="dataBar" priority="475">
+  <conditionalFormatting sqref="H127">
+    <cfRule type="dataBar" priority="483">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17671,13 +17694,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K127:BN128">
-    <cfRule type="expression" dxfId="285" priority="476">
+  <conditionalFormatting sqref="K127:BN127">
+    <cfRule type="expression" dxfId="288" priority="484">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="451">
+    <cfRule type="dataBar" priority="459">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17691,20 +17714,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="284" priority="461">
+    <cfRule type="expression" dxfId="287" priority="469">
       <formula>AND($E20&lt;=K$6,ROUNDDOWN(($F20-$E20+1)*$H20,0)+$E20-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="462">
+    <cfRule type="expression" dxfId="286" priority="470">
       <formula>AND(NOT(ISBLANK($E20)),$E20&lt;=K$6,$F20&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="282" priority="460">
+    <cfRule type="expression" dxfId="285" priority="468">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="447">
+    <cfRule type="dataBar" priority="455">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17718,20 +17741,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="281" priority="457">
+    <cfRule type="expression" dxfId="284" priority="465">
       <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="458">
+    <cfRule type="expression" dxfId="283" priority="466">
       <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="279" priority="456">
+    <cfRule type="expression" dxfId="282" priority="464">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="443">
+    <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17745,20 +17768,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="278" priority="453">
+    <cfRule type="expression" dxfId="281" priority="461">
       <formula>AND($E18&lt;=K$6,ROUNDDOWN(($F18-$E18+1)*$H18,0)+$E18-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="454">
+    <cfRule type="expression" dxfId="280" priority="462">
       <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$6,$F18&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="276" priority="452">
+    <cfRule type="expression" dxfId="279" priority="460">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="439">
+    <cfRule type="dataBar" priority="447">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17772,20 +17795,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="275" priority="449">
+    <cfRule type="expression" dxfId="278" priority="457">
       <formula>AND($E17&lt;=K$6,ROUNDDOWN(($F17-$E17+1)*$H17,0)+$E17-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="450">
+    <cfRule type="expression" dxfId="277" priority="458">
       <formula>AND(NOT(ISBLANK($E17)),$E17&lt;=K$6,$F17&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="273" priority="448">
+    <cfRule type="expression" dxfId="276" priority="456">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="435">
+    <cfRule type="dataBar" priority="443">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17799,994 +17822,490 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="272" priority="445">
+    <cfRule type="expression" dxfId="275" priority="453">
       <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="446">
+    <cfRule type="expression" dxfId="274" priority="454">
       <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="270" priority="444">
+    <cfRule type="expression" dxfId="273" priority="452">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="269" priority="441">
+    <cfRule type="expression" dxfId="272" priority="449">
       <formula>AND($E15&lt;=K$6,ROUNDDOWN(($F15-$E15+1)*$H15,0)+$E15-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="442">
+    <cfRule type="expression" dxfId="271" priority="450">
       <formula>AND(NOT(ISBLANK($E15)),$E15&lt;=K$6,$F15&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="267" priority="440">
+    <cfRule type="expression" dxfId="270" priority="448">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="266" priority="437">
+    <cfRule type="expression" dxfId="269" priority="445">
       <formula>AND($E14&lt;=K$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="438">
+    <cfRule type="expression" dxfId="268" priority="446">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$6,$F14&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="264" priority="436">
+    <cfRule type="expression" dxfId="267" priority="444">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="431">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A0589170-E6B4-4272-8B16-8981957C7F1A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="263" priority="433">
+    <cfRule type="expression" dxfId="266" priority="441">
       <formula>AND($E23&lt;=K$6,ROUNDDOWN(($F23-$E23+1)*$H23,0)+$E23-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="434">
+    <cfRule type="expression" dxfId="265" priority="442">
       <formula>AND(NOT(ISBLANK($E23)),$E23&lt;=K$6,$F23&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="261" priority="432">
+    <cfRule type="expression" dxfId="264" priority="440">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="427">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5AFD1A8-411E-4152-BBDB-FD53C7AAD029}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="423">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BB6F0D40-27C1-4301-ABF7-C270B8B93571}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="419">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9590E07D-09C4-41FB-AE82-2F333877CBA5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="260" priority="429">
+    <cfRule type="expression" dxfId="263" priority="437">
       <formula>AND($E26&lt;=K$6,ROUNDDOWN(($F26-$E26+1)*$H26,0)+$E26-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="430">
+    <cfRule type="expression" dxfId="262" priority="438">
       <formula>AND(NOT(ISBLANK($E26)),$E26&lt;=K$6,$F26&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="258" priority="428">
+    <cfRule type="expression" dxfId="261" priority="436">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="257" priority="425">
+    <cfRule type="expression" dxfId="260" priority="433">
       <formula>AND($E25&lt;=K$6,ROUNDDOWN(($F25-$E25+1)*$H25,0)+$E25-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="426">
+    <cfRule type="expression" dxfId="259" priority="434">
       <formula>AND(NOT(ISBLANK($E25)),$E25&lt;=K$6,$F25&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="255" priority="424">
+    <cfRule type="expression" dxfId="258" priority="432">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="254" priority="421">
+    <cfRule type="expression" dxfId="257" priority="429">
       <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="422">
+    <cfRule type="expression" dxfId="256" priority="430">
       <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="252" priority="420">
+    <cfRule type="expression" dxfId="255" priority="428">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="415">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0F80C4A2-6499-4705-90B9-4F9FB96A9166}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="251" priority="417">
+    <cfRule type="expression" dxfId="254" priority="425">
       <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="418">
+    <cfRule type="expression" dxfId="253" priority="426">
       <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="249" priority="416">
+    <cfRule type="expression" dxfId="252" priority="424">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="411">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5B5FD70-01F8-410A-9C8A-29F7A0AD32D3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="248" priority="413">
+    <cfRule type="expression" dxfId="251" priority="421">
       <formula>AND($E29&lt;=K$6,ROUNDDOWN(($F29-$E29+1)*$H29,0)+$E29-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="414">
+    <cfRule type="expression" dxfId="250" priority="422">
       <formula>AND(NOT(ISBLANK($E29)),$E29&lt;=K$6,$F29&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="246" priority="412">
+    <cfRule type="expression" dxfId="249" priority="420">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="407">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51C31D9C-4207-4437-A1CD-28BAF5DDF9B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="245" priority="409">
+    <cfRule type="expression" dxfId="248" priority="417">
       <formula>AND($E30&lt;=K$6,ROUNDDOWN(($F30-$E30+1)*$H30,0)+$E30-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="410">
+    <cfRule type="expression" dxfId="247" priority="418">
       <formula>AND(NOT(ISBLANK($E30)),$E30&lt;=K$6,$F30&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="243" priority="408">
+    <cfRule type="expression" dxfId="246" priority="416">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="399">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB74CC2E-8797-447A-947C-83737BFF8003}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="dataBar" priority="395">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39A9EB3B-9100-4755-826A-5212A66B8AE0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="242" priority="400">
+    <cfRule type="expression" dxfId="245" priority="408">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN32">
-    <cfRule type="expression" dxfId="241" priority="396">
+    <cfRule type="expression" dxfId="244" priority="404">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN36">
-    <cfRule type="expression" dxfId="240" priority="393">
+    <cfRule type="expression" dxfId="243" priority="401">
       <formula>AND($E35&lt;=K$6,ROUNDDOWN(($F35-$E35+1)*$H35,0)+$E35-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="394">
+    <cfRule type="expression" dxfId="242" priority="402">
       <formula>AND(NOT(ISBLANK($E35)),$E35&lt;=K$6,$F35&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="389">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{74F5E01E-D499-4E94-9BD8-7DB685D0A5A0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="238" priority="391">
+    <cfRule type="expression" dxfId="241" priority="399">
       <formula>AND($E33&lt;=K$6,ROUNDDOWN(($F33-$E33+1)*$H33,0)+$E33-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="392">
+    <cfRule type="expression" dxfId="240" priority="400">
       <formula>AND(NOT(ISBLANK($E33)),$E33&lt;=K$6,$F33&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="236" priority="390">
+    <cfRule type="expression" dxfId="239" priority="398">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="385">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{432DD458-1173-40AF-AEFD-15A1619C7F2A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="235" priority="387">
+    <cfRule type="expression" dxfId="238" priority="395">
       <formula>AND($E34&lt;=K$6,ROUNDDOWN(($F34-$E34+1)*$H34,0)+$E34-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="388">
+    <cfRule type="expression" dxfId="237" priority="396">
       <formula>AND(NOT(ISBLANK($E34)),$E34&lt;=K$6,$F34&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="233" priority="386">
+    <cfRule type="expression" dxfId="236" priority="394">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="383">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{577EA9A1-8E58-4054-8D72-5C6E7C0C54D9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H36">
-    <cfRule type="dataBar" priority="381">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{56A16C9D-F539-4515-80C2-CC3C15320647}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="232" priority="384">
+    <cfRule type="expression" dxfId="235" priority="392">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN36">
-    <cfRule type="expression" dxfId="231" priority="382">
+    <cfRule type="expression" dxfId="234" priority="390">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="345">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0D3F0120-C7B2-407F-8FCC-05255C26AA6D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="230" priority="347">
+    <cfRule type="expression" dxfId="233" priority="355">
       <formula>AND($E40&lt;=K$6,ROUNDDOWN(($F40-$E40+1)*$H40,0)+$E40-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="348">
+    <cfRule type="expression" dxfId="232" priority="356">
       <formula>AND(NOT(ISBLANK($E40)),$E40&lt;=K$6,$F40&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="228" priority="346">
+    <cfRule type="expression" dxfId="231" priority="354">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="341">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9187588C-612E-4F0F-AA15-EDEDE9F5E89C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="227" priority="343">
+    <cfRule type="expression" dxfId="230" priority="351">
       <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="344">
+    <cfRule type="expression" dxfId="229" priority="352">
       <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="225" priority="342">
+    <cfRule type="expression" dxfId="228" priority="350">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="dataBar" priority="337">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21C7BB13-B7F4-4867-BE3C-FFA558C624BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="224" priority="339">
+    <cfRule type="expression" dxfId="227" priority="347">
       <formula>AND($E46&lt;=K$6,ROUNDDOWN(($F46-$E46+1)*$H46,0)+$E46-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="340">
+    <cfRule type="expression" dxfId="226" priority="348">
       <formula>AND(NOT(ISBLANK($E46)),$E46&lt;=K$6,$F46&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="222" priority="338">
+    <cfRule type="expression" dxfId="225" priority="346">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="333">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DE965C14-180B-4628-B8C1-C4C22D63934E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="221" priority="335">
+    <cfRule type="expression" dxfId="224" priority="343">
       <formula>AND($E45&lt;=K$6,ROUNDDOWN(($F45-$E45+1)*$H45,0)+$E45-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="336">
+    <cfRule type="expression" dxfId="223" priority="344">
       <formula>AND(NOT(ISBLANK($E45)),$E45&lt;=K$6,$F45&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="219" priority="334">
+    <cfRule type="expression" dxfId="222" priority="342">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="329">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D88986AD-7108-4CE1-AF26-30B9C4F22868}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="218" priority="331">
+    <cfRule type="expression" dxfId="221" priority="339">
       <formula>AND($E44&lt;=K$6,ROUNDDOWN(($F44-$E44+1)*$H44,0)+$E44-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="332">
+    <cfRule type="expression" dxfId="220" priority="340">
       <formula>AND(NOT(ISBLANK($E44)),$E44&lt;=K$6,$F44&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="216" priority="330">
+    <cfRule type="expression" dxfId="219" priority="338">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="325">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DF70E0B2-5F8A-43F0-B6B6-3C0A3B046044}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="215" priority="327">
+    <cfRule type="expression" dxfId="218" priority="335">
       <formula>AND($E43&lt;=K$6,ROUNDDOWN(($F43-$E43+1)*$H43,0)+$E43-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="328">
+    <cfRule type="expression" dxfId="217" priority="336">
       <formula>AND(NOT(ISBLANK($E43)),$E43&lt;=K$6,$F43&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="213" priority="326">
+    <cfRule type="expression" dxfId="216" priority="334">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="321">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49724FBC-652D-43E5-83DF-69AFD551F22C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="212" priority="323">
+    <cfRule type="expression" dxfId="215" priority="331">
       <formula>AND($E42&lt;=K$6,ROUNDDOWN(($F42-$E42+1)*$H42,0)+$E42-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="324">
+    <cfRule type="expression" dxfId="214" priority="332">
       <formula>AND(NOT(ISBLANK($E42)),$E42&lt;=K$6,$F42&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="210" priority="322">
+    <cfRule type="expression" dxfId="213" priority="330">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="317">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E16D4E89-6819-4476-9448-4A9FDE9A3F7B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="209" priority="319">
+    <cfRule type="expression" dxfId="212" priority="327">
       <formula>AND($E41&lt;=K$6,ROUNDDOWN(($F41-$E41+1)*$H41,0)+$E41-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="320">
+    <cfRule type="expression" dxfId="211" priority="328">
       <formula>AND(NOT(ISBLANK($E41)),$E41&lt;=K$6,$F41&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="207" priority="318">
+    <cfRule type="expression" dxfId="210" priority="326">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="dataBar" priority="313">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC963A7C-9382-4650-A753-179FBFE1B2CB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="206" priority="315">
+    <cfRule type="expression" dxfId="209" priority="323">
       <formula>AND($E50&lt;=K$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="316">
+    <cfRule type="expression" dxfId="208" priority="324">
       <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=K$6,$F50&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="204" priority="314">
+    <cfRule type="expression" dxfId="207" priority="322">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="309">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC90BA19-9E08-4E63-BB12-1E87AA9EBEAF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="305">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B0B38C44-588C-4F07-ACCE-FD13B85186F0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="301">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A3A85FE0-8C1D-4FEF-8E29-24AF1A31DB07}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="203" priority="311">
+    <cfRule type="expression" dxfId="206" priority="319">
       <formula>AND($E57&lt;=K$6,ROUNDDOWN(($F57-$E57+1)*$H57,0)+$E57-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="312">
+    <cfRule type="expression" dxfId="205" priority="320">
       <formula>AND(NOT(ISBLANK($E57)),$E57&lt;=K$6,$F57&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="201" priority="310">
+    <cfRule type="expression" dxfId="204" priority="318">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="297">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FCF653A3-DC9F-42CD-974E-5FF041697554}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="200" priority="307">
+    <cfRule type="expression" dxfId="203" priority="315">
       <formula>AND($E56&lt;=K$6,ROUNDDOWN(($F56-$E56+1)*$H56,0)+$E56-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="308">
+    <cfRule type="expression" dxfId="202" priority="316">
       <formula>AND(NOT(ISBLANK($E56)),$E56&lt;=K$6,$F56&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="198" priority="306">
+    <cfRule type="expression" dxfId="201" priority="314">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="293">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{43FD5D01-1EFC-4E8E-99B6-CA30CBF9AE37}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="197" priority="303">
+    <cfRule type="expression" dxfId="200" priority="311">
       <formula>AND($E55&lt;=K$6,ROUNDDOWN(($F55-$E55+1)*$H55,0)+$E55-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="304">
+    <cfRule type="expression" dxfId="199" priority="312">
       <formula>AND(NOT(ISBLANK($E55)),$E55&lt;=K$6,$F55&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="195" priority="302">
+    <cfRule type="expression" dxfId="198" priority="310">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="289">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4A57EF11-0020-43AA-9E61-D4B0C8FB439F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="194" priority="299">
+    <cfRule type="expression" dxfId="197" priority="307">
       <formula>AND($E54&lt;=K$6,ROUNDDOWN(($F54-$E54+1)*$H54,0)+$E54-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="300">
+    <cfRule type="expression" dxfId="196" priority="308">
       <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=K$6,$F54&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="192" priority="298">
+    <cfRule type="expression" dxfId="195" priority="306">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="194" priority="303">
+      <formula>AND($E53&lt;=K$6,ROUNDDOWN(($F53-$E53+1)*$H53,0)+$E53-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="304">
+      <formula>AND(NOT(ISBLANK($E53)),$E53&lt;=K$6,$F53&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="192" priority="302">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="191" priority="299">
+      <formula>AND($E52&lt;=K$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="300">
+      <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=K$6,$F52&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="189" priority="298">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="188" priority="295">
+      <formula>AND($E51&lt;=K$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="296">
+      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=K$6,$F51&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="186" priority="294">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="185" priority="275">
+      <formula>AND($E67&lt;=K$6,ROUNDDOWN(($F67-$E67+1)*$H67,0)+$E67-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="276">
+      <formula>AND(NOT(ISBLANK($E67)),$E67&lt;=K$6,$F67&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="183" priority="274">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="182" priority="271">
+      <formula>AND($E66&lt;=K$6,ROUNDDOWN(($F66-$E66+1)*$H66,0)+$E66-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="272">
+      <formula>AND(NOT(ISBLANK($E66)),$E66&lt;=K$6,$F66&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="180" priority="270">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="179" priority="267">
+      <formula>AND($E65&lt;=K$6,ROUNDDOWN(($F65-$E65+1)*$H65,0)+$E65-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="268">
+      <formula>AND(NOT(ISBLANK($E65)),$E65&lt;=K$6,$F65&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="177" priority="266">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="176" priority="263">
+      <formula>AND($E64&lt;=K$6,ROUNDDOWN(($F64-$E64+1)*$H64,0)+$E64-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="264">
+      <formula>AND(NOT(ISBLANK($E64)),$E64&lt;=K$6,$F64&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="174" priority="262">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="173" priority="259">
+      <formula>AND($E63&lt;=K$6,ROUNDDOWN(($F63-$E63+1)*$H63,0)+$E63-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="260">
+      <formula>AND(NOT(ISBLANK($E63)),$E63&lt;=K$6,$F63&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="171" priority="258">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="170" priority="255">
+      <formula>AND($E62&lt;=K$6,ROUNDDOWN(($F62-$E62+1)*$H62,0)+$E62-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="256">
+      <formula>AND(NOT(ISBLANK($E62)),$E62&lt;=K$6,$F62&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="168" priority="254">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="167" priority="291">
+      <formula>AND($E49&lt;=K$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="292">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=K$6,$F49&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="165" priority="290">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129:H130">
     <cfRule type="dataBar" priority="285">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68964454-68F5-452E-89B3-30FDB3C7D50D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="191" priority="295">
-      <formula>AND($E53&lt;=K$6,ROUNDDOWN(($F53-$E53+1)*$H53,0)+$E53-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="296">
-      <formula>AND(NOT(ISBLANK($E53)),$E53&lt;=K$6,$F53&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="189" priority="294">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="188" priority="291">
-      <formula>AND($E52&lt;=K$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="292">
-      <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=K$6,$F52&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="186" priority="290">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="185" priority="287">
-      <formula>AND($E51&lt;=K$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="288">
-      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=K$6,$F51&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="183" priority="286">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="dataBar" priority="265">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5100A44-64DE-4946-81F8-4CCEEE38069A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="182" priority="267">
-      <formula>AND($E67&lt;=K$6,ROUNDDOWN(($F67-$E67+1)*$H67,0)+$E67-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="268">
-      <formula>AND(NOT(ISBLANK($E67)),$E67&lt;=K$6,$F67&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="180" priority="266">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="dataBar" priority="261">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1E24187F-2464-4D0F-AE4A-6549F2C70C42}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="179" priority="263">
-      <formula>AND($E66&lt;=K$6,ROUNDDOWN(($F66-$E66+1)*$H66,0)+$E66-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="264">
-      <formula>AND(NOT(ISBLANK($E66)),$E66&lt;=K$6,$F66&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="177" priority="262">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="dataBar" priority="257">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{319D0D0C-CE93-49B2-BC19-9C1573621C8E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="176" priority="259">
-      <formula>AND($E65&lt;=K$6,ROUNDDOWN(($F65-$E65+1)*$H65,0)+$E65-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="260">
-      <formula>AND(NOT(ISBLANK($E65)),$E65&lt;=K$6,$F65&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="174" priority="258">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="dataBar" priority="253">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4FA2483-A1E4-4FB7-9753-28A61060304E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="173" priority="255">
-      <formula>AND($E64&lt;=K$6,ROUNDDOWN(($F64-$E64+1)*$H64,0)+$E64-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="256">
-      <formula>AND(NOT(ISBLANK($E64)),$E64&lt;=K$6,$F64&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="171" priority="254">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="249">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BDF758FA-8E59-4F44-BE05-69EB41599CD1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="170" priority="251">
-      <formula>AND($E63&lt;=K$6,ROUNDDOWN(($F63-$E63+1)*$H63,0)+$E63-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="252">
-      <formula>AND(NOT(ISBLANK($E63)),$E63&lt;=K$6,$F63&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="168" priority="250">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="245">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5A318E66-F111-4838-B0AB-6A3AA21DF556}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="167" priority="247">
-      <formula>AND($E62&lt;=K$6,ROUNDDOWN(($F62-$E62+1)*$H62,0)+$E62-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="248">
-      <formula>AND(NOT(ISBLANK($E62)),$E62&lt;=K$6,$F62&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="165" priority="246">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="281">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C08B421-0F4D-4AC2-9A0B-60F23C003672}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="164" priority="283">
-      <formula>AND($E49&lt;=K$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="284">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=K$6,$F49&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="162" priority="282">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H129:H130">
-    <cfRule type="dataBar" priority="277">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18800,779 +18319,373 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:BN130">
-    <cfRule type="expression" dxfId="161" priority="278">
+    <cfRule type="expression" dxfId="164" priority="286">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="241">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BEDFA79C-FF54-4F1F-92E4-2B81B59B6E08}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="160" priority="243">
+    <cfRule type="expression" dxfId="163" priority="251">
       <formula>AND($E61&lt;=K$6,ROUNDDOWN(($F61-$E61+1)*$H61,0)+$E61-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="244">
+    <cfRule type="expression" dxfId="162" priority="252">
       <formula>AND(NOT(ISBLANK($E61)),$E61&lt;=K$6,$F61&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="158" priority="242">
+    <cfRule type="expression" dxfId="161" priority="250">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="157" priority="239">
+    <cfRule type="expression" dxfId="160" priority="247">
       <formula>AND($E59&lt;=K$6,ROUNDDOWN(($F59-$E59+1)*$H59,0)+$E59-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="240">
+    <cfRule type="expression" dxfId="159" priority="248">
       <formula>AND(NOT(ISBLANK($E59)),$E59&lt;=K$6,$F59&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="237">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FB6647C0-745F-4F6B-B997-9CD165A185CC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="155" priority="238">
+    <cfRule type="expression" dxfId="158" priority="246">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="273">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69CF50A0-85E3-4EFB-916A-496693ED69FA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="154" priority="275">
+    <cfRule type="expression" dxfId="157" priority="283">
       <formula>AND($E58&lt;=K$6,ROUNDDOWN(($F58-$E58+1)*$H58,0)+$E58-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="276">
+    <cfRule type="expression" dxfId="156" priority="284">
       <formula>AND(NOT(ISBLANK($E58)),$E58&lt;=K$6,$F58&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="152" priority="274">
+    <cfRule type="expression" dxfId="155" priority="282">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="269">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{263AD8B7-C955-4F51-8073-BF18771DD4F4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="151" priority="271">
+    <cfRule type="expression" dxfId="154" priority="279">
       <formula>AND($E60&lt;=K$6,ROUNDDOWN(($F60-$E60+1)*$H60,0)+$E60-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="272">
+    <cfRule type="expression" dxfId="153" priority="280">
       <formula>AND(NOT(ISBLANK($E60)),$E60&lt;=K$6,$F60&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="149" priority="270">
+    <cfRule type="expression" dxfId="152" priority="278">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="dataBar" priority="225">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D4BAC94A-029F-4DEB-B1E0-B3D3226253F8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="dataBar" priority="221">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0F476C55-ADC1-4F91-93E9-18D70974A930}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="dataBar" priority="217">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DFB08DC8-03DE-4370-A906-989DAEC6811C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="148" priority="227">
+    <cfRule type="expression" dxfId="151" priority="235">
       <formula>AND($E77&lt;=K$6,ROUNDDOWN(($F77-$E77+1)*$H77,0)+$E77-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="228">
+    <cfRule type="expression" dxfId="150" priority="236">
       <formula>AND(NOT(ISBLANK($E77)),$E77&lt;=K$6,$F77&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="146" priority="226">
+    <cfRule type="expression" dxfId="149" priority="234">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="dataBar" priority="213">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6FF83976-DC0E-47C4-B376-36F362A171AC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="145" priority="223">
+    <cfRule type="expression" dxfId="148" priority="231">
       <formula>AND($E76&lt;=K$6,ROUNDDOWN(($F76-$E76+1)*$H76,0)+$E76-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="224">
+    <cfRule type="expression" dxfId="147" priority="232">
       <formula>AND(NOT(ISBLANK($E76)),$E76&lt;=K$6,$F76&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="143" priority="222">
+    <cfRule type="expression" dxfId="146" priority="230">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="dataBar" priority="209">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F98893FD-B8D4-42FD-990D-E40E5F1E4DF0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="142" priority="219">
+    <cfRule type="expression" dxfId="145" priority="227">
       <formula>AND($E75&lt;=K$6,ROUNDDOWN(($F75-$E75+1)*$H75,0)+$E75-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="220">
+    <cfRule type="expression" dxfId="144" priority="228">
       <formula>AND(NOT(ISBLANK($E75)),$E75&lt;=K$6,$F75&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="140" priority="218">
+    <cfRule type="expression" dxfId="143" priority="226">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="dataBar" priority="205">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C572C4F2-E7E8-46A8-A790-ED0DF1AA6C47}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="139" priority="215">
+    <cfRule type="expression" dxfId="142" priority="223">
       <formula>AND($E74&lt;=K$6,ROUNDDOWN(($F74-$E74+1)*$H74,0)+$E74-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="216">
+    <cfRule type="expression" dxfId="141" priority="224">
       <formula>AND(NOT(ISBLANK($E74)),$E74&lt;=K$6,$F74&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="137" priority="214">
+    <cfRule type="expression" dxfId="140" priority="222">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="dataBar" priority="201">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0C8B993B-1C60-400E-8C8E-C76AB9CC635A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="136" priority="211">
+    <cfRule type="expression" dxfId="139" priority="219">
       <formula>AND($E73&lt;=K$6,ROUNDDOWN(($F73-$E73+1)*$H73,0)+$E73-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="212">
+    <cfRule type="expression" dxfId="138" priority="220">
       <formula>AND(NOT(ISBLANK($E73)),$E73&lt;=K$6,$F73&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="134" priority="210">
+    <cfRule type="expression" dxfId="137" priority="218">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="133" priority="207">
+    <cfRule type="expression" dxfId="136" priority="215">
       <formula>AND($E72&lt;=K$6,ROUNDDOWN(($F72-$E72+1)*$H72,0)+$E72-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="208">
+    <cfRule type="expression" dxfId="135" priority="216">
       <formula>AND(NOT(ISBLANK($E72)),$E72&lt;=K$6,$F72&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="131" priority="206">
+    <cfRule type="expression" dxfId="134" priority="214">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="130" priority="203">
+    <cfRule type="expression" dxfId="133" priority="211">
       <formula>AND($E71&lt;=K$6,ROUNDDOWN(($F71-$E71+1)*$H71,0)+$E71-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="204">
+    <cfRule type="expression" dxfId="132" priority="212">
       <formula>AND(NOT(ISBLANK($E71)),$E71&lt;=K$6,$F71&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="128" priority="202">
+    <cfRule type="expression" dxfId="131" priority="210">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="dataBar" priority="197">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86B7D2A6-A2FE-4208-B895-C95A6DB30BAD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="127" priority="199">
+    <cfRule type="expression" dxfId="130" priority="207">
       <formula>AND($E69&lt;=K$6,ROUNDDOWN(($F69-$E69+1)*$H69,0)+$E69-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="200">
+    <cfRule type="expression" dxfId="129" priority="208">
       <formula>AND(NOT(ISBLANK($E69)),$E69&lt;=K$6,$F69&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="125" priority="198">
+    <cfRule type="expression" dxfId="128" priority="206">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="dataBar" priority="193">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CB182D3E-F08A-4836-AD67-9519293E1D68}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="124" priority="195">
+    <cfRule type="expression" dxfId="127" priority="203">
       <formula>AND($E78&lt;=K$6,ROUNDDOWN(($F78-$E78+1)*$H78,0)+$E78-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="196">
+    <cfRule type="expression" dxfId="126" priority="204">
       <formula>AND(NOT(ISBLANK($E78)),$E78&lt;=K$6,$F78&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="122" priority="194">
+    <cfRule type="expression" dxfId="125" priority="202">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="dataBar" priority="189">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8B0A3AED-1BFB-453E-B05A-28FB27635DE4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="121" priority="191">
+    <cfRule type="expression" dxfId="124" priority="199">
       <formula>AND($E80&lt;=K$6,ROUNDDOWN(($F80-$E80+1)*$H80,0)+$E80-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="192">
+    <cfRule type="expression" dxfId="123" priority="200">
       <formula>AND(NOT(ISBLANK($E80)),$E80&lt;=K$6,$F80&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="119" priority="190">
+    <cfRule type="expression" dxfId="122" priority="198">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81:H82">
-    <cfRule type="dataBar" priority="185">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{56F4C5C7-0810-4558-9979-F78AC59E8BB7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K81:BN82">
-    <cfRule type="expression" dxfId="118" priority="186">
+    <cfRule type="expression" dxfId="121" priority="194">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="dataBar" priority="181">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{723CE824-BA73-4DFA-A561-552791EE7430}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="117" priority="183">
+    <cfRule type="expression" dxfId="120" priority="191">
       <formula>AND($E79&lt;=K$6,ROUNDDOWN(($F79-$E79+1)*$H79,0)+$E79-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="184">
+    <cfRule type="expression" dxfId="119" priority="192">
       <formula>AND(NOT(ISBLANK($E79)),$E79&lt;=K$6,$F79&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="115" priority="182">
+    <cfRule type="expression" dxfId="118" priority="190">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="dataBar" priority="233">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90DDAF7F-BD1A-408A-BA36-6F96CCE131F9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="114" priority="235">
+    <cfRule type="expression" dxfId="117" priority="243">
       <formula>AND($E68&lt;=K$6,ROUNDDOWN(($F68-$E68+1)*$H68,0)+$E68-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="236">
+    <cfRule type="expression" dxfId="116" priority="244">
       <formula>AND(NOT(ISBLANK($E68)),$E68&lt;=K$6,$F68&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="112" priority="234">
+    <cfRule type="expression" dxfId="115" priority="242">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="dataBar" priority="229">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EC554D8A-CA7D-4124-A2D0-FD5D8FFD6122}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="111" priority="231">
+    <cfRule type="expression" dxfId="114" priority="239">
       <formula>AND($E70&lt;=K$6,ROUNDDOWN(($F70-$E70+1)*$H70,0)+$E70-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="232">
+    <cfRule type="expression" dxfId="113" priority="240">
       <formula>AND(NOT(ISBLANK($E70)),$E70&lt;=K$6,$F70&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="109" priority="230">
+    <cfRule type="expression" dxfId="112" priority="238">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="dataBar" priority="161">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8F971004-5A26-4511-9F99-A75509F49477}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K86:BN86">
-    <cfRule type="expression" dxfId="108" priority="162">
+    <cfRule type="expression" dxfId="111" priority="170">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="dataBar" priority="177">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3E2A9586-803E-4B31-86A7-8F8AB68E3B24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K83:BN83">
-    <cfRule type="expression" dxfId="107" priority="178">
+    <cfRule type="expression" dxfId="110" priority="186">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="dataBar" priority="157">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1E35A8B6-3112-44D9-B18C-141AB2A354BC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="dataBar" priority="153">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1C4F5011-9388-40F0-9643-C8733ACC00B7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="dataBar" priority="149">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E0B1F2AE-F516-4A00-BBCB-EDA56100AE16}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="106" priority="159">
+    <cfRule type="expression" dxfId="109" priority="167">
       <formula>AND($E93&lt;=K$6,ROUNDDOWN(($F93-$E93+1)*$H93,0)+$E93-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="160">
+    <cfRule type="expression" dxfId="108" priority="168">
       <formula>AND(NOT(ISBLANK($E93)),$E93&lt;=K$6,$F93&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="104" priority="158">
+    <cfRule type="expression" dxfId="107" priority="166">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="dataBar" priority="145">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{800E6E81-CD54-4FE1-8AB8-3EB9B5B2677F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K92:BN92">
-    <cfRule type="expression" dxfId="103" priority="155">
+    <cfRule type="expression" dxfId="106" priority="163">
       <formula>AND($E92&lt;=K$6,ROUNDDOWN(($F92-$E92+1)*$H92,0)+$E92-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="156">
+    <cfRule type="expression" dxfId="105" priority="164">
       <formula>AND(NOT(ISBLANK($E92)),$E92&lt;=K$6,$F92&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K92:BN92">
-    <cfRule type="expression" dxfId="101" priority="154">
+    <cfRule type="expression" dxfId="104" priority="162">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="dataBar" priority="141">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8FE08DF8-6717-48F8-8ECA-20DF4E524729}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K91:BN91">
-    <cfRule type="expression" dxfId="100" priority="151">
+    <cfRule type="expression" dxfId="103" priority="159">
       <formula>AND($E91&lt;=K$6,ROUNDDOWN(($F91-$E91+1)*$H91,0)+$E91-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="152">
+    <cfRule type="expression" dxfId="102" priority="160">
       <formula>AND(NOT(ISBLANK($E91)),$E91&lt;=K$6,$F91&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91:BN91">
-    <cfRule type="expression" dxfId="98" priority="150">
+    <cfRule type="expression" dxfId="101" priority="158">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="dataBar" priority="137">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{798D2225-DF46-4978-B0E5-5E37AF63D4CF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K90:BN90">
-    <cfRule type="expression" dxfId="97" priority="147">
+    <cfRule type="expression" dxfId="100" priority="155">
       <formula>AND($E90&lt;=K$6,ROUNDDOWN(($F90-$E90+1)*$H90,0)+$E90-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="148">
+    <cfRule type="expression" dxfId="99" priority="156">
       <formula>AND(NOT(ISBLANK($E90)),$E90&lt;=K$6,$F90&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K90:BN90">
-    <cfRule type="expression" dxfId="95" priority="146">
+    <cfRule type="expression" dxfId="98" priority="154">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="dataBar" priority="133">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3FBF7A44-C0BA-4060-9C07-830E745D2F3E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K89:BN89">
-    <cfRule type="expression" dxfId="94" priority="143">
+    <cfRule type="expression" dxfId="97" priority="151">
       <formula>AND($E89&lt;=K$6,ROUNDDOWN(($F89-$E89+1)*$H89,0)+$E89-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="144">
+    <cfRule type="expression" dxfId="96" priority="152">
       <formula>AND(NOT(ISBLANK($E89)),$E89&lt;=K$6,$F89&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89:BN89">
-    <cfRule type="expression" dxfId="92" priority="142">
+    <cfRule type="expression" dxfId="95" priority="150">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K88:BN88">
-    <cfRule type="expression" dxfId="91" priority="139">
+    <cfRule type="expression" dxfId="94" priority="147">
       <formula>AND($E88&lt;=K$6,ROUNDDOWN(($F88-$E88+1)*$H88,0)+$E88-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="140">
+    <cfRule type="expression" dxfId="93" priority="148">
       <formula>AND(NOT(ISBLANK($E88)),$E88&lt;=K$6,$F88&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K88:BN88">
-    <cfRule type="expression" dxfId="89" priority="138">
+    <cfRule type="expression" dxfId="92" priority="146">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87:BN87">
-    <cfRule type="expression" dxfId="88" priority="135">
+    <cfRule type="expression" dxfId="91" priority="143">
       <formula>AND($E87&lt;=K$6,ROUNDDOWN(($F87-$E87+1)*$H87,0)+$E87-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="136">
+    <cfRule type="expression" dxfId="90" priority="144">
       <formula>AND(NOT(ISBLANK($E87)),$E87&lt;=K$6,$F87&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87:BN87">
-    <cfRule type="expression" dxfId="86" priority="134">
+    <cfRule type="expression" dxfId="89" priority="142">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="dataBar" priority="129">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7AA0AAB8-4611-4145-AF82-ABE7A446324E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K85:BN85">
-    <cfRule type="expression" dxfId="85" priority="131">
+    <cfRule type="expression" dxfId="88" priority="139">
       <formula>AND($E85&lt;=K$6,ROUNDDOWN(($F85-$E85+1)*$H85,0)+$E85-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="132">
+    <cfRule type="expression" dxfId="87" priority="140">
       <formula>AND(NOT(ISBLANK($E85)),$E85&lt;=K$6,$F85&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K85:BN85">
-    <cfRule type="expression" dxfId="83" priority="130">
+    <cfRule type="expression" dxfId="86" priority="138">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K86:BN86">
-    <cfRule type="expression" dxfId="82" priority="163">
+    <cfRule type="expression" dxfId="85" priority="171">
       <formula>AND($E86&lt;=K$6,ROUNDDOWN(($F86-$E86+1)*$H86,0)+$E86-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="164">
+    <cfRule type="expression" dxfId="84" priority="172">
       <formula>AND(NOT(ISBLANK($E86)),$E86&lt;=K$6,$F86&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="dataBar" priority="125">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1CFB41F3-64D4-4B69-AF3C-5A10E300E215}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K84:BN84">
-    <cfRule type="expression" dxfId="80" priority="127">
+    <cfRule type="expression" dxfId="83" priority="135">
       <formula>AND($E84&lt;=K$6,ROUNDDOWN(($F84-$E84+1)*$H84,0)+$E84-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="128">
+    <cfRule type="expression" dxfId="82" priority="136">
       <formula>AND(NOT(ISBLANK($E84)),$E84&lt;=K$6,$F84&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K84:BN84">
-    <cfRule type="expression" dxfId="78" priority="126">
+    <cfRule type="expression" dxfId="81" priority="134">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19586,20 +18699,353 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K95:BN95">
-    <cfRule type="expression" dxfId="77" priority="121">
+    <cfRule type="expression" dxfId="80" priority="129">
       <formula>AND($E95&lt;=K$6,ROUNDDOWN(($F95-$E95+1)*$H95,0)+$E95-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="122">
+    <cfRule type="expression" dxfId="79" priority="130">
       <formula>AND(NOT(ISBLANK($E95)),$E95&lt;=K$6,$F95&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K95:BN95">
-    <cfRule type="expression" dxfId="75" priority="120">
+    <cfRule type="expression" dxfId="78" priority="128">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
-    <cfRule type="dataBar" priority="115">
+  <conditionalFormatting sqref="K97:BN97">
+    <cfRule type="expression" dxfId="77" priority="125">
+      <formula>AND($E97&lt;=K$6,ROUNDDOWN(($F97-$E97+1)*$H97,0)+$E97-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="126">
+      <formula>AND(NOT(ISBLANK($E97)),$E97&lt;=K$6,$F97&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K97:BN97">
+    <cfRule type="expression" dxfId="75" priority="124">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96:BN96">
+    <cfRule type="expression" dxfId="74" priority="119">
+      <formula>AND($E96&lt;=K$6,ROUNDDOWN(($F96-$E96+1)*$H96,0)+$E96-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="120">
+      <formula>AND(NOT(ISBLANK($E96)),$E96&lt;=K$6,$F96&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96:BN96">
+    <cfRule type="expression" dxfId="72" priority="118">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K98:BN98">
+    <cfRule type="expression" dxfId="71" priority="107">
+      <formula>AND($E98&lt;=K$6,ROUNDDOWN(($F98-$E98+1)*$H98,0)+$E98-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="108">
+      <formula>AND(NOT(ISBLANK($E98)),$E98&lt;=K$6,$F98&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K98:BN98">
+    <cfRule type="expression" dxfId="69" priority="106">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K99:BN99">
+    <cfRule type="expression" dxfId="68" priority="103">
+      <formula>AND($E99&lt;=K$6,ROUNDDOWN(($F99-$E99+1)*$H99,0)+$E99-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="104">
+      <formula>AND(NOT(ISBLANK($E99)),$E99&lt;=K$6,$F99&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K99:BN99">
+    <cfRule type="expression" dxfId="66" priority="102">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K101:BN101">
+    <cfRule type="expression" dxfId="65" priority="99">
+      <formula>AND($E101&lt;=K$6,ROUNDDOWN(($F101-$E101+1)*$H101,0)+$E101-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="100">
+      <formula>AND(NOT(ISBLANK($E101)),$E101&lt;=K$6,$F101&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K101:BN101">
+    <cfRule type="expression" dxfId="63" priority="98">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K100:BN100">
+    <cfRule type="expression" dxfId="62" priority="95">
+      <formula>AND($E100&lt;=K$6,ROUNDDOWN(($F100-$E100+1)*$H100,0)+$E100-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="96">
+      <formula>AND(NOT(ISBLANK($E100)),$E100&lt;=K$6,$F100&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K100:BN100">
+    <cfRule type="expression" dxfId="60" priority="94">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K102:BN102">
+    <cfRule type="expression" dxfId="59" priority="91">
+      <formula>AND($E102&lt;=K$6,ROUNDDOWN(($F102-$E102+1)*$H102,0)+$E102-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="92">
+      <formula>AND(NOT(ISBLANK($E102)),$E102&lt;=K$6,$F102&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K102:BN102">
+    <cfRule type="expression" dxfId="57" priority="90">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K104:BN104">
+    <cfRule type="expression" dxfId="56" priority="87">
+      <formula>AND($E104&lt;=K$6,ROUNDDOWN(($F104-$E104+1)*$H104,0)+$E104-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="88">
+      <formula>AND(NOT(ISBLANK($E104)),$E104&lt;=K$6,$F104&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K104:BN104">
+    <cfRule type="expression" dxfId="54" priority="86">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103:BN103">
+    <cfRule type="expression" dxfId="53" priority="83">
+      <formula>AND($E103&lt;=K$6,ROUNDDOWN(($F103-$E103+1)*$H103,0)+$E103-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="84">
+      <formula>AND(NOT(ISBLANK($E103)),$E103&lt;=K$6,$F103&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103:BN103">
+    <cfRule type="expression" dxfId="51" priority="82">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106:BN106">
+    <cfRule type="expression" dxfId="50" priority="79">
+      <formula>AND($E106&lt;=K$6,ROUNDDOWN(($F106-$E106+1)*$H106,0)+$E106-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="80">
+      <formula>AND(NOT(ISBLANK($E106)),$E106&lt;=K$6,$F106&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106:BN106">
+    <cfRule type="expression" dxfId="48" priority="78">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K105:BN105">
+    <cfRule type="expression" dxfId="47" priority="75">
+      <formula>AND($E105&lt;=K$6,ROUNDDOWN(($F105-$E105+1)*$H105,0)+$E105-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="76">
+      <formula>AND(NOT(ISBLANK($E105)),$E105&lt;=K$6,$F105&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K105:BN105">
+    <cfRule type="expression" dxfId="45" priority="74">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K108:BN108">
+    <cfRule type="expression" dxfId="44" priority="71">
+      <formula>AND($E108&lt;=K$6,ROUNDDOWN(($F108-$E108+1)*$H108,0)+$E108-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="72">
+      <formula>AND(NOT(ISBLANK($E108)),$E108&lt;=K$6,$F108&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K108:BN108">
+    <cfRule type="expression" dxfId="42" priority="70">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K107:BN107">
+    <cfRule type="expression" dxfId="41" priority="67">
+      <formula>AND($E107&lt;=K$6,ROUNDDOWN(($F107-$E107+1)*$H107,0)+$E107-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="68">
+      <formula>AND(NOT(ISBLANK($E107)),$E107&lt;=K$6,$F107&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K107:BN107">
+    <cfRule type="expression" dxfId="39" priority="66">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K110:BN110">
+    <cfRule type="expression" dxfId="38" priority="63">
+      <formula>AND($E110&lt;=K$6,ROUNDDOWN(($F110-$E110+1)*$H110,0)+$E110-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="64">
+      <formula>AND(NOT(ISBLANK($E110)),$E110&lt;=K$6,$F110&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K110:BN110">
+    <cfRule type="expression" dxfId="36" priority="62">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109:BN109">
+    <cfRule type="expression" dxfId="35" priority="59">
+      <formula>AND($E109&lt;=K$6,ROUNDDOWN(($F109-$E109+1)*$H109,0)+$E109-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="60">
+      <formula>AND(NOT(ISBLANK($E109)),$E109&lt;=K$6,$F109&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109:BN109">
+    <cfRule type="expression" dxfId="33" priority="58">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K111:BN111">
+    <cfRule type="expression" dxfId="32" priority="55">
+      <formula>AND($E111&lt;=K$6,ROUNDDOWN(($F111-$E111+1)*$H111,0)+$E111-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="56">
+      <formula>AND(NOT(ISBLANK($E111)),$E111&lt;=K$6,$F111&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K111:BN111">
+    <cfRule type="expression" dxfId="30" priority="54">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K113:BN113">
+    <cfRule type="expression" dxfId="29" priority="51">
+      <formula>AND($E113&lt;=K$6,ROUNDDOWN(($F113-$E113+1)*$H113,0)+$E113-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="52">
+      <formula>AND(NOT(ISBLANK($E113)),$E113&lt;=K$6,$F113&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K113:BN113">
+    <cfRule type="expression" dxfId="27" priority="50">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K112:BN112">
+    <cfRule type="expression" dxfId="26" priority="47">
+      <formula>AND($E112&lt;=K$6,ROUNDDOWN(($F112-$E112+1)*$H112,0)+$E112-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="48">
+      <formula>AND(NOT(ISBLANK($E112)),$E112&lt;=K$6,$F112&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K112:BN112">
+    <cfRule type="expression" dxfId="24" priority="46">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114:BN114">
+    <cfRule type="expression" dxfId="23" priority="43">
+      <formula>AND($E114&lt;=K$6,ROUNDDOWN(($F114-$E114+1)*$H114,0)+$E114-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="44">
+      <formula>AND(NOT(ISBLANK($E114)),$E114&lt;=K$6,$F114&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114:BN114">
+    <cfRule type="expression" dxfId="21" priority="42">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116:BN116">
+    <cfRule type="expression" dxfId="20" priority="39">
+      <formula>AND($E116&lt;=K$6,ROUNDDOWN(($F116-$E116+1)*$H116,0)+$E116-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="40">
+      <formula>AND(NOT(ISBLANK($E116)),$E116&lt;=K$6,$F116&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116:BN116">
+    <cfRule type="expression" dxfId="18" priority="38">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115:BN115">
+    <cfRule type="expression" dxfId="17" priority="35">
+      <formula>AND($E115&lt;=K$6,ROUNDDOWN(($F115-$E115+1)*$H115,0)+$E115-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="36">
+      <formula>AND(NOT(ISBLANK($E115)),$E115&lt;=K$6,$F115&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115:BN115">
+    <cfRule type="expression" dxfId="15" priority="34">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118:BN118">
+    <cfRule type="expression" dxfId="14" priority="31">
+      <formula>AND($E118&lt;=K$6,ROUNDDOWN(($F118-$E118+1)*$H118,0)+$E118-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="32">
+      <formula>AND(NOT(ISBLANK($E118)),$E118&lt;=K$6,$F118&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118:BN118">
+    <cfRule type="expression" dxfId="12" priority="30">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K117:BN117">
+    <cfRule type="expression" dxfId="11" priority="27">
+      <formula>AND($E117&lt;=K$6,ROUNDDOWN(($F117-$E117+1)*$H117,0)+$E117-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="28">
+      <formula>AND(NOT(ISBLANK($E117)),$E117&lt;=K$6,$F117&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K117:BN117">
+    <cfRule type="expression" dxfId="9" priority="26">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:BN120">
+    <cfRule type="expression" dxfId="8" priority="23">
+      <formula>AND($E120&lt;=K$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="24">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=K$6,$F120&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:BN120">
+    <cfRule type="expression" dxfId="6" priority="22">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K119:BN119">
+    <cfRule type="expression" dxfId="5" priority="19">
+      <formula>AND($E119&lt;=K$6,ROUNDDOWN(($F119-$E119+1)*$H119,0)+$E119-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="20">
+      <formula>AND(NOT(ISBLANK($E119)),$E119&lt;=K$6,$F119&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K119:BN119">
+    <cfRule type="expression" dxfId="3" priority="18">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K128:BN128">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>AND($E128&lt;=K$6,ROUNDDOWN(($F128-$E128+1)*$H128,0)+$E128-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(NOT(ISBLANK($E128)),$E128&lt;=K$6,$F128&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19607,26 +19053,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{290F1810-4550-4674-B924-622DF02548EE}</x14:id>
+          <x14:id>{FA280A30-17D8-4EF6-8BB1-2E2B120AAC03}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K97:BN97">
-    <cfRule type="expression" dxfId="74" priority="117">
-      <formula>AND($E97&lt;=K$6,ROUNDDOWN(($F97-$E97+1)*$H97,0)+$E97-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="118">
-      <formula>AND(NOT(ISBLANK($E97)),$E97&lt;=K$6,$F97&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K97:BN97">
-    <cfRule type="expression" dxfId="72" priority="116">
+  <conditionalFormatting sqref="K128:BN128">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="dataBar" priority="109">
+  <conditionalFormatting sqref="H22:H36">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19634,34 +19072,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EF41A063-16EB-4B86-BCE5-1E6AD8926E4F}</x14:id>
+          <x14:id>{137EBAF4-EE16-4337-A6FC-B6C9305D19B6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
-    <cfRule type="expression" dxfId="71" priority="111">
-      <formula>AND($E96&lt;=K$6,ROUNDDOWN(($F96-$E96+1)*$H96,0)+$E96-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="112">
-      <formula>AND(NOT(ISBLANK($E96)),$E96&lt;=K$6,$F96&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
-    <cfRule type="expression" dxfId="69" priority="110">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K98:BN98">
-    <cfRule type="expression" dxfId="68" priority="99">
-      <formula>AND($E98&lt;=K$6,ROUNDDOWN(($F98-$E98+1)*$H98,0)+$E98-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="100">
-      <formula>AND(NOT(ISBLANK($E98)),$E98&lt;=K$6,$F98&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="dataBar" priority="97">
+  <conditionalFormatting sqref="H22:H36">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19669,18 +19086,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F562EC1D-8301-45F7-BA91-07E41F95219A}</x14:id>
+          <x14:id>{F5473C83-BD8D-4C07-8A81-971160A355A5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K98:BN98">
-    <cfRule type="expression" dxfId="66" priority="98">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="dataBar" priority="93">
+  <conditionalFormatting sqref="H40:H93">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19688,26 +19100,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83E2A13A-99E0-4EC3-AC7C-0F6D797CF988}</x14:id>
+          <x14:id>{8EA0DFBD-D2A0-4C81-8028-82548DF4A9D4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN99">
-    <cfRule type="expression" dxfId="65" priority="95">
-      <formula>AND($E99&lt;=K$6,ROUNDDOWN(($F99-$E99+1)*$H99,0)+$E99-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="96">
-      <formula>AND(NOT(ISBLANK($E99)),$E99&lt;=K$6,$F99&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN99">
-    <cfRule type="expression" dxfId="63" priority="94">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H101">
-    <cfRule type="dataBar" priority="89">
+  <conditionalFormatting sqref="H96:H120">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19715,562 +19114,9 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{208504AD-824C-4E03-8566-F505CED61FF6}</x14:id>
+          <x14:id>{CBD3B5C6-8CB5-4C1E-BE22-D62B7651735F}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K101:BN101">
-    <cfRule type="expression" dxfId="62" priority="91">
-      <formula>AND($E101&lt;=K$6,ROUNDDOWN(($F101-$E101+1)*$H101,0)+$E101-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="92">
-      <formula>AND(NOT(ISBLANK($E101)),$E101&lt;=K$6,$F101&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K101:BN101">
-    <cfRule type="expression" dxfId="60" priority="90">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
-    <cfRule type="dataBar" priority="85">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{26C48498-BBE4-4829-83C4-6E2E8FBF06CB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K100:BN100">
-    <cfRule type="expression" dxfId="59" priority="87">
-      <formula>AND($E100&lt;=K$6,ROUNDDOWN(($F100-$E100+1)*$H100,0)+$E100-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="88">
-      <formula>AND(NOT(ISBLANK($E100)),$E100&lt;=K$6,$F100&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K100:BN100">
-    <cfRule type="expression" dxfId="57" priority="86">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
-    <cfRule type="dataBar" priority="81">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C85C1167-97C4-4022-819C-200E20693FC7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K102:BN102">
-    <cfRule type="expression" dxfId="56" priority="83">
-      <formula>AND($E102&lt;=K$6,ROUNDDOWN(($F102-$E102+1)*$H102,0)+$E102-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="84">
-      <formula>AND(NOT(ISBLANK($E102)),$E102&lt;=K$6,$F102&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K102:BN102">
-    <cfRule type="expression" dxfId="54" priority="82">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
-    <cfRule type="dataBar" priority="77">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F7ED94D4-206D-41EB-A2C8-069AE728B8C3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K104:BN104">
-    <cfRule type="expression" dxfId="53" priority="79">
-      <formula>AND($E104&lt;=K$6,ROUNDDOWN(($F104-$E104+1)*$H104,0)+$E104-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="80">
-      <formula>AND(NOT(ISBLANK($E104)),$E104&lt;=K$6,$F104&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K104:BN104">
-    <cfRule type="expression" dxfId="51" priority="78">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="dataBar" priority="73">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D184302F-5636-4F2C-8E6E-ABE8AF5BA837}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K103:BN103">
-    <cfRule type="expression" dxfId="50" priority="75">
-      <formula>AND($E103&lt;=K$6,ROUNDDOWN(($F103-$E103+1)*$H103,0)+$E103-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="76">
-      <formula>AND(NOT(ISBLANK($E103)),$E103&lt;=K$6,$F103&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K103:BN103">
-    <cfRule type="expression" dxfId="48" priority="74">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H106">
-    <cfRule type="dataBar" priority="69">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C748D7A-3561-4C74-B80C-C7AC184913F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K106:BN106">
-    <cfRule type="expression" dxfId="47" priority="71">
-      <formula>AND($E106&lt;=K$6,ROUNDDOWN(($F106-$E106+1)*$H106,0)+$E106-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="72">
-      <formula>AND(NOT(ISBLANK($E106)),$E106&lt;=K$6,$F106&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K106:BN106">
-    <cfRule type="expression" dxfId="45" priority="70">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
-    <cfRule type="dataBar" priority="65">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{10F87F12-0F09-4B3C-96B9-41C96EF14E73}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K105:BN105">
-    <cfRule type="expression" dxfId="44" priority="67">
-      <formula>AND($E105&lt;=K$6,ROUNDDOWN(($F105-$E105+1)*$H105,0)+$E105-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="68">
-      <formula>AND(NOT(ISBLANK($E105)),$E105&lt;=K$6,$F105&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K105:BN105">
-    <cfRule type="expression" dxfId="42" priority="66">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
-    <cfRule type="dataBar" priority="61">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{43FFB772-7CF2-4713-85B2-11825C15DE5E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K108:BN108">
-    <cfRule type="expression" dxfId="41" priority="63">
-      <formula>AND($E108&lt;=K$6,ROUNDDOWN(($F108-$E108+1)*$H108,0)+$E108-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="64">
-      <formula>AND(NOT(ISBLANK($E108)),$E108&lt;=K$6,$F108&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K108:BN108">
-    <cfRule type="expression" dxfId="39" priority="62">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
-    <cfRule type="dataBar" priority="57">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8E450051-08B1-4706-B8B2-A41000052DB3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K107:BN107">
-    <cfRule type="expression" dxfId="38" priority="59">
-      <formula>AND($E107&lt;=K$6,ROUNDDOWN(($F107-$E107+1)*$H107,0)+$E107-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="60">
-      <formula>AND(NOT(ISBLANK($E107)),$E107&lt;=K$6,$F107&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K107:BN107">
-    <cfRule type="expression" dxfId="36" priority="58">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
-    <cfRule type="dataBar" priority="53">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E9181565-AC1C-41B5-A02A-9D6AF65B6FDC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K110:BN110">
-    <cfRule type="expression" dxfId="35" priority="55">
-      <formula>AND($E110&lt;=K$6,ROUNDDOWN(($F110-$E110+1)*$H110,0)+$E110-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="56">
-      <formula>AND(NOT(ISBLANK($E110)),$E110&lt;=K$6,$F110&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K110:BN110">
-    <cfRule type="expression" dxfId="33" priority="54">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
-    <cfRule type="dataBar" priority="49">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EFB4EA47-6807-4148-8F7D-3ACDA6E828CE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K109:BN109">
-    <cfRule type="expression" dxfId="32" priority="51">
-      <formula>AND($E109&lt;=K$6,ROUNDDOWN(($F109-$E109+1)*$H109,0)+$E109-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="52">
-      <formula>AND(NOT(ISBLANK($E109)),$E109&lt;=K$6,$F109&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K109:BN109">
-    <cfRule type="expression" dxfId="30" priority="50">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
-    <cfRule type="dataBar" priority="45">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{74464A96-F9C6-47B7-A197-0E89C9F603F4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K111:BN111">
-    <cfRule type="expression" dxfId="29" priority="47">
-      <formula>AND($E111&lt;=K$6,ROUNDDOWN(($F111-$E111+1)*$H111,0)+$E111-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="48">
-      <formula>AND(NOT(ISBLANK($E111)),$E111&lt;=K$6,$F111&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K111:BN111">
-    <cfRule type="expression" dxfId="27" priority="46">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H113">
-    <cfRule type="dataBar" priority="41">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33E1344B-2CF0-4E0D-884A-C617A3FCE88A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K113:BN113">
-    <cfRule type="expression" dxfId="26" priority="43">
-      <formula>AND($E113&lt;=K$6,ROUNDDOWN(($F113-$E113+1)*$H113,0)+$E113-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="44">
-      <formula>AND(NOT(ISBLANK($E113)),$E113&lt;=K$6,$F113&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K113:BN113">
-    <cfRule type="expression" dxfId="24" priority="42">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
-    <cfRule type="dataBar" priority="37">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA9C7842-C676-40C5-A6AA-EE06770F4534}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K112:BN112">
-    <cfRule type="expression" dxfId="23" priority="39">
-      <formula>AND($E112&lt;=K$6,ROUNDDOWN(($F112-$E112+1)*$H112,0)+$E112-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="40">
-      <formula>AND(NOT(ISBLANK($E112)),$E112&lt;=K$6,$F112&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K112:BN112">
-    <cfRule type="expression" dxfId="21" priority="38">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
-    <cfRule type="dataBar" priority="33">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E0A62187-BD9E-4627-81A2-AAC1EB0D9104}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K114:BN114">
-    <cfRule type="expression" dxfId="20" priority="35">
-      <formula>AND($E114&lt;=K$6,ROUNDDOWN(($F114-$E114+1)*$H114,0)+$E114-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="36">
-      <formula>AND(NOT(ISBLANK($E114)),$E114&lt;=K$6,$F114&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K114:BN114">
-    <cfRule type="expression" dxfId="18" priority="34">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BBD59020-7D51-4E88-AAA6-E3D4300046E5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K116:BN116">
-    <cfRule type="expression" dxfId="17" priority="31">
-      <formula>AND($E116&lt;=K$6,ROUNDDOWN(($F116-$E116+1)*$H116,0)+$E116-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="32">
-      <formula>AND(NOT(ISBLANK($E116)),$E116&lt;=K$6,$F116&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K116:BN116">
-    <cfRule type="expression" dxfId="15" priority="30">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4B914996-067B-45F2-9B94-1630BB6D085A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K115:BN115">
-    <cfRule type="expression" dxfId="14" priority="27">
-      <formula>AND($E115&lt;=K$6,ROUNDDOWN(($F115-$E115+1)*$H115,0)+$E115-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="28">
-      <formula>AND(NOT(ISBLANK($E115)),$E115&lt;=K$6,$F115&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K115:BN115">
-    <cfRule type="expression" dxfId="12" priority="26">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75312759-3920-4AA5-BD52-AC1A8B03D8C5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K118:BN118">
-    <cfRule type="expression" dxfId="11" priority="23">
-      <formula>AND($E118&lt;=K$6,ROUNDDOWN(($F118-$E118+1)*$H118,0)+$E118-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24">
-      <formula>AND(NOT(ISBLANK($E118)),$E118&lt;=K$6,$F118&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K118:BN118">
-    <cfRule type="expression" dxfId="9" priority="22">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A74D481E-453B-4DA6-8521-DD3C28A53428}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K117:BN117">
-    <cfRule type="expression" dxfId="8" priority="19">
-      <formula>AND($E117&lt;=K$6,ROUNDDOWN(($F117-$E117+1)*$H117,0)+$E117-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="20">
-      <formula>AND(NOT(ISBLANK($E117)),$E117&lt;=K$6,$F117&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K117:BN117">
-    <cfRule type="expression" dxfId="6" priority="18">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BBBC3B3E-F1DD-4A3D-8240-F7C2FD3886A5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:BN120">
-    <cfRule type="expression" dxfId="5" priority="15">
-      <formula>AND($E120&lt;=K$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="16">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=K$6,$F120&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:BN120">
-    <cfRule type="expression" dxfId="3" priority="14">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H119">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8FE763BE-B5F2-4CAB-A393-A4A14BEAA751}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K119:BN119">
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>AND($E119&lt;=K$6,ROUNDDOWN(($F119-$E119+1)*$H119,0)+$E119-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
-      <formula>AND(NOT(ISBLANK($E119)),$E119&lt;=K$6,$F119&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K119:BN119">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -20283,7 +19129,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 H13 E21 E37 G21:H21 G37:H38 H27 G48:H48 H39" unlockedFormula="1"/>
+    <ignoredError sqref="E21 E37 G21:H21 G37:H38 G48 H39" unlockedFormula="1"/>
     <ignoredError sqref="A37 A21" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
@@ -20305,8 +19151,8 @@
                   <to>
                     <xdr:col>27</xdr:col>
                     <xdr:colOff>104775</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20332,7 +19178,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H13 H21:H22 H27 H37:H39 H48 H82</xm:sqref>
+          <xm:sqref>H37:H39 H8:H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F1DDE1F8-C329-4FA7-A0C6-16D8FA55590D}">
@@ -20422,7 +19268,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H127:H128</xm:sqref>
+          <xm:sqref>H127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{23256D01-A79F-4CBA-AF9C-5A484B7068DE}">
@@ -20500,546 +19346,6 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0589170-E6B4-4272-8B16-8981957C7F1A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5AFD1A8-411E-4152-BBDB-FD53C7AAD029}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BB6F0D40-27C1-4301-ABF7-C270B8B93571}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9590E07D-09C4-41FB-AE82-2F333877CBA5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0F80C4A2-6499-4705-90B9-4F9FB96A9166}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5B5FD70-01F8-410A-9C8A-29F7A0AD32D3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51C31D9C-4207-4437-A1CD-28BAF5DDF9B8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB74CC2E-8797-447A-947C-83737BFF8003}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39A9EB3B-9100-4755-826A-5212A66B8AE0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H31:H32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{74F5E01E-D499-4E94-9BD8-7DB685D0A5A0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{432DD458-1173-40AF-AEFD-15A1619C7F2A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{577EA9A1-8E58-4054-8D72-5C6E7C0C54D9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{56A16C9D-F539-4515-80C2-CC3C15320647}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H35:H36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0D3F0120-C7B2-407F-8FCC-05255C26AA6D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9187588C-612E-4F0F-AA15-EDEDE9F5E89C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21C7BB13-B7F4-4867-BE3C-FFA558C624BF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DE965C14-180B-4628-B8C1-C4C22D63934E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D88986AD-7108-4CE1-AF26-30B9C4F22868}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DF70E0B2-5F8A-43F0-B6B6-3C0A3B046044}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49724FBC-652D-43E5-83DF-69AFD551F22C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E16D4E89-6819-4476-9448-4A9FDE9A3F7B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC963A7C-9382-4650-A753-179FBFE1B2CB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC90BA19-9E08-4E63-BB12-1E87AA9EBEAF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B0B38C44-588C-4F07-ACCE-FD13B85186F0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A3A85FE0-8C1D-4FEF-8E29-24AF1A31DB07}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FCF653A3-DC9F-42CD-974E-5FF041697554}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{43FD5D01-1EFC-4E8E-99B6-CA30CBF9AE37}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4A57EF11-0020-43AA-9E61-D4B0C8FB439F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{68964454-68F5-452E-89B3-30FDB3C7D50D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5100A44-64DE-4946-81F8-4CCEEE38069A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H67</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1E24187F-2464-4D0F-AE4A-6549F2C70C42}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H66</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{319D0D0C-CE93-49B2-BC19-9C1573621C8E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H65</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C4FA2483-A1E4-4FB7-9753-28A61060304E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BDF758FA-8E59-4F44-BE05-69EB41599CD1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A318E66-F111-4838-B0AB-6A3AA21DF556}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C08B421-0F4D-4AC2-9A0B-60F23C003672}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{041E8950-8260-4783-B173-9B0ADBBEEDF4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -21053,441 +19359,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H129:H130</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BEDFA79C-FF54-4F1F-92E4-2B81B59B6E08}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FB6647C0-745F-4F6B-B997-9CD165A185CC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{69CF50A0-85E3-4EFB-916A-496693ED69FA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{263AD8B7-C955-4F51-8073-BF18771DD4F4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D4BAC94A-029F-4DEB-B1E0-B3D3226253F8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0F476C55-ADC1-4F91-93E9-18D70974A930}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DFB08DC8-03DE-4370-A906-989DAEC6811C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H75</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6FF83976-DC0E-47C4-B376-36F362A171AC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H74</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F98893FD-B8D4-42FD-990D-E40E5F1E4DF0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H73</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C572C4F2-E7E8-46A8-A790-ED0DF1AA6C47}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0C8B993B-1C60-400E-8C8E-C76AB9CC635A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86B7D2A6-A2FE-4208-B895-C95A6DB30BAD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CB182D3E-F08A-4836-AD67-9519293E1D68}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H78</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8B0A3AED-1BFB-453E-B05A-28FB27635DE4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H80</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{56F4C5C7-0810-4558-9979-F78AC59E8BB7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H81:H82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{723CE824-BA73-4DFA-A561-552791EE7430}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H79</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90DDAF7F-BD1A-408A-BA36-6F96CCE131F9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H68</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EC554D8A-CA7D-4124-A2D0-FD5D8FFD6122}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8F971004-5A26-4511-9F99-A75509F49477}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H86</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3E2A9586-803E-4B31-86A7-8F8AB68E3B24}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1E35A8B6-3112-44D9-B18C-141AB2A354BC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H93</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1C4F5011-9388-40F0-9643-C8733ACC00B7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H92</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E0B1F2AE-F516-4A00-BBCB-EDA56100AE16}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H91</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{800E6E81-CD54-4FE1-8AB8-3EB9B5B2677F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8FE08DF8-6717-48F8-8ECA-20DF4E524729}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{798D2225-DF46-4978-B0E5-5E37AF63D4CF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H88</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3FBF7A44-C0BA-4060-9C07-830E745D2F3E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H87</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7AA0AAB8-4611-4145-AF82-ABE7A446324E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CFB41F3-64D4-4B69-AF3C-5A10E300E215}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{31C9E116-32D3-422F-98C6-089661F9166E}">
@@ -21505,7 +19376,7 @@
           <xm:sqref>H95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{290F1810-4550-4674-B924-622DF02548EE}">
+          <x14:cfRule type="dataBar" id="{FA280A30-17D8-4EF6-8BB1-2E2B120AAC03}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21517,10 +19388,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
+          <xm:sqref>H128</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EF41A063-16EB-4B86-BCE5-1E6AD8926E4F}">
+          <x14:cfRule type="dataBar" id="{137EBAF4-EE16-4337-A6FC-B6C9305D19B6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21532,10 +19403,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
+          <xm:sqref>H22:H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F562EC1D-8301-45F7-BA91-07E41F95219A}">
+          <x14:cfRule type="dataBar" id="{F5473C83-BD8D-4C07-8A81-971160A355A5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21547,10 +19418,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
+          <xm:sqref>H22:H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83E2A13A-99E0-4EC3-AC7C-0F6D797CF988}">
+          <x14:cfRule type="dataBar" id="{8EA0DFBD-D2A0-4C81-8028-82548DF4A9D4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21562,10 +19433,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
+          <xm:sqref>H40:H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{208504AD-824C-4E03-8566-F505CED61FF6}">
+          <x14:cfRule type="dataBar" id="{CBD3B5C6-8CB5-4C1E-BE22-D62B7651735F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21577,307 +19448,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H101</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{26C48498-BBE4-4829-83C4-6E2E8FBF06CB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H100</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C85C1167-97C4-4022-819C-200E20693FC7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H102</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F7ED94D4-206D-41EB-A2C8-069AE728B8C3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D184302F-5636-4F2C-8E6E-ABE8AF5BA837}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H103</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C748D7A-3561-4C74-B80C-C7AC184913F3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{10F87F12-0F09-4B3C-96B9-41C96EF14E73}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{43FFB772-7CF2-4713-85B2-11825C15DE5E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8E450051-08B1-4706-B8B2-A41000052DB3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E9181565-AC1C-41B5-A02A-9D6AF65B6FDC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H110</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EFB4EA47-6807-4148-8F7D-3ACDA6E828CE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H109</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{74464A96-F9C6-47B7-A197-0E89C9F603F4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H111</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33E1344B-2CF0-4E0D-884A-C617A3FCE88A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA9C7842-C676-40C5-A6AA-EE06770F4534}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H112</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E0A62187-BD9E-4627-81A2-AAC1EB0D9104}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BBD59020-7D51-4E88-AAA6-E3D4300046E5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4B914996-067B-45F2-9B94-1630BB6D085A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75312759-3920-4AA5-BD52-AC1A8B03D8C5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H118</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A74D481E-453B-4DA6-8521-DD3C28A53428}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BBBC3B3E-F1DD-4A3D-8240-F7C2FD3886A5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H120</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8FE763BE-B5F2-4CAB-A393-A4A14BEAA751}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H119</xm:sqref>
+          <xm:sqref>H96:H120</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Jason Down Gantt Chart.xlsx
+++ b/Jason Down Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Random Stuff\School Stuff\Unitec\HTCS5607\htc5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9631D3B7-8720-4D85-BA31-B0B2AAA26B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C84E26-CA5D-41F4-BF79-9DD071FF5652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="246">
   <si>
     <t>WBS</t>
   </si>
@@ -1512,9 +1512,6 @@
     <t>Planning</t>
   </si>
   <si>
-    <t>Analysis</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
@@ -1846,6 +1843,12 @@
   </si>
   <si>
     <t>Launch Product</t>
+  </si>
+  <si>
+    <t>Initialization</t>
+  </si>
+  <si>
+    <t>Conclude Technical Report</t>
   </si>
 </sst>
 </file>
@@ -3052,13 +3055,6 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3068,10 +3064,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3080,6 +3072,17 @@
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3131,7 +3134,45 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="296">
+  <dxfs count="300">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -5897,7 +5938,7 @@
           <xdr:col>27</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>110987</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6479,8 +6520,8 @@
   <dimension ref="A1:BN130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="7" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6508,29 +6549,29 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="102"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
@@ -6573,11 +6614,11 @@
       <c r="B4" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="141">
         <v>44459</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="83"/>
       <c r="G4" s="86" t="s">
         <v>68</v>
@@ -6587,182 +6628,182 @@
       </c>
       <c r="I4" s="84"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="135" t="str">
+      <c r="K4" s="133" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="135" t="str">
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="133" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="135" t="str">
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="133" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="135" t="str">
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="133" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="137"/>
-      <c r="AM4" s="135" t="str">
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="135"/>
+      <c r="AM4" s="133" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="137"/>
-      <c r="AT4" s="135" t="str">
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="134"/>
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="135"/>
+      <c r="AT4" s="133" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="137"/>
-      <c r="BA4" s="135" t="str">
+      <c r="AU4" s="134"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="135"/>
+      <c r="BA4" s="133" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="136"/>
-      <c r="BG4" s="137"/>
-      <c r="BH4" s="135" t="str">
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="135"/>
+      <c r="BH4" s="133" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="136"/>
-      <c r="BJ4" s="136"/>
-      <c r="BK4" s="136"/>
-      <c r="BL4" s="136"/>
-      <c r="BM4" s="136"/>
-      <c r="BN4" s="137"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="134"/>
+      <c r="BM4" s="134"/>
+      <c r="BN4" s="135"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="82"/>
       <c r="B5" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="85"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="139">
+      <c r="K5" s="136">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="139">
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="136">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="139">
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="136">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="140"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="139">
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="138"/>
+      <c r="AF5" s="136">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="140"/>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="140"/>
-      <c r="AK5" s="140"/>
-      <c r="AL5" s="141"/>
-      <c r="AM5" s="139">
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="138"/>
+      <c r="AM5" s="136">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="140"/>
-      <c r="AO5" s="140"/>
-      <c r="AP5" s="140"/>
-      <c r="AQ5" s="140"/>
-      <c r="AR5" s="140"/>
-      <c r="AS5" s="141"/>
-      <c r="AT5" s="139">
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="138"/>
+      <c r="AT5" s="136">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="140"/>
-      <c r="AV5" s="140"/>
-      <c r="AW5" s="140"/>
-      <c r="AX5" s="140"/>
-      <c r="AY5" s="140"/>
-      <c r="AZ5" s="141"/>
-      <c r="BA5" s="139">
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="138"/>
+      <c r="BA5" s="136">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="140"/>
-      <c r="BC5" s="140"/>
-      <c r="BD5" s="140"/>
-      <c r="BE5" s="140"/>
-      <c r="BF5" s="140"/>
-      <c r="BG5" s="141"/>
-      <c r="BH5" s="139">
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="138"/>
+      <c r="BH5" s="136">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="140"/>
-      <c r="BJ5" s="140"/>
-      <c r="BK5" s="140"/>
-      <c r="BL5" s="140"/>
-      <c r="BM5" s="140"/>
-      <c r="BN5" s="141"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="138"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
@@ -7339,7 +7380,7 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="99"/>
       <c r="E9" s="75">
@@ -7423,7 +7464,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="99"/>
       <c r="E10" s="75">
@@ -7507,7 +7548,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="75">
@@ -7591,7 +7632,7 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="99"/>
       <c r="E12" s="75">
@@ -7675,7 +7716,7 @@
         <v>1.4.1</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="99"/>
       <c r="E13" s="75">
@@ -7759,7 +7800,7 @@
         <v>1.4.2</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="99"/>
       <c r="E14" s="75">
@@ -7843,7 +7884,7 @@
         <v>1.4.3</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="99"/>
       <c r="E15" s="75">
@@ -7927,7 +7968,7 @@
         <v>1.4.4</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="99"/>
       <c r="E16" s="75">
@@ -8011,7 +8052,7 @@
         <v>1.4.5</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="99"/>
       <c r="E17" s="75">
@@ -8095,7 +8136,7 @@
         <v>1.4.6</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" s="99"/>
       <c r="E18" s="75">
@@ -8179,7 +8220,7 @@
         <v>1.4.7</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="99"/>
       <c r="E19" s="75">
@@ -8263,7 +8304,7 @@
         <v>1.4.8</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="99"/>
       <c r="E20" s="75">
@@ -8347,7 +8388,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="77"/>
@@ -8425,7 +8466,7 @@
         <v>2.1</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="99"/>
       <c r="E22" s="75">
@@ -8509,7 +8550,7 @@
         <v>2.1.1</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="99"/>
       <c r="E23" s="75">
@@ -8593,7 +8634,7 @@
         <v>2.1.2</v>
       </c>
       <c r="B24" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="99"/>
       <c r="E24" s="75">
@@ -8677,7 +8718,7 @@
         <v>2.1.3</v>
       </c>
       <c r="B25" s="100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="75">
@@ -8761,7 +8802,7 @@
         <v>2.1.4</v>
       </c>
       <c r="B26" s="100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="99"/>
       <c r="E26" s="75">
@@ -8845,7 +8886,7 @@
         <v>2.2</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="99"/>
       <c r="E27" s="75">
@@ -8929,7 +8970,7 @@
         <v>2.2.1</v>
       </c>
       <c r="B28" s="100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="99"/>
       <c r="E28" s="75">
@@ -9013,7 +9054,7 @@
         <v>2.3</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="99"/>
       <c r="E29" s="75">
@@ -9097,7 +9138,7 @@
         <v>2.3.1</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="75">
@@ -9181,7 +9222,7 @@
         <v>2.3.2</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="99"/>
       <c r="E31" s="75">
@@ -9265,7 +9306,7 @@
         <v>2.3.3</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="99"/>
       <c r="E32" s="75">
@@ -9349,7 +9390,7 @@
         <v>2.4</v>
       </c>
       <c r="B33" s="98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="99"/>
       <c r="E33" s="75">
@@ -9433,7 +9474,7 @@
         <v>2.4.1</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="99"/>
       <c r="E34" s="75">
@@ -9517,7 +9558,7 @@
         <v>2.4.2</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D35" s="99"/>
       <c r="E35" s="75">
@@ -9601,7 +9642,7 @@
         <v>2.4.3</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D36" s="99"/>
       <c r="E36" s="75">
@@ -9685,7 +9726,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="77"/>
@@ -9763,7 +9804,7 @@
         <v>3.1</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="99"/>
       <c r="E38" s="75">
@@ -9847,7 +9888,7 @@
         <v>3.2</v>
       </c>
       <c r="B39" s="98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="99"/>
       <c r="E39" s="75">
@@ -9931,7 +9972,7 @@
         <v>3.2.1</v>
       </c>
       <c r="B40" s="100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="99"/>
       <c r="E40" s="75">
@@ -10015,7 +10056,7 @@
         <v>3.2.2</v>
       </c>
       <c r="B41" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="99"/>
       <c r="E41" s="75">
@@ -10099,7 +10140,7 @@
         <v>3.2.3</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="99"/>
       <c r="E42" s="75">
@@ -10183,7 +10224,7 @@
         <v>3.2.4</v>
       </c>
       <c r="B43" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="99"/>
       <c r="E43" s="75">
@@ -10267,7 +10308,7 @@
         <v>3.2.5</v>
       </c>
       <c r="B44" s="100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D44" s="99"/>
       <c r="E44" s="75">
@@ -10351,7 +10392,7 @@
         <v>3.2.6</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="99"/>
       <c r="E45" s="75">
@@ -10435,7 +10476,7 @@
         <v>3.2.7</v>
       </c>
       <c r="B46" s="100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="99"/>
       <c r="E46" s="75">
@@ -10519,7 +10560,7 @@
         <v>3.2.8</v>
       </c>
       <c r="B47" s="100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="99"/>
       <c r="E47" s="75">
@@ -10603,7 +10644,7 @@
         <v>3.3</v>
       </c>
       <c r="B48" s="98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D48" s="99"/>
       <c r="E48" s="75">
@@ -10687,7 +10728,7 @@
         <v>3.3.1</v>
       </c>
       <c r="B49" s="100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" s="99"/>
       <c r="E49" s="75">
@@ -10771,7 +10812,7 @@
         <v>3.3.2</v>
       </c>
       <c r="B50" s="100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="99"/>
       <c r="E50" s="75">
@@ -10855,7 +10896,7 @@
         <v>3.3.3</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" s="99"/>
       <c r="E51" s="75">
@@ -10939,7 +10980,7 @@
         <v>3.3.4</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D52" s="99"/>
       <c r="E52" s="75">
@@ -11023,7 +11064,7 @@
         <v>3.3.5</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D53" s="99"/>
       <c r="E53" s="75">
@@ -11107,7 +11148,7 @@
         <v>3.3.6</v>
       </c>
       <c r="B54" s="100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" s="99"/>
       <c r="E54" s="75">
@@ -11191,7 +11232,7 @@
         <v>3.3.7</v>
       </c>
       <c r="B55" s="100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D55" s="99"/>
       <c r="E55" s="75">
@@ -11275,7 +11316,7 @@
         <v>3.3.8</v>
       </c>
       <c r="B56" s="100" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" s="99"/>
       <c r="E56" s="75">
@@ -11359,7 +11400,7 @@
         <v>3.3.9</v>
       </c>
       <c r="B57" s="100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="99"/>
       <c r="E57" s="75">
@@ -11443,7 +11484,7 @@
         <v>3.4</v>
       </c>
       <c r="B58" s="98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="99"/>
       <c r="E58" s="75">
@@ -11527,7 +11568,7 @@
         <v>3.4.1</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="99"/>
       <c r="E59" s="75">
@@ -11611,7 +11652,7 @@
         <v>3.4.2</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="99"/>
       <c r="E60" s="75">
@@ -11695,7 +11736,7 @@
         <v>3.4.3</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="99"/>
       <c r="E61" s="75">
@@ -11779,7 +11820,7 @@
         <v>3.4.4</v>
       </c>
       <c r="B62" s="100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="99"/>
       <c r="E62" s="75">
@@ -11863,7 +11904,7 @@
         <v>3.4.5</v>
       </c>
       <c r="B63" s="100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="99"/>
       <c r="E63" s="75">
@@ -11947,7 +11988,7 @@
         <v>3.4.6</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="99"/>
       <c r="E64" s="75">
@@ -12031,7 +12072,7 @@
         <v>3.4.7</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="99"/>
       <c r="E65" s="75">
@@ -12115,7 +12156,7 @@
         <v>3.4.8</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="99"/>
       <c r="E66" s="75">
@@ -12199,7 +12240,7 @@
         <v>3.4.9</v>
       </c>
       <c r="B67" s="100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="99"/>
       <c r="E67" s="75">
@@ -12283,7 +12324,7 @@
         <v>3.5</v>
       </c>
       <c r="B68" s="98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" s="99"/>
       <c r="E68" s="75">
@@ -12367,7 +12408,7 @@
         <v>3.5.1</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="99"/>
       <c r="E69" s="75">
@@ -12451,7 +12492,7 @@
         <v>3.5.2</v>
       </c>
       <c r="B70" s="100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D70" s="99"/>
       <c r="E70" s="75">
@@ -12535,7 +12576,7 @@
         <v>3.5.3</v>
       </c>
       <c r="B71" s="100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="99"/>
       <c r="E71" s="75">
@@ -12619,7 +12660,7 @@
         <v>3.5.4</v>
       </c>
       <c r="B72" s="100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D72" s="99"/>
       <c r="E72" s="75">
@@ -12703,7 +12744,7 @@
         <v>3.5.5</v>
       </c>
       <c r="B73" s="100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D73" s="99"/>
       <c r="E73" s="75">
@@ -12787,7 +12828,7 @@
         <v>3.5.6</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D74" s="99"/>
       <c r="E74" s="75">
@@ -12871,7 +12912,7 @@
         <v>3.5.7</v>
       </c>
       <c r="B75" s="100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D75" s="99"/>
       <c r="E75" s="75">
@@ -12955,7 +12996,7 @@
         <v>3.5.8</v>
       </c>
       <c r="B76" s="100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D76" s="99"/>
       <c r="E76" s="75">
@@ -13039,7 +13080,7 @@
         <v>3.5.9</v>
       </c>
       <c r="B77" s="100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D77" s="99"/>
       <c r="E77" s="75">
@@ -13123,7 +13164,7 @@
         <v>3.6</v>
       </c>
       <c r="B78" s="98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D78" s="99"/>
       <c r="E78" s="75">
@@ -13207,7 +13248,7 @@
         <v>3.6.1</v>
       </c>
       <c r="B79" s="100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D79" s="99"/>
       <c r="E79" s="75">
@@ -13291,7 +13332,7 @@
         <v>3.6.2</v>
       </c>
       <c r="B80" s="100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D80" s="99"/>
       <c r="E80" s="75">
@@ -13371,19 +13412,19 @@
     </row>
     <row r="81" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.6.3</v>
-      </c>
-      <c r="B81" s="100" t="s">
-        <v>202</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.7</v>
+      </c>
+      <c r="B81" s="98" t="s">
+        <v>201</v>
       </c>
       <c r="D81" s="99"/>
       <c r="E81" s="75">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="F81" s="76">
-        <f t="shared" si="40"/>
-        <v>44488</v>
+        <f>IF(ISBLANK(E81)," - ",IF(G81=0,E81,E81+G81-1))</f>
+        <v>44489</v>
       </c>
       <c r="G81" s="58">
         <v>1</v>
@@ -13392,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="60">
-        <f t="shared" si="41"/>
+        <f>IF(OR(F81=0,E81=0)," - ",NETWORKDAYS(E81,F81))</f>
         <v>1</v>
       </c>
       <c r="J81" s="73"/>
@@ -13456,10 +13497,10 @@
     <row r="82" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A82" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="B82" s="98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D82" s="99"/>
       <c r="E82" s="75">
@@ -13540,10 +13581,10 @@
     <row r="83" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="B83" s="98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D83" s="99"/>
       <c r="E83" s="75">
@@ -13624,10 +13665,10 @@
     <row r="84" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="str">
         <f t="shared" ref="A84:A93" si="44">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.8.1</v>
+        <v>3.9.1</v>
       </c>
       <c r="B84" s="100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D84" s="99"/>
       <c r="E84" s="75">
@@ -13708,10 +13749,10 @@
     <row r="85" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="str">
         <f t="shared" si="44"/>
-        <v>3.8.2</v>
+        <v>3.9.2</v>
       </c>
       <c r="B85" s="100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D85" s="99"/>
       <c r="E85" s="75">
@@ -13792,10 +13833,10 @@
     <row r="86" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="str">
         <f t="shared" si="44"/>
-        <v>3.8.3</v>
+        <v>3.9.3</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D86" s="99"/>
       <c r="E86" s="75">
@@ -13876,10 +13917,10 @@
     <row r="87" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A87" s="56" t="str">
         <f t="shared" si="44"/>
-        <v>3.8.4</v>
+        <v>3.9.4</v>
       </c>
       <c r="B87" s="100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" s="99"/>
       <c r="E87" s="75">
@@ -13960,10 +14001,10 @@
     <row r="88" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A88" s="56" t="str">
         <f t="shared" si="44"/>
-        <v>3.8.5</v>
+        <v>3.9.5</v>
       </c>
       <c r="B88" s="100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D88" s="99"/>
       <c r="E88" s="75">
@@ -14044,10 +14085,10 @@
     <row r="89" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="str">
         <f t="shared" si="44"/>
-        <v>3.8.6</v>
+        <v>3.9.6</v>
       </c>
       <c r="B89" s="100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D89" s="99"/>
       <c r="E89" s="75">
@@ -14128,10 +14169,10 @@
     <row r="90" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="str">
         <f t="shared" si="44"/>
-        <v>3.8.7</v>
+        <v>3.9.7</v>
       </c>
       <c r="B90" s="100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90" s="99"/>
       <c r="E90" s="75">
@@ -14212,10 +14253,10 @@
     <row r="91" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A91" s="56" t="str">
         <f t="shared" si="44"/>
-        <v>3.8.8</v>
+        <v>3.9.8</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91" s="99"/>
       <c r="E91" s="75">
@@ -14296,10 +14337,10 @@
     <row r="92" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A92" s="56" t="str">
         <f t="shared" si="44"/>
-        <v>3.8.9</v>
+        <v>3.9.9</v>
       </c>
       <c r="B92" s="100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D92" s="99"/>
       <c r="E92" s="75">
@@ -14380,10 +14421,10 @@
     <row r="93" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="str">
         <f t="shared" si="44"/>
-        <v>3.8.10</v>
+        <v>3.9.10</v>
       </c>
       <c r="B93" s="100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D93" s="99"/>
       <c r="E93" s="75">
@@ -14467,7 +14508,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D94" s="52"/>
       <c r="E94" s="77"/>
@@ -14545,7 +14586,7 @@
         <v>4.1</v>
       </c>
       <c r="B95" s="98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D95" s="99"/>
       <c r="E95" s="75">
@@ -14629,7 +14670,7 @@
         <v>4.1.1</v>
       </c>
       <c r="B96" s="100" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D96" s="99"/>
       <c r="E96" s="75">
@@ -14713,7 +14754,7 @@
         <v>4.1.2</v>
       </c>
       <c r="B97" s="100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D97" s="99"/>
       <c r="E97" s="75">
@@ -14797,7 +14838,7 @@
         <v>4.2</v>
       </c>
       <c r="B98" s="98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D98" s="99"/>
       <c r="E98" s="75">
@@ -14881,7 +14922,7 @@
         <v>4.3</v>
       </c>
       <c r="B99" s="98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D99" s="99"/>
       <c r="E99" s="75">
@@ -14965,7 +15006,7 @@
         <v>4.3.1</v>
       </c>
       <c r="B100" s="100" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D100" s="99"/>
       <c r="E100" s="75">
@@ -15049,7 +15090,7 @@
         <v>4.3.2</v>
       </c>
       <c r="B101" s="100" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D101" s="99"/>
       <c r="E101" s="75">
@@ -15133,7 +15174,7 @@
         <v>4.4</v>
       </c>
       <c r="B102" s="98" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D102" s="99"/>
       <c r="E102" s="75">
@@ -15217,7 +15258,7 @@
         <v>4.4.1</v>
       </c>
       <c r="B103" s="100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D103" s="99"/>
       <c r="E103" s="75">
@@ -15301,7 +15342,7 @@
         <v>4.4.2</v>
       </c>
       <c r="B104" s="100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D104" s="99"/>
       <c r="E104" s="75">
@@ -15385,7 +15426,7 @@
         <v>4.4.3</v>
       </c>
       <c r="B105" s="100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D105" s="99"/>
       <c r="E105" s="75">
@@ -15469,7 +15510,7 @@
         <v>4.4.4</v>
       </c>
       <c r="B106" s="100" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D106" s="99"/>
       <c r="E106" s="75">
@@ -15553,7 +15594,7 @@
         <v>4.4.5</v>
       </c>
       <c r="B107" s="100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D107" s="99"/>
       <c r="E107" s="75">
@@ -15637,7 +15678,7 @@
         <v>4.4.6</v>
       </c>
       <c r="B108" s="100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D108" s="99"/>
       <c r="E108" s="75">
@@ -15721,7 +15762,7 @@
         <v>4.4.7</v>
       </c>
       <c r="B109" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D109" s="99"/>
       <c r="E109" s="75">
@@ -15805,7 +15846,7 @@
         <v>4.4.8</v>
       </c>
       <c r="B110" s="100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D110" s="99"/>
       <c r="E110" s="75">
@@ -15889,7 +15930,7 @@
         <v>4.5</v>
       </c>
       <c r="B111" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D111" s="99"/>
       <c r="E111" s="75">
@@ -15973,7 +16014,7 @@
         <v>4.5.1</v>
       </c>
       <c r="B112" s="100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D112" s="99"/>
       <c r="E112" s="75">
@@ -16057,7 +16098,7 @@
         <v>4.5.2</v>
       </c>
       <c r="B113" s="100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D113" s="99"/>
       <c r="E113" s="75">
@@ -16141,7 +16182,7 @@
         <v>4.6</v>
       </c>
       <c r="B114" s="98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D114" s="99"/>
       <c r="E114" s="75">
@@ -16225,7 +16266,7 @@
         <v>4.6.1</v>
       </c>
       <c r="B115" s="100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D115" s="99"/>
       <c r="E115" s="75">
@@ -16309,7 +16350,7 @@
         <v>4.6.2</v>
       </c>
       <c r="B116" s="100" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D116" s="99"/>
       <c r="E116" s="75">
@@ -16393,7 +16434,7 @@
         <v>4.6.3</v>
       </c>
       <c r="B117" s="100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D117" s="99"/>
       <c r="E117" s="75">
@@ -16477,7 +16518,7 @@
         <v>4.6.4</v>
       </c>
       <c r="B118" s="100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D118" s="99"/>
       <c r="E118" s="75">
@@ -16561,7 +16602,7 @@
         <v>4.6.5</v>
       </c>
       <c r="B119" s="100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D119" s="99"/>
       <c r="E119" s="75">
@@ -16645,7 +16686,7 @@
         <v>4.6.6</v>
       </c>
       <c r="B120" s="100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D120" s="99"/>
       <c r="E120" s="75">
@@ -16729,7 +16770,7 @@
         <v>5</v>
       </c>
       <c r="B121" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D121" s="52"/>
       <c r="E121" s="77"/>
@@ -16807,7 +16848,7 @@
         <v>5.1</v>
       </c>
       <c r="B122" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D122" s="99"/>
       <c r="E122" s="75">
@@ -16891,7 +16932,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D123" s="52"/>
       <c r="E123" s="77"/>
@@ -16969,7 +17010,7 @@
         <v>6.1</v>
       </c>
       <c r="B124" s="98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D124" s="99"/>
       <c r="E124" s="75">
@@ -17053,7 +17094,7 @@
         <v>6.2</v>
       </c>
       <c r="B125" s="98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D125" s="99"/>
       <c r="E125" s="75">
@@ -17137,7 +17178,7 @@
         <v>6.3</v>
       </c>
       <c r="B126" s="98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D126" s="99"/>
       <c r="E126" s="75">
@@ -17221,7 +17262,7 @@
         <v>7</v>
       </c>
       <c r="B127" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D127" s="52"/>
       <c r="E127" s="77"/>
@@ -17293,13 +17334,13 @@
       <c r="BM127" s="81"/>
       <c r="BN127" s="81"/>
     </row>
-    <row r="128" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A128" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>7.1</v>
       </c>
       <c r="B128" s="98" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D128" s="99"/>
       <c r="E128" s="75">
@@ -17383,7 +17424,7 @@
         <v>8</v>
       </c>
       <c r="B129" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D129" s="52"/>
       <c r="E129" s="77"/>
@@ -17461,7 +17502,7 @@
         <v>8.1</v>
       </c>
       <c r="B130" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D130" s="99"/>
       <c r="E130" s="75">
@@ -17542,6 +17583,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -17552,19 +17602,10 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H37:H39 H8:H21">
-    <cfRule type="dataBar" priority="500">
+    <cfRule type="dataBar" priority="505">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17578,25 +17619,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="295" priority="543">
+    <cfRule type="expression" dxfId="299" priority="548">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN13 K21:BN22 K27:BN27 K31:BN32 K37:BN39 K48:BN48 K81:BN83 K94:BN94 K121:BN127 K129:BN130">
-    <cfRule type="expression" dxfId="294" priority="546">
+  <conditionalFormatting sqref="K8:BN13 K21:BN22 K27:BN27 K31:BN32 K37:BN39 K48:BN48 K82:BN83 K94:BN94 K121:BN127 K129:BN130">
+    <cfRule type="expression" dxfId="298" priority="551">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="547">
+    <cfRule type="expression" dxfId="297" priority="552">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN13 K21:BN22 K27:BN27 K37:BN39 K48:BN48 K82:BN82">
-    <cfRule type="expression" dxfId="292" priority="506">
+    <cfRule type="expression" dxfId="296" priority="511">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="467">
+    <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17610,7 +17651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="463">
+    <cfRule type="dataBar" priority="468">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17624,7 +17665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="dataBar" priority="495">
+    <cfRule type="dataBar" priority="500">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17638,12 +17679,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94:BN94">
-    <cfRule type="expression" dxfId="291" priority="496">
+    <cfRule type="expression" dxfId="295" priority="501">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H122">
-    <cfRule type="dataBar" priority="491">
+    <cfRule type="dataBar" priority="496">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17657,12 +17698,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121:BN122">
-    <cfRule type="expression" dxfId="290" priority="492">
+    <cfRule type="expression" dxfId="294" priority="497">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123:H126">
-    <cfRule type="dataBar" priority="487">
+    <cfRule type="dataBar" priority="492">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17676,12 +17717,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123:BN126">
-    <cfRule type="expression" dxfId="289" priority="488">
+    <cfRule type="expression" dxfId="293" priority="493">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127">
-    <cfRule type="dataBar" priority="483">
+    <cfRule type="dataBar" priority="488">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17695,12 +17736,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127:BN127">
-    <cfRule type="expression" dxfId="288" priority="484">
+    <cfRule type="expression" dxfId="292" priority="489">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="459">
+    <cfRule type="dataBar" priority="464">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17714,20 +17755,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="287" priority="469">
+    <cfRule type="expression" dxfId="291" priority="474">
       <formula>AND($E20&lt;=K$6,ROUNDDOWN(($F20-$E20+1)*$H20,0)+$E20-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="470">
+    <cfRule type="expression" dxfId="290" priority="475">
       <formula>AND(NOT(ISBLANK($E20)),$E20&lt;=K$6,$F20&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="285" priority="468">
+    <cfRule type="expression" dxfId="289" priority="473">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="455">
+    <cfRule type="dataBar" priority="460">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17741,20 +17782,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="284" priority="465">
+    <cfRule type="expression" dxfId="288" priority="470">
       <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="466">
+    <cfRule type="expression" dxfId="287" priority="471">
       <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="282" priority="464">
+    <cfRule type="expression" dxfId="286" priority="469">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="451">
+    <cfRule type="dataBar" priority="456">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17768,20 +17809,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="281" priority="461">
+    <cfRule type="expression" dxfId="285" priority="466">
       <formula>AND($E18&lt;=K$6,ROUNDDOWN(($F18-$E18+1)*$H18,0)+$E18-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="462">
+    <cfRule type="expression" dxfId="284" priority="467">
       <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$6,$F18&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="279" priority="460">
+    <cfRule type="expression" dxfId="283" priority="465">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="447">
+    <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17795,20 +17836,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="278" priority="457">
+    <cfRule type="expression" dxfId="282" priority="462">
       <formula>AND($E17&lt;=K$6,ROUNDDOWN(($F17-$E17+1)*$H17,0)+$E17-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="458">
+    <cfRule type="expression" dxfId="281" priority="463">
       <formula>AND(NOT(ISBLANK($E17)),$E17&lt;=K$6,$F17&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="276" priority="456">
+    <cfRule type="expression" dxfId="280" priority="461">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="443">
+    <cfRule type="dataBar" priority="448">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17822,490 +17863,490 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="275" priority="453">
+    <cfRule type="expression" dxfId="279" priority="458">
       <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="454">
+    <cfRule type="expression" dxfId="278" priority="459">
       <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="273" priority="452">
+    <cfRule type="expression" dxfId="277" priority="457">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="272" priority="449">
+    <cfRule type="expression" dxfId="276" priority="454">
       <formula>AND($E15&lt;=K$6,ROUNDDOWN(($F15-$E15+1)*$H15,0)+$E15-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="450">
+    <cfRule type="expression" dxfId="275" priority="455">
       <formula>AND(NOT(ISBLANK($E15)),$E15&lt;=K$6,$F15&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="270" priority="448">
+    <cfRule type="expression" dxfId="274" priority="453">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="269" priority="445">
+    <cfRule type="expression" dxfId="273" priority="450">
       <formula>AND($E14&lt;=K$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="446">
+    <cfRule type="expression" dxfId="272" priority="451">
       <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$6,$F14&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="267" priority="444">
+    <cfRule type="expression" dxfId="271" priority="449">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="266" priority="441">
+    <cfRule type="expression" dxfId="270" priority="446">
       <formula>AND($E23&lt;=K$6,ROUNDDOWN(($F23-$E23+1)*$H23,0)+$E23-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="442">
+    <cfRule type="expression" dxfId="269" priority="447">
       <formula>AND(NOT(ISBLANK($E23)),$E23&lt;=K$6,$F23&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="264" priority="440">
+    <cfRule type="expression" dxfId="268" priority="445">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="263" priority="437">
+    <cfRule type="expression" dxfId="267" priority="442">
       <formula>AND($E26&lt;=K$6,ROUNDDOWN(($F26-$E26+1)*$H26,0)+$E26-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="438">
+    <cfRule type="expression" dxfId="266" priority="443">
       <formula>AND(NOT(ISBLANK($E26)),$E26&lt;=K$6,$F26&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="261" priority="436">
+    <cfRule type="expression" dxfId="265" priority="441">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="260" priority="433">
+    <cfRule type="expression" dxfId="264" priority="438">
       <formula>AND($E25&lt;=K$6,ROUNDDOWN(($F25-$E25+1)*$H25,0)+$E25-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="434">
+    <cfRule type="expression" dxfId="263" priority="439">
       <formula>AND(NOT(ISBLANK($E25)),$E25&lt;=K$6,$F25&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="258" priority="432">
+    <cfRule type="expression" dxfId="262" priority="437">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="257" priority="429">
+    <cfRule type="expression" dxfId="261" priority="434">
       <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="430">
+    <cfRule type="expression" dxfId="260" priority="435">
       <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="255" priority="428">
+    <cfRule type="expression" dxfId="259" priority="433">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="254" priority="425">
+    <cfRule type="expression" dxfId="258" priority="430">
       <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="426">
+    <cfRule type="expression" dxfId="257" priority="431">
       <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="252" priority="424">
+    <cfRule type="expression" dxfId="256" priority="429">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="251" priority="421">
+    <cfRule type="expression" dxfId="255" priority="426">
       <formula>AND($E29&lt;=K$6,ROUNDDOWN(($F29-$E29+1)*$H29,0)+$E29-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="422">
+    <cfRule type="expression" dxfId="254" priority="427">
       <formula>AND(NOT(ISBLANK($E29)),$E29&lt;=K$6,$F29&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="249" priority="420">
+    <cfRule type="expression" dxfId="253" priority="425">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="248" priority="417">
+    <cfRule type="expression" dxfId="252" priority="422">
       <formula>AND($E30&lt;=K$6,ROUNDDOWN(($F30-$E30+1)*$H30,0)+$E30-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="418">
+    <cfRule type="expression" dxfId="251" priority="423">
       <formula>AND(NOT(ISBLANK($E30)),$E30&lt;=K$6,$F30&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="246" priority="416">
+    <cfRule type="expression" dxfId="250" priority="421">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="245" priority="408">
+    <cfRule type="expression" dxfId="249" priority="413">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN32">
-    <cfRule type="expression" dxfId="244" priority="404">
+    <cfRule type="expression" dxfId="248" priority="409">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN36">
-    <cfRule type="expression" dxfId="243" priority="401">
+    <cfRule type="expression" dxfId="247" priority="406">
       <formula>AND($E35&lt;=K$6,ROUNDDOWN(($F35-$E35+1)*$H35,0)+$E35-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="402">
+    <cfRule type="expression" dxfId="246" priority="407">
       <formula>AND(NOT(ISBLANK($E35)),$E35&lt;=K$6,$F35&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="241" priority="399">
+    <cfRule type="expression" dxfId="245" priority="404">
       <formula>AND($E33&lt;=K$6,ROUNDDOWN(($F33-$E33+1)*$H33,0)+$E33-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="400">
+    <cfRule type="expression" dxfId="244" priority="405">
       <formula>AND(NOT(ISBLANK($E33)),$E33&lt;=K$6,$F33&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="239" priority="398">
+    <cfRule type="expression" dxfId="243" priority="403">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="242" priority="400">
+      <formula>AND($E34&lt;=K$6,ROUNDDOWN(($F34-$E34+1)*$H34,0)+$E34-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="401">
+      <formula>AND(NOT(ISBLANK($E34)),$E34&lt;=K$6,$F34&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="240" priority="399">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="239" priority="397">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:BN36">
     <cfRule type="expression" dxfId="238" priority="395">
-      <formula>AND($E34&lt;=K$6,ROUNDDOWN(($F34-$E34+1)*$H34,0)+$E34-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="396">
-      <formula>AND(NOT(ISBLANK($E34)),$E34&lt;=K$6,$F34&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="236" priority="394">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="235" priority="392">
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="237" priority="360">
+      <formula>AND($E40&lt;=K$6,ROUNDDOWN(($F40-$E40+1)*$H40,0)+$E40-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="361">
+      <formula>AND(NOT(ISBLANK($E40)),$E40&lt;=K$6,$F40&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="235" priority="359">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BN36">
-    <cfRule type="expression" dxfId="234" priority="390">
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="234" priority="356">
+      <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="357">
+      <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="232" priority="355">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="233" priority="355">
-      <formula>AND($E40&lt;=K$6,ROUNDDOWN(($F40-$E40+1)*$H40,0)+$E40-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="356">
-      <formula>AND(NOT(ISBLANK($E40)),$E40&lt;=K$6,$F40&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="231" priority="354">
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="231" priority="352">
+      <formula>AND($E46&lt;=K$6,ROUNDDOWN(($F46-$E46+1)*$H46,0)+$E46-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="353">
+      <formula>AND(NOT(ISBLANK($E46)),$E46&lt;=K$6,$F46&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="229" priority="351">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="230" priority="351">
-      <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="352">
-      <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="228" priority="350">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="228" priority="348">
+      <formula>AND($E45&lt;=K$6,ROUNDDOWN(($F45-$E45+1)*$H45,0)+$E45-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="349">
+      <formula>AND(NOT(ISBLANK($E45)),$E45&lt;=K$6,$F45&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="226" priority="347">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="227" priority="347">
-      <formula>AND($E46&lt;=K$6,ROUNDDOWN(($F46-$E46+1)*$H46,0)+$E46-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="348">
-      <formula>AND(NOT(ISBLANK($E46)),$E46&lt;=K$6,$F46&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="225" priority="346">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="225" priority="344">
+      <formula>AND($E44&lt;=K$6,ROUNDDOWN(($F44-$E44+1)*$H44,0)+$E44-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="345">
+      <formula>AND(NOT(ISBLANK($E44)),$E44&lt;=K$6,$F44&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="223" priority="343">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="224" priority="343">
-      <formula>AND($E45&lt;=K$6,ROUNDDOWN(($F45-$E45+1)*$H45,0)+$E45-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="344">
-      <formula>AND(NOT(ISBLANK($E45)),$E45&lt;=K$6,$F45&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="222" priority="342">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="222" priority="340">
+      <formula>AND($E43&lt;=K$6,ROUNDDOWN(($F43-$E43+1)*$H43,0)+$E43-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="341">
+      <formula>AND(NOT(ISBLANK($E43)),$E43&lt;=K$6,$F43&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="220" priority="339">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="221" priority="339">
-      <formula>AND($E44&lt;=K$6,ROUNDDOWN(($F44-$E44+1)*$H44,0)+$E44-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="340">
-      <formula>AND(NOT(ISBLANK($E44)),$E44&lt;=K$6,$F44&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="219" priority="338">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="219" priority="336">
+      <formula>AND($E42&lt;=K$6,ROUNDDOWN(($F42-$E42+1)*$H42,0)+$E42-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="337">
+      <formula>AND(NOT(ISBLANK($E42)),$E42&lt;=K$6,$F42&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="217" priority="335">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="218" priority="335">
-      <formula>AND($E43&lt;=K$6,ROUNDDOWN(($F43-$E43+1)*$H43,0)+$E43-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="336">
-      <formula>AND(NOT(ISBLANK($E43)),$E43&lt;=K$6,$F43&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="216" priority="334">
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="216" priority="332">
+      <formula>AND($E41&lt;=K$6,ROUNDDOWN(($F41-$E41+1)*$H41,0)+$E41-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="333">
+      <formula>AND(NOT(ISBLANK($E41)),$E41&lt;=K$6,$F41&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="214" priority="331">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="215" priority="331">
-      <formula>AND($E42&lt;=K$6,ROUNDDOWN(($F42-$E42+1)*$H42,0)+$E42-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="332">
-      <formula>AND(NOT(ISBLANK($E42)),$E42&lt;=K$6,$F42&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="213" priority="330">
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="213" priority="328">
+      <formula>AND($E50&lt;=K$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="329">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=K$6,$F50&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="211" priority="327">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="212" priority="327">
-      <formula>AND($E41&lt;=K$6,ROUNDDOWN(($F41-$E41+1)*$H41,0)+$E41-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="328">
-      <formula>AND(NOT(ISBLANK($E41)),$E41&lt;=K$6,$F41&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="210" priority="326">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="210" priority="324">
+      <formula>AND($E57&lt;=K$6,ROUNDDOWN(($F57-$E57+1)*$H57,0)+$E57-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="325">
+      <formula>AND(NOT(ISBLANK($E57)),$E57&lt;=K$6,$F57&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="208" priority="323">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="209" priority="323">
-      <formula>AND($E50&lt;=K$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="324">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=K$6,$F50&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="207" priority="322">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="207" priority="320">
+      <formula>AND($E56&lt;=K$6,ROUNDDOWN(($F56-$E56+1)*$H56,0)+$E56-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="321">
+      <formula>AND(NOT(ISBLANK($E56)),$E56&lt;=K$6,$F56&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="205" priority="319">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="206" priority="319">
-      <formula>AND($E57&lt;=K$6,ROUNDDOWN(($F57-$E57+1)*$H57,0)+$E57-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="320">
-      <formula>AND(NOT(ISBLANK($E57)),$E57&lt;=K$6,$F57&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="204" priority="318">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="204" priority="316">
+      <formula>AND($E55&lt;=K$6,ROUNDDOWN(($F55-$E55+1)*$H55,0)+$E55-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="317">
+      <formula>AND(NOT(ISBLANK($E55)),$E55&lt;=K$6,$F55&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="202" priority="315">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="203" priority="315">
-      <formula>AND($E56&lt;=K$6,ROUNDDOWN(($F56-$E56+1)*$H56,0)+$E56-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="316">
-      <formula>AND(NOT(ISBLANK($E56)),$E56&lt;=K$6,$F56&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="201" priority="314">
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="201" priority="312">
+      <formula>AND($E54&lt;=K$6,ROUNDDOWN(($F54-$E54+1)*$H54,0)+$E54-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="313">
+      <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=K$6,$F54&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="199" priority="311">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="200" priority="311">
-      <formula>AND($E55&lt;=K$6,ROUNDDOWN(($F55-$E55+1)*$H55,0)+$E55-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="312">
-      <formula>AND(NOT(ISBLANK($E55)),$E55&lt;=K$6,$F55&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="198" priority="310">
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="198" priority="308">
+      <formula>AND($E53&lt;=K$6,ROUNDDOWN(($F53-$E53+1)*$H53,0)+$E53-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="309">
+      <formula>AND(NOT(ISBLANK($E53)),$E53&lt;=K$6,$F53&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="196" priority="307">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="197" priority="307">
-      <formula>AND($E54&lt;=K$6,ROUNDDOWN(($F54-$E54+1)*$H54,0)+$E54-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="308">
-      <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=K$6,$F54&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="195" priority="306">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="195" priority="304">
+      <formula>AND($E52&lt;=K$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="305">
+      <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=K$6,$F52&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="193" priority="303">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="194" priority="303">
-      <formula>AND($E53&lt;=K$6,ROUNDDOWN(($F53-$E53+1)*$H53,0)+$E53-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="304">
-      <formula>AND(NOT(ISBLANK($E53)),$E53&lt;=K$6,$F53&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="192" priority="302">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="192" priority="300">
+      <formula>AND($E51&lt;=K$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="301">
+      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=K$6,$F51&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="190" priority="299">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="191" priority="299">
-      <formula>AND($E52&lt;=K$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="300">
-      <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=K$6,$F52&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="189" priority="298">
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="189" priority="280">
+      <formula>AND($E67&lt;=K$6,ROUNDDOWN(($F67-$E67+1)*$H67,0)+$E67-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="281">
+      <formula>AND(NOT(ISBLANK($E67)),$E67&lt;=K$6,$F67&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="187" priority="279">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="188" priority="295">
-      <formula>AND($E51&lt;=K$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="296">
-      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=K$6,$F51&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="186" priority="294">
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="186" priority="276">
+      <formula>AND($E66&lt;=K$6,ROUNDDOWN(($F66-$E66+1)*$H66,0)+$E66-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="277">
+      <formula>AND(NOT(ISBLANK($E66)),$E66&lt;=K$6,$F66&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="184" priority="275">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="185" priority="275">
-      <formula>AND($E67&lt;=K$6,ROUNDDOWN(($F67-$E67+1)*$H67,0)+$E67-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="276">
-      <formula>AND(NOT(ISBLANK($E67)),$E67&lt;=K$6,$F67&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="183" priority="274">
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="183" priority="272">
+      <formula>AND($E65&lt;=K$6,ROUNDDOWN(($F65-$E65+1)*$H65,0)+$E65-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="273">
+      <formula>AND(NOT(ISBLANK($E65)),$E65&lt;=K$6,$F65&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="181" priority="271">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="182" priority="271">
-      <formula>AND($E66&lt;=K$6,ROUNDDOWN(($F66-$E66+1)*$H66,0)+$E66-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="272">
-      <formula>AND(NOT(ISBLANK($E66)),$E66&lt;=K$6,$F66&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="180" priority="270">
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="180" priority="268">
+      <formula>AND($E64&lt;=K$6,ROUNDDOWN(($F64-$E64+1)*$H64,0)+$E64-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="269">
+      <formula>AND(NOT(ISBLANK($E64)),$E64&lt;=K$6,$F64&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="178" priority="267">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="179" priority="267">
-      <formula>AND($E65&lt;=K$6,ROUNDDOWN(($F65-$E65+1)*$H65,0)+$E65-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="268">
-      <formula>AND(NOT(ISBLANK($E65)),$E65&lt;=K$6,$F65&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="177" priority="266">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="177" priority="264">
+      <formula>AND($E63&lt;=K$6,ROUNDDOWN(($F63-$E63+1)*$H63,0)+$E63-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="265">
+      <formula>AND(NOT(ISBLANK($E63)),$E63&lt;=K$6,$F63&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="175" priority="263">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="176" priority="263">
-      <formula>AND($E64&lt;=K$6,ROUNDDOWN(($F64-$E64+1)*$H64,0)+$E64-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="264">
-      <formula>AND(NOT(ISBLANK($E64)),$E64&lt;=K$6,$F64&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="174" priority="262">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="174" priority="260">
+      <formula>AND($E62&lt;=K$6,ROUNDDOWN(($F62-$E62+1)*$H62,0)+$E62-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="261">
+      <formula>AND(NOT(ISBLANK($E62)),$E62&lt;=K$6,$F62&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="172" priority="259">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="173" priority="259">
-      <formula>AND($E63&lt;=K$6,ROUNDDOWN(($F63-$E63+1)*$H63,0)+$E63-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="260">
-      <formula>AND(NOT(ISBLANK($E63)),$E63&lt;=K$6,$F63&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="171" priority="258">
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="171" priority="296">
+      <formula>AND($E49&lt;=K$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="297">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=K$6,$F49&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="169" priority="295">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="170" priority="255">
-      <formula>AND($E62&lt;=K$6,ROUNDDOWN(($F62-$E62+1)*$H62,0)+$E62-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="256">
-      <formula>AND(NOT(ISBLANK($E62)),$E62&lt;=K$6,$F62&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="168" priority="254">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="167" priority="291">
-      <formula>AND($E49&lt;=K$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="292">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=K$6,$F49&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="165" priority="290">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H129:H130">
-    <cfRule type="dataBar" priority="285">
+    <cfRule type="dataBar" priority="290">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18319,373 +18360,373 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K129:BN130">
-    <cfRule type="expression" dxfId="164" priority="286">
+    <cfRule type="expression" dxfId="168" priority="291">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="163" priority="251">
+    <cfRule type="expression" dxfId="167" priority="256">
       <formula>AND($E61&lt;=K$6,ROUNDDOWN(($F61-$E61+1)*$H61,0)+$E61-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="252">
+    <cfRule type="expression" dxfId="166" priority="257">
       <formula>AND(NOT(ISBLANK($E61)),$E61&lt;=K$6,$F61&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="161" priority="250">
+    <cfRule type="expression" dxfId="165" priority="255">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="160" priority="247">
+    <cfRule type="expression" dxfId="164" priority="252">
       <formula>AND($E59&lt;=K$6,ROUNDDOWN(($F59-$E59+1)*$H59,0)+$E59-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="248">
+    <cfRule type="expression" dxfId="163" priority="253">
       <formula>AND(NOT(ISBLANK($E59)),$E59&lt;=K$6,$F59&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="158" priority="246">
+    <cfRule type="expression" dxfId="162" priority="251">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="157" priority="283">
+    <cfRule type="expression" dxfId="161" priority="288">
       <formula>AND($E58&lt;=K$6,ROUNDDOWN(($F58-$E58+1)*$H58,0)+$E58-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="284">
+    <cfRule type="expression" dxfId="160" priority="289">
       <formula>AND(NOT(ISBLANK($E58)),$E58&lt;=K$6,$F58&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="155" priority="282">
+    <cfRule type="expression" dxfId="159" priority="287">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="154" priority="279">
+    <cfRule type="expression" dxfId="158" priority="284">
       <formula>AND($E60&lt;=K$6,ROUNDDOWN(($F60-$E60+1)*$H60,0)+$E60-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="280">
+    <cfRule type="expression" dxfId="157" priority="285">
       <formula>AND(NOT(ISBLANK($E60)),$E60&lt;=K$6,$F60&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="152" priority="278">
+    <cfRule type="expression" dxfId="156" priority="283">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="151" priority="235">
+    <cfRule type="expression" dxfId="155" priority="240">
       <formula>AND($E77&lt;=K$6,ROUNDDOWN(($F77-$E77+1)*$H77,0)+$E77-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="236">
+    <cfRule type="expression" dxfId="154" priority="241">
       <formula>AND(NOT(ISBLANK($E77)),$E77&lt;=K$6,$F77&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="149" priority="234">
+    <cfRule type="expression" dxfId="153" priority="239">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="148" priority="231">
+    <cfRule type="expression" dxfId="152" priority="236">
       <formula>AND($E76&lt;=K$6,ROUNDDOWN(($F76-$E76+1)*$H76,0)+$E76-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="232">
+    <cfRule type="expression" dxfId="151" priority="237">
       <formula>AND(NOT(ISBLANK($E76)),$E76&lt;=K$6,$F76&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="146" priority="230">
+    <cfRule type="expression" dxfId="150" priority="235">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="145" priority="227">
+    <cfRule type="expression" dxfId="149" priority="232">
       <formula>AND($E75&lt;=K$6,ROUNDDOWN(($F75-$E75+1)*$H75,0)+$E75-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="228">
+    <cfRule type="expression" dxfId="148" priority="233">
       <formula>AND(NOT(ISBLANK($E75)),$E75&lt;=K$6,$F75&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="143" priority="226">
+    <cfRule type="expression" dxfId="147" priority="231">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="142" priority="223">
+    <cfRule type="expression" dxfId="146" priority="228">
       <formula>AND($E74&lt;=K$6,ROUNDDOWN(($F74-$E74+1)*$H74,0)+$E74-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="224">
+    <cfRule type="expression" dxfId="145" priority="229">
       <formula>AND(NOT(ISBLANK($E74)),$E74&lt;=K$6,$F74&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="140" priority="222">
+    <cfRule type="expression" dxfId="144" priority="227">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="139" priority="219">
+    <cfRule type="expression" dxfId="143" priority="224">
       <formula>AND($E73&lt;=K$6,ROUNDDOWN(($F73-$E73+1)*$H73,0)+$E73-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="220">
+    <cfRule type="expression" dxfId="142" priority="225">
       <formula>AND(NOT(ISBLANK($E73)),$E73&lt;=K$6,$F73&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="137" priority="218">
+    <cfRule type="expression" dxfId="141" priority="223">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="136" priority="215">
+    <cfRule type="expression" dxfId="140" priority="220">
       <formula>AND($E72&lt;=K$6,ROUNDDOWN(($F72-$E72+1)*$H72,0)+$E72-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="216">
+    <cfRule type="expression" dxfId="139" priority="221">
       <formula>AND(NOT(ISBLANK($E72)),$E72&lt;=K$6,$F72&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="134" priority="214">
+    <cfRule type="expression" dxfId="138" priority="219">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="133" priority="211">
+    <cfRule type="expression" dxfId="137" priority="216">
       <formula>AND($E71&lt;=K$6,ROUNDDOWN(($F71-$E71+1)*$H71,0)+$E71-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="212">
+    <cfRule type="expression" dxfId="136" priority="217">
       <formula>AND(NOT(ISBLANK($E71)),$E71&lt;=K$6,$F71&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="131" priority="210">
+    <cfRule type="expression" dxfId="135" priority="215">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="130" priority="207">
+    <cfRule type="expression" dxfId="134" priority="212">
       <formula>AND($E69&lt;=K$6,ROUNDDOWN(($F69-$E69+1)*$H69,0)+$E69-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="208">
+    <cfRule type="expression" dxfId="133" priority="213">
       <formula>AND(NOT(ISBLANK($E69)),$E69&lt;=K$6,$F69&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="128" priority="206">
+    <cfRule type="expression" dxfId="132" priority="211">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="127" priority="203">
+    <cfRule type="expression" dxfId="131" priority="208">
       <formula>AND($E78&lt;=K$6,ROUNDDOWN(($F78-$E78+1)*$H78,0)+$E78-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="204">
+    <cfRule type="expression" dxfId="130" priority="209">
       <formula>AND(NOT(ISBLANK($E78)),$E78&lt;=K$6,$F78&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="125" priority="202">
+    <cfRule type="expression" dxfId="129" priority="207">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="124" priority="199">
+    <cfRule type="expression" dxfId="128" priority="204">
       <formula>AND($E80&lt;=K$6,ROUNDDOWN(($F80-$E80+1)*$H80,0)+$E80-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="200">
+    <cfRule type="expression" dxfId="127" priority="205">
       <formula>AND(NOT(ISBLANK($E80)),$E80&lt;=K$6,$F80&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="122" priority="198">
+    <cfRule type="expression" dxfId="126" priority="203">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:BN82">
-    <cfRule type="expression" dxfId="121" priority="194">
+  <conditionalFormatting sqref="K82:BN82">
+    <cfRule type="expression" dxfId="125" priority="199">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="120" priority="191">
+    <cfRule type="expression" dxfId="124" priority="196">
       <formula>AND($E79&lt;=K$6,ROUNDDOWN(($F79-$E79+1)*$H79,0)+$E79-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="192">
+    <cfRule type="expression" dxfId="123" priority="197">
       <formula>AND(NOT(ISBLANK($E79)),$E79&lt;=K$6,$F79&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="118" priority="190">
+    <cfRule type="expression" dxfId="122" priority="195">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="117" priority="243">
+    <cfRule type="expression" dxfId="121" priority="248">
       <formula>AND($E68&lt;=K$6,ROUNDDOWN(($F68-$E68+1)*$H68,0)+$E68-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="244">
+    <cfRule type="expression" dxfId="120" priority="249">
       <formula>AND(NOT(ISBLANK($E68)),$E68&lt;=K$6,$F68&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="115" priority="242">
+    <cfRule type="expression" dxfId="119" priority="247">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="114" priority="239">
+    <cfRule type="expression" dxfId="118" priority="244">
       <formula>AND($E70&lt;=K$6,ROUNDDOWN(($F70-$E70+1)*$H70,0)+$E70-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="240">
+    <cfRule type="expression" dxfId="117" priority="245">
       <formula>AND(NOT(ISBLANK($E70)),$E70&lt;=K$6,$F70&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="112" priority="238">
+    <cfRule type="expression" dxfId="116" priority="243">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K86:BN86">
-    <cfRule type="expression" dxfId="111" priority="170">
+    <cfRule type="expression" dxfId="115" priority="175">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:BN83">
-    <cfRule type="expression" dxfId="110" priority="186">
+    <cfRule type="expression" dxfId="114" priority="191">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="109" priority="167">
+    <cfRule type="expression" dxfId="113" priority="172">
       <formula>AND($E93&lt;=K$6,ROUNDDOWN(($F93-$E93+1)*$H93,0)+$E93-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="168">
+    <cfRule type="expression" dxfId="112" priority="173">
       <formula>AND(NOT(ISBLANK($E93)),$E93&lt;=K$6,$F93&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="107" priority="166">
+    <cfRule type="expression" dxfId="111" priority="171">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K92:BN92">
-    <cfRule type="expression" dxfId="106" priority="163">
+    <cfRule type="expression" dxfId="110" priority="168">
       <formula>AND($E92&lt;=K$6,ROUNDDOWN(($F92-$E92+1)*$H92,0)+$E92-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="164">
+    <cfRule type="expression" dxfId="109" priority="169">
       <formula>AND(NOT(ISBLANK($E92)),$E92&lt;=K$6,$F92&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K92:BN92">
-    <cfRule type="expression" dxfId="104" priority="162">
+    <cfRule type="expression" dxfId="108" priority="167">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91:BN91">
-    <cfRule type="expression" dxfId="103" priority="159">
+    <cfRule type="expression" dxfId="107" priority="164">
       <formula>AND($E91&lt;=K$6,ROUNDDOWN(($F91-$E91+1)*$H91,0)+$E91-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="160">
+    <cfRule type="expression" dxfId="106" priority="165">
       <formula>AND(NOT(ISBLANK($E91)),$E91&lt;=K$6,$F91&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91:BN91">
-    <cfRule type="expression" dxfId="101" priority="158">
+    <cfRule type="expression" dxfId="105" priority="163">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K90:BN90">
-    <cfRule type="expression" dxfId="100" priority="155">
+    <cfRule type="expression" dxfId="104" priority="160">
       <formula>AND($E90&lt;=K$6,ROUNDDOWN(($F90-$E90+1)*$H90,0)+$E90-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="156">
+    <cfRule type="expression" dxfId="103" priority="161">
       <formula>AND(NOT(ISBLANK($E90)),$E90&lt;=K$6,$F90&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K90:BN90">
-    <cfRule type="expression" dxfId="98" priority="154">
+    <cfRule type="expression" dxfId="102" priority="159">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89:BN89">
-    <cfRule type="expression" dxfId="97" priority="151">
+    <cfRule type="expression" dxfId="101" priority="156">
       <formula>AND($E89&lt;=K$6,ROUNDDOWN(($F89-$E89+1)*$H89,0)+$E89-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="152">
+    <cfRule type="expression" dxfId="100" priority="157">
       <formula>AND(NOT(ISBLANK($E89)),$E89&lt;=K$6,$F89&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89:BN89">
-    <cfRule type="expression" dxfId="95" priority="150">
+    <cfRule type="expression" dxfId="99" priority="155">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K88:BN88">
-    <cfRule type="expression" dxfId="94" priority="147">
+    <cfRule type="expression" dxfId="98" priority="152">
       <formula>AND($E88&lt;=K$6,ROUNDDOWN(($F88-$E88+1)*$H88,0)+$E88-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="148">
+    <cfRule type="expression" dxfId="97" priority="153">
       <formula>AND(NOT(ISBLANK($E88)),$E88&lt;=K$6,$F88&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K88:BN88">
-    <cfRule type="expression" dxfId="92" priority="146">
+    <cfRule type="expression" dxfId="96" priority="151">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87:BN87">
-    <cfRule type="expression" dxfId="91" priority="143">
+    <cfRule type="expression" dxfId="95" priority="148">
       <formula>AND($E87&lt;=K$6,ROUNDDOWN(($F87-$E87+1)*$H87,0)+$E87-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="144">
+    <cfRule type="expression" dxfId="94" priority="149">
       <formula>AND(NOT(ISBLANK($E87)),$E87&lt;=K$6,$F87&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87:BN87">
-    <cfRule type="expression" dxfId="89" priority="142">
+    <cfRule type="expression" dxfId="93" priority="147">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K85:BN85">
-    <cfRule type="expression" dxfId="88" priority="139">
+    <cfRule type="expression" dxfId="92" priority="144">
       <formula>AND($E85&lt;=K$6,ROUNDDOWN(($F85-$E85+1)*$H85,0)+$E85-1&gt;=K$6)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="91" priority="145">
+      <formula>AND(NOT(ISBLANK($E85)),$E85&lt;=K$6,$F85&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85:BN85">
+    <cfRule type="expression" dxfId="90" priority="143">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K86:BN86">
+    <cfRule type="expression" dxfId="89" priority="176">
+      <formula>AND($E86&lt;=K$6,ROUNDDOWN(($F86-$E86+1)*$H86,0)+$E86-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="177">
+      <formula>AND(NOT(ISBLANK($E86)),$E86&lt;=K$6,$F86&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:BN84">
     <cfRule type="expression" dxfId="87" priority="140">
-      <formula>AND(NOT(ISBLANK($E85)),$E85&lt;=K$6,$F85&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN85">
-    <cfRule type="expression" dxfId="86" priority="138">
+      <formula>AND($E84&lt;=K$6,ROUNDDOWN(($F84-$E84+1)*$H84,0)+$E84-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="141">
+      <formula>AND(NOT(ISBLANK($E84)),$E84&lt;=K$6,$F84&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:BN84">
+    <cfRule type="expression" dxfId="85" priority="139">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:BN86">
-    <cfRule type="expression" dxfId="85" priority="171">
-      <formula>AND($E86&lt;=K$6,ROUNDDOWN(($F86-$E86+1)*$H86,0)+$E86-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="172">
-      <formula>AND(NOT(ISBLANK($E86)),$E86&lt;=K$6,$F86&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84:BN84">
-    <cfRule type="expression" dxfId="83" priority="135">
-      <formula>AND($E84&lt;=K$6,ROUNDDOWN(($F84-$E84+1)*$H84,0)+$E84-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="136">
-      <formula>AND(NOT(ISBLANK($E84)),$E84&lt;=K$6,$F84&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84:BN84">
-    <cfRule type="expression" dxfId="81" priority="134">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="dataBar" priority="127">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18699,353 +18740,353 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K95:BN95">
-    <cfRule type="expression" dxfId="80" priority="129">
+    <cfRule type="expression" dxfId="84" priority="134">
       <formula>AND($E95&lt;=K$6,ROUNDDOWN(($F95-$E95+1)*$H95,0)+$E95-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="130">
+    <cfRule type="expression" dxfId="83" priority="135">
       <formula>AND(NOT(ISBLANK($E95)),$E95&lt;=K$6,$F95&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K95:BN95">
-    <cfRule type="expression" dxfId="78" priority="128">
+    <cfRule type="expression" dxfId="82" priority="133">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K97:BN97">
+    <cfRule type="expression" dxfId="81" priority="130">
+      <formula>AND($E97&lt;=K$6,ROUNDDOWN(($F97-$E97+1)*$H97,0)+$E97-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="131">
+      <formula>AND(NOT(ISBLANK($E97)),$E97&lt;=K$6,$F97&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K97:BN97">
+    <cfRule type="expression" dxfId="79" priority="129">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96:BN96">
+    <cfRule type="expression" dxfId="78" priority="124">
+      <formula>AND($E96&lt;=K$6,ROUNDDOWN(($F96-$E96+1)*$H96,0)+$E96-1&gt;=K$6)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="77" priority="125">
-      <formula>AND($E97&lt;=K$6,ROUNDDOWN(($F97-$E97+1)*$H97,0)+$E97-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="126">
-      <formula>AND(NOT(ISBLANK($E97)),$E97&lt;=K$6,$F97&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K97:BN97">
-    <cfRule type="expression" dxfId="75" priority="124">
+      <formula>AND(NOT(ISBLANK($E96)),$E96&lt;=K$6,$F96&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96:BN96">
+    <cfRule type="expression" dxfId="76" priority="123">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
-    <cfRule type="expression" dxfId="74" priority="119">
-      <formula>AND($E96&lt;=K$6,ROUNDDOWN(($F96-$E96+1)*$H96,0)+$E96-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="120">
-      <formula>AND(NOT(ISBLANK($E96)),$E96&lt;=K$6,$F96&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
-    <cfRule type="expression" dxfId="72" priority="118">
+  <conditionalFormatting sqref="K98:BN98">
+    <cfRule type="expression" dxfId="75" priority="112">
+      <formula>AND($E98&lt;=K$6,ROUNDDOWN(($F98-$E98+1)*$H98,0)+$E98-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="113">
+      <formula>AND(NOT(ISBLANK($E98)),$E98&lt;=K$6,$F98&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K98:BN98">
+    <cfRule type="expression" dxfId="73" priority="111">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K98:BN98">
-    <cfRule type="expression" dxfId="71" priority="107">
-      <formula>AND($E98&lt;=K$6,ROUNDDOWN(($F98-$E98+1)*$H98,0)+$E98-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="108">
-      <formula>AND(NOT(ISBLANK($E98)),$E98&lt;=K$6,$F98&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K98:BN98">
-    <cfRule type="expression" dxfId="69" priority="106">
+  <conditionalFormatting sqref="K99:BN99">
+    <cfRule type="expression" dxfId="72" priority="108">
+      <formula>AND($E99&lt;=K$6,ROUNDDOWN(($F99-$E99+1)*$H99,0)+$E99-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="109">
+      <formula>AND(NOT(ISBLANK($E99)),$E99&lt;=K$6,$F99&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K99:BN99">
+    <cfRule type="expression" dxfId="70" priority="107">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN99">
-    <cfRule type="expression" dxfId="68" priority="103">
-      <formula>AND($E99&lt;=K$6,ROUNDDOWN(($F99-$E99+1)*$H99,0)+$E99-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="104">
-      <formula>AND(NOT(ISBLANK($E99)),$E99&lt;=K$6,$F99&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN99">
-    <cfRule type="expression" dxfId="66" priority="102">
+  <conditionalFormatting sqref="K101:BN101">
+    <cfRule type="expression" dxfId="69" priority="104">
+      <formula>AND($E101&lt;=K$6,ROUNDDOWN(($F101-$E101+1)*$H101,0)+$E101-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="105">
+      <formula>AND(NOT(ISBLANK($E101)),$E101&lt;=K$6,$F101&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K101:BN101">
+    <cfRule type="expression" dxfId="67" priority="103">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K101:BN101">
-    <cfRule type="expression" dxfId="65" priority="99">
-      <formula>AND($E101&lt;=K$6,ROUNDDOWN(($F101-$E101+1)*$H101,0)+$E101-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="100">
-      <formula>AND(NOT(ISBLANK($E101)),$E101&lt;=K$6,$F101&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K101:BN101">
-    <cfRule type="expression" dxfId="63" priority="98">
+  <conditionalFormatting sqref="K100:BN100">
+    <cfRule type="expression" dxfId="66" priority="100">
+      <formula>AND($E100&lt;=K$6,ROUNDDOWN(($F100-$E100+1)*$H100,0)+$E100-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="101">
+      <formula>AND(NOT(ISBLANK($E100)),$E100&lt;=K$6,$F100&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K100:BN100">
+    <cfRule type="expression" dxfId="64" priority="99">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K100:BN100">
-    <cfRule type="expression" dxfId="62" priority="95">
-      <formula>AND($E100&lt;=K$6,ROUNDDOWN(($F100-$E100+1)*$H100,0)+$E100-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="96">
-      <formula>AND(NOT(ISBLANK($E100)),$E100&lt;=K$6,$F100&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K100:BN100">
-    <cfRule type="expression" dxfId="60" priority="94">
+  <conditionalFormatting sqref="K102:BN102">
+    <cfRule type="expression" dxfId="63" priority="96">
+      <formula>AND($E102&lt;=K$6,ROUNDDOWN(($F102-$E102+1)*$H102,0)+$E102-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="97">
+      <formula>AND(NOT(ISBLANK($E102)),$E102&lt;=K$6,$F102&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K102:BN102">
+    <cfRule type="expression" dxfId="61" priority="95">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K102:BN102">
-    <cfRule type="expression" dxfId="59" priority="91">
-      <formula>AND($E102&lt;=K$6,ROUNDDOWN(($F102-$E102+1)*$H102,0)+$E102-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="92">
-      <formula>AND(NOT(ISBLANK($E102)),$E102&lt;=K$6,$F102&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K102:BN102">
-    <cfRule type="expression" dxfId="57" priority="90">
+  <conditionalFormatting sqref="K104:BN104">
+    <cfRule type="expression" dxfId="60" priority="92">
+      <formula>AND($E104&lt;=K$6,ROUNDDOWN(($F104-$E104+1)*$H104,0)+$E104-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="93">
+      <formula>AND(NOT(ISBLANK($E104)),$E104&lt;=K$6,$F104&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K104:BN104">
+    <cfRule type="expression" dxfId="58" priority="91">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K104:BN104">
-    <cfRule type="expression" dxfId="56" priority="87">
-      <formula>AND($E104&lt;=K$6,ROUNDDOWN(($F104-$E104+1)*$H104,0)+$E104-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="88">
-      <formula>AND(NOT(ISBLANK($E104)),$E104&lt;=K$6,$F104&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K104:BN104">
-    <cfRule type="expression" dxfId="54" priority="86">
+  <conditionalFormatting sqref="K103:BN103">
+    <cfRule type="expression" dxfId="57" priority="88">
+      <formula>AND($E103&lt;=K$6,ROUNDDOWN(($F103-$E103+1)*$H103,0)+$E103-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="89">
+      <formula>AND(NOT(ISBLANK($E103)),$E103&lt;=K$6,$F103&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103:BN103">
+    <cfRule type="expression" dxfId="55" priority="87">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K103:BN103">
-    <cfRule type="expression" dxfId="53" priority="83">
-      <formula>AND($E103&lt;=K$6,ROUNDDOWN(($F103-$E103+1)*$H103,0)+$E103-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="84">
-      <formula>AND(NOT(ISBLANK($E103)),$E103&lt;=K$6,$F103&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K103:BN103">
-    <cfRule type="expression" dxfId="51" priority="82">
+  <conditionalFormatting sqref="K106:BN106">
+    <cfRule type="expression" dxfId="54" priority="84">
+      <formula>AND($E106&lt;=K$6,ROUNDDOWN(($F106-$E106+1)*$H106,0)+$E106-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="85">
+      <formula>AND(NOT(ISBLANK($E106)),$E106&lt;=K$6,$F106&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106:BN106">
+    <cfRule type="expression" dxfId="52" priority="83">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K106:BN106">
-    <cfRule type="expression" dxfId="50" priority="79">
-      <formula>AND($E106&lt;=K$6,ROUNDDOWN(($F106-$E106+1)*$H106,0)+$E106-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="80">
-      <formula>AND(NOT(ISBLANK($E106)),$E106&lt;=K$6,$F106&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K106:BN106">
-    <cfRule type="expression" dxfId="48" priority="78">
+  <conditionalFormatting sqref="K105:BN105">
+    <cfRule type="expression" dxfId="51" priority="80">
+      <formula>AND($E105&lt;=K$6,ROUNDDOWN(($F105-$E105+1)*$H105,0)+$E105-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="81">
+      <formula>AND(NOT(ISBLANK($E105)),$E105&lt;=K$6,$F105&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K105:BN105">
+    <cfRule type="expression" dxfId="49" priority="79">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K105:BN105">
-    <cfRule type="expression" dxfId="47" priority="75">
-      <formula>AND($E105&lt;=K$6,ROUNDDOWN(($F105-$E105+1)*$H105,0)+$E105-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="76">
-      <formula>AND(NOT(ISBLANK($E105)),$E105&lt;=K$6,$F105&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K105:BN105">
-    <cfRule type="expression" dxfId="45" priority="74">
+  <conditionalFormatting sqref="K108:BN108">
+    <cfRule type="expression" dxfId="48" priority="76">
+      <formula>AND($E108&lt;=K$6,ROUNDDOWN(($F108-$E108+1)*$H108,0)+$E108-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="77">
+      <formula>AND(NOT(ISBLANK($E108)),$E108&lt;=K$6,$F108&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K108:BN108">
+    <cfRule type="expression" dxfId="46" priority="75">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K108:BN108">
-    <cfRule type="expression" dxfId="44" priority="71">
-      <formula>AND($E108&lt;=K$6,ROUNDDOWN(($F108-$E108+1)*$H108,0)+$E108-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="72">
-      <formula>AND(NOT(ISBLANK($E108)),$E108&lt;=K$6,$F108&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K108:BN108">
-    <cfRule type="expression" dxfId="42" priority="70">
+  <conditionalFormatting sqref="K107:BN107">
+    <cfRule type="expression" dxfId="45" priority="72">
+      <formula>AND($E107&lt;=K$6,ROUNDDOWN(($F107-$E107+1)*$H107,0)+$E107-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="73">
+      <formula>AND(NOT(ISBLANK($E107)),$E107&lt;=K$6,$F107&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K107:BN107">
+    <cfRule type="expression" dxfId="43" priority="71">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K107:BN107">
-    <cfRule type="expression" dxfId="41" priority="67">
-      <formula>AND($E107&lt;=K$6,ROUNDDOWN(($F107-$E107+1)*$H107,0)+$E107-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="68">
-      <formula>AND(NOT(ISBLANK($E107)),$E107&lt;=K$6,$F107&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K107:BN107">
-    <cfRule type="expression" dxfId="39" priority="66">
+  <conditionalFormatting sqref="K110:BN110">
+    <cfRule type="expression" dxfId="42" priority="68">
+      <formula>AND($E110&lt;=K$6,ROUNDDOWN(($F110-$E110+1)*$H110,0)+$E110-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="69">
+      <formula>AND(NOT(ISBLANK($E110)),$E110&lt;=K$6,$F110&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K110:BN110">
+    <cfRule type="expression" dxfId="40" priority="67">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K110:BN110">
-    <cfRule type="expression" dxfId="38" priority="63">
-      <formula>AND($E110&lt;=K$6,ROUNDDOWN(($F110-$E110+1)*$H110,0)+$E110-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="64">
-      <formula>AND(NOT(ISBLANK($E110)),$E110&lt;=K$6,$F110&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K110:BN110">
-    <cfRule type="expression" dxfId="36" priority="62">
+  <conditionalFormatting sqref="K109:BN109">
+    <cfRule type="expression" dxfId="39" priority="64">
+      <formula>AND($E109&lt;=K$6,ROUNDDOWN(($F109-$E109+1)*$H109,0)+$E109-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="65">
+      <formula>AND(NOT(ISBLANK($E109)),$E109&lt;=K$6,$F109&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109:BN109">
+    <cfRule type="expression" dxfId="37" priority="63">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K109:BN109">
-    <cfRule type="expression" dxfId="35" priority="59">
-      <formula>AND($E109&lt;=K$6,ROUNDDOWN(($F109-$E109+1)*$H109,0)+$E109-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="60">
-      <formula>AND(NOT(ISBLANK($E109)),$E109&lt;=K$6,$F109&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K109:BN109">
-    <cfRule type="expression" dxfId="33" priority="58">
+  <conditionalFormatting sqref="K111:BN111">
+    <cfRule type="expression" dxfId="36" priority="60">
+      <formula>AND($E111&lt;=K$6,ROUNDDOWN(($F111-$E111+1)*$H111,0)+$E111-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="61">
+      <formula>AND(NOT(ISBLANK($E111)),$E111&lt;=K$6,$F111&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K111:BN111">
+    <cfRule type="expression" dxfId="34" priority="59">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K111:BN111">
-    <cfRule type="expression" dxfId="32" priority="55">
-      <formula>AND($E111&lt;=K$6,ROUNDDOWN(($F111-$E111+1)*$H111,0)+$E111-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="56">
-      <formula>AND(NOT(ISBLANK($E111)),$E111&lt;=K$6,$F111&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K111:BN111">
-    <cfRule type="expression" dxfId="30" priority="54">
+  <conditionalFormatting sqref="K113:BN113">
+    <cfRule type="expression" dxfId="33" priority="56">
+      <formula>AND($E113&lt;=K$6,ROUNDDOWN(($F113-$E113+1)*$H113,0)+$E113-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="57">
+      <formula>AND(NOT(ISBLANK($E113)),$E113&lt;=K$6,$F113&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K113:BN113">
+    <cfRule type="expression" dxfId="31" priority="55">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K113:BN113">
-    <cfRule type="expression" dxfId="29" priority="51">
-      <formula>AND($E113&lt;=K$6,ROUNDDOWN(($F113-$E113+1)*$H113,0)+$E113-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="52">
-      <formula>AND(NOT(ISBLANK($E113)),$E113&lt;=K$6,$F113&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K113:BN113">
-    <cfRule type="expression" dxfId="27" priority="50">
+  <conditionalFormatting sqref="K112:BN112">
+    <cfRule type="expression" dxfId="30" priority="52">
+      <formula>AND($E112&lt;=K$6,ROUNDDOWN(($F112-$E112+1)*$H112,0)+$E112-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="53">
+      <formula>AND(NOT(ISBLANK($E112)),$E112&lt;=K$6,$F112&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K112:BN112">
+    <cfRule type="expression" dxfId="28" priority="51">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K112:BN112">
-    <cfRule type="expression" dxfId="26" priority="47">
-      <formula>AND($E112&lt;=K$6,ROUNDDOWN(($F112-$E112+1)*$H112,0)+$E112-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="48">
-      <formula>AND(NOT(ISBLANK($E112)),$E112&lt;=K$6,$F112&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K112:BN112">
-    <cfRule type="expression" dxfId="24" priority="46">
+  <conditionalFormatting sqref="K114:BN114">
+    <cfRule type="expression" dxfId="27" priority="48">
+      <formula>AND($E114&lt;=K$6,ROUNDDOWN(($F114-$E114+1)*$H114,0)+$E114-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="49">
+      <formula>AND(NOT(ISBLANK($E114)),$E114&lt;=K$6,$F114&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114:BN114">
+    <cfRule type="expression" dxfId="25" priority="47">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K114:BN114">
-    <cfRule type="expression" dxfId="23" priority="43">
-      <formula>AND($E114&lt;=K$6,ROUNDDOWN(($F114-$E114+1)*$H114,0)+$E114-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="44">
-      <formula>AND(NOT(ISBLANK($E114)),$E114&lt;=K$6,$F114&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K114:BN114">
-    <cfRule type="expression" dxfId="21" priority="42">
+  <conditionalFormatting sqref="K116:BN116">
+    <cfRule type="expression" dxfId="24" priority="44">
+      <formula>AND($E116&lt;=K$6,ROUNDDOWN(($F116-$E116+1)*$H116,0)+$E116-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="45">
+      <formula>AND(NOT(ISBLANK($E116)),$E116&lt;=K$6,$F116&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116:BN116">
+    <cfRule type="expression" dxfId="22" priority="43">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K116:BN116">
-    <cfRule type="expression" dxfId="20" priority="39">
-      <formula>AND($E116&lt;=K$6,ROUNDDOWN(($F116-$E116+1)*$H116,0)+$E116-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="40">
-      <formula>AND(NOT(ISBLANK($E116)),$E116&lt;=K$6,$F116&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K116:BN116">
-    <cfRule type="expression" dxfId="18" priority="38">
+  <conditionalFormatting sqref="K115:BN115">
+    <cfRule type="expression" dxfId="21" priority="40">
+      <formula>AND($E115&lt;=K$6,ROUNDDOWN(($F115-$E115+1)*$H115,0)+$E115-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="41">
+      <formula>AND(NOT(ISBLANK($E115)),$E115&lt;=K$6,$F115&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115:BN115">
+    <cfRule type="expression" dxfId="19" priority="39">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K115:BN115">
-    <cfRule type="expression" dxfId="17" priority="35">
-      <formula>AND($E115&lt;=K$6,ROUNDDOWN(($F115-$E115+1)*$H115,0)+$E115-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="36">
-      <formula>AND(NOT(ISBLANK($E115)),$E115&lt;=K$6,$F115&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K115:BN115">
-    <cfRule type="expression" dxfId="15" priority="34">
+  <conditionalFormatting sqref="K118:BN118">
+    <cfRule type="expression" dxfId="18" priority="36">
+      <formula>AND($E118&lt;=K$6,ROUNDDOWN(($F118-$E118+1)*$H118,0)+$E118-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="37">
+      <formula>AND(NOT(ISBLANK($E118)),$E118&lt;=K$6,$F118&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118:BN118">
+    <cfRule type="expression" dxfId="16" priority="35">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K118:BN118">
-    <cfRule type="expression" dxfId="14" priority="31">
-      <formula>AND($E118&lt;=K$6,ROUNDDOWN(($F118-$E118+1)*$H118,0)+$E118-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="32">
-      <formula>AND(NOT(ISBLANK($E118)),$E118&lt;=K$6,$F118&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K118:BN118">
-    <cfRule type="expression" dxfId="12" priority="30">
+  <conditionalFormatting sqref="K117:BN117">
+    <cfRule type="expression" dxfId="15" priority="32">
+      <formula>AND($E117&lt;=K$6,ROUNDDOWN(($F117-$E117+1)*$H117,0)+$E117-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="33">
+      <formula>AND(NOT(ISBLANK($E117)),$E117&lt;=K$6,$F117&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K117:BN117">
+    <cfRule type="expression" dxfId="13" priority="31">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K117:BN117">
-    <cfRule type="expression" dxfId="11" priority="27">
-      <formula>AND($E117&lt;=K$6,ROUNDDOWN(($F117-$E117+1)*$H117,0)+$E117-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="28">
-      <formula>AND(NOT(ISBLANK($E117)),$E117&lt;=K$6,$F117&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K117:BN117">
-    <cfRule type="expression" dxfId="9" priority="26">
+  <conditionalFormatting sqref="K120:BN120">
+    <cfRule type="expression" dxfId="12" priority="28">
+      <formula>AND($E120&lt;=K$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="29">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=K$6,$F120&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120:BN120">
+    <cfRule type="expression" dxfId="10" priority="27">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K120:BN120">
-    <cfRule type="expression" dxfId="8" priority="23">
-      <formula>AND($E120&lt;=K$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="24">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=K$6,$F120&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:BN120">
-    <cfRule type="expression" dxfId="6" priority="22">
+  <conditionalFormatting sqref="K119:BN119">
+    <cfRule type="expression" dxfId="9" priority="24">
+      <formula>AND($E119&lt;=K$6,ROUNDDOWN(($F119-$E119+1)*$H119,0)+$E119-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="25">
+      <formula>AND(NOT(ISBLANK($E119)),$E119&lt;=K$6,$F119&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K119:BN119">
+    <cfRule type="expression" dxfId="7" priority="23">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K119:BN119">
-    <cfRule type="expression" dxfId="5" priority="19">
-      <formula>AND($E119&lt;=K$6,ROUNDDOWN(($F119-$E119+1)*$H119,0)+$E119-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="20">
-      <formula>AND(NOT(ISBLANK($E119)),$E119&lt;=K$6,$F119&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K119:BN119">
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K128:BN128">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND($E128&lt;=K$6,ROUNDDOWN(($F128-$E128+1)*$H128,0)+$E128-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>AND(NOT(ISBLANK($E128)),$E128&lt;=K$6,$F128&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19059,12 +19100,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K128:BN128">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H36">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19078,7 +19119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H36">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19091,8 +19132,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H93">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="H40:H80 H82:H93">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19106,6 +19147,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:H120">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CBD3B5C6-8CB5-4C1E-BE22-D62B7651735F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:BN81">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($E81&lt;=K$6,ROUNDDOWN(($F81-$E81+1)*$H81,0)+$E81-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND(NOT(ISBLANK($E81)),$E81&lt;=K$6,$F81&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:BN81">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:BN81">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -19114,7 +19187,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CBD3B5C6-8CB5-4C1E-BE22-D62B7651735F}</x14:id>
+          <x14:id>{D2C403FC-0DEC-441F-8116-8CA3DCE4412C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -19433,7 +19506,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40:H93</xm:sqref>
+          <xm:sqref>H40:H80 H82:H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CBD3B5C6-8CB5-4C1E-BE22-D62B7651735F}">
@@ -19449,6 +19522,21 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H96:H120</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D2C403FC-0DEC-441F-8116-8CA3DCE4412C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H81</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
